--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.410000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>9.999999999999979</v>
+      </c>
       <c r="L12" t="n">
         <v>6.151000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4300000000000006</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>4.761904761904863</v>
+      </c>
       <c r="L13" t="n">
         <v>6.153</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>6.97674418604656</v>
+      </c>
       <c r="L14" t="n">
         <v>6.156000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>12.19512195121944</v>
+      </c>
       <c r="L15" t="n">
         <v>6.159000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>53.33333333333326</v>
+      </c>
       <c r="L16" t="n">
         <v>6.164000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>64.28571428571445</v>
+      </c>
       <c r="L17" t="n">
         <v>6.180000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>6.198</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.4800000000000004</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-9.090909090908944</v>
+      </c>
       <c r="L19" t="n">
         <v>6.194</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5700000000000003</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-87.50000000000021</v>
+      </c>
       <c r="L20" t="n">
         <v>6.183999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.6600000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-20</v>
+      </c>
       <c r="L21" t="n">
         <v>6.178999999999998</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.6600000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-13.0434782608697</v>
+      </c>
       <c r="L22" t="n">
         <v>6.173999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L23" t="n">
         <v>6.171999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.6699999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L24" t="n">
         <v>6.168999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.6799999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>1.492537313432804</v>
+        <v>-8.333333333333549</v>
       </c>
       <c r="L25" t="n">
         <v>6.166999999999997</v>
@@ -1564,7 +1586,7 @@
         <v>0.6899999999999995</v>
       </c>
       <c r="K26" t="n">
-        <v>3.030303030302965</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="L26" t="n">
         <v>6.163999999999997</v>
@@ -1613,7 +1635,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>24.99999999999996</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="L27" t="n">
         <v>6.161999999999996</v>
@@ -1662,7 +1684,7 @@
         <v>0.6999999999999993</v>
       </c>
       <c r="K28" t="n">
-        <v>29.6296296296297</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L28" t="n">
         <v>6.159999999999995</v>
@@ -1711,7 +1733,7 @@
         <v>0.839999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>-32.00000000000014</v>
+        <v>-11.11111111111126</v>
       </c>
       <c r="L29" t="n">
         <v>6.147999999999996</v>
@@ -1760,7 +1782,7 @@
         <v>0.9799999999999986</v>
       </c>
       <c r="K30" t="n">
-        <v>1.639344262295053</v>
+        <v>6.249999999999896</v>
       </c>
       <c r="L30" t="n">
         <v>6.158999999999997</v>
@@ -1809,7 +1831,7 @@
         <v>0.9899999999999984</v>
       </c>
       <c r="K31" t="n">
-        <v>-6.896551724137969</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="L31" t="n">
         <v>6.159999999999997</v>
@@ -1860,7 +1882,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.474576271186452</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="L32" t="n">
         <v>6.159999999999997</v>
@@ -1911,7 +1933,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K33" t="n">
-        <v>-5.263157894736907</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="L33" t="n">
         <v>6.158999999999996</v>
@@ -1962,7 +1984,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K34" t="n">
-        <v>-7.142857142857177</v>
+        <v>-6.249999999999896</v>
       </c>
       <c r="L34" t="n">
         <v>6.157999999999996</v>
@@ -2013,7 +2035,7 @@
         <v>1.059999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>-16.12903225806465</v>
+        <v>-18.91891891891904</v>
       </c>
       <c r="L35" t="n">
         <v>6.149999999999995</v>
@@ -2064,7 +2086,7 @@
         <v>1.149999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>-26.76056338028182</v>
+        <v>-37.77777777777782</v>
       </c>
       <c r="L36" t="n">
         <v>6.133999999999995</v>
@@ -2115,7 +2137,7 @@
         <v>1.289999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-5.882352941176458</v>
+        <v>-5.084745762711758</v>
       </c>
       <c r="L37" t="n">
         <v>6.130999999999995</v>
@@ -2166,7 +2188,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-4.651162790697686</v>
+        <v>26.08695652173916</v>
       </c>
       <c r="L38" t="n">
         <v>6.128999999999996</v>
@@ -2217,7 +2239,7 @@
         <v>1.389999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.890109890109892</v>
+        <v>-26.82926829268278</v>
       </c>
       <c r="L39" t="n">
         <v>6.131999999999996</v>
@@ -2268,7 +2290,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>8.888888888888911</v>
+        <v>-4.166666666666574</v>
       </c>
       <c r="L40" t="n">
         <v>6.128999999999996</v>
@@ -2319,7 +2341,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.234567901234544</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L41" t="n">
         <v>6.126999999999995</v>
@@ -2370,7 +2392,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="K42" t="n">
-        <v>-1.234567901234544</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L42" t="n">
         <v>6.125999999999996</v>
@@ -2421,7 +2443,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="K43" t="n">
-        <v>-2.49999999999995</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L43" t="n">
         <v>6.124999999999997</v>
@@ -2472,7 +2494,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>-2.49999999999995</v>
+        <v>12.19512195121968</v>
       </c>
       <c r="L44" t="n">
         <v>6.123999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>1.469999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>-3.797468354430303</v>
+        <v>43.75000000000014</v>
       </c>
       <c r="L45" t="n">
         <v>6.128999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>1.52</v>
       </c>
       <c r="K46" t="n">
-        <v>-8.43373493975907</v>
+        <v>-21.73913043478288</v>
       </c>
       <c r="L46" t="n">
         <v>6.137999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>1.52</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.756097560975615</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L47" t="n">
         <v>6.132999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>1.54</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.14285714285709</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L48" t="n">
         <v>6.129</v>
@@ -2727,7 +2749,7 @@
         <v>1.55</v>
       </c>
       <c r="K49" t="n">
-        <v>9.859154929577493</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L49" t="n">
         <v>6.132999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>1.62</v>
       </c>
       <c r="K50" t="n">
-        <v>-21.8749999999999</v>
+        <v>-73.33333333333294</v>
       </c>
       <c r="L50" t="n">
         <v>6.121999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>1.62</v>
       </c>
       <c r="K51" t="n">
-        <v>-20.63492063492057</v>
+        <v>-73.33333333333294</v>
       </c>
       <c r="L51" t="n">
         <v>6.110999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>1.71</v>
       </c>
       <c r="K52" t="n">
-        <v>-4.225352112676081</v>
+        <v>-8.333333333333487</v>
       </c>
       <c r="L52" t="n">
         <v>6.109</v>
@@ -2931,7 +2953,7 @@
         <v>1.76</v>
       </c>
       <c r="K53" t="n">
-        <v>2.63157894736836</v>
+        <v>10.34482758620664</v>
       </c>
       <c r="L53" t="n">
         <v>6.112</v>
@@ -2982,7 +3004,7 @@
         <v>1.85</v>
       </c>
       <c r="K54" t="n">
-        <v>-8.235294117647078</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L54" t="n">
         <v>6.106</v>
@@ -3033,7 +3055,7 @@
         <v>1.909999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>-8.235294117646982</v>
+        <v>-17.94871794871781</v>
       </c>
       <c r="L55" t="n">
         <v>6.093999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>1.999999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>12.94117647058826</v>
+        <v>4.166666666666767</v>
       </c>
       <c r="L56" t="n">
         <v>6.095999999999998</v>
@@ -3135,7 +3157,7 @@
         <v>2.039999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>1.333333333333305</v>
+        <v>8.000000000000021</v>
       </c>
       <c r="L57" t="n">
         <v>6.101999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>2.129999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>-10.84337349397589</v>
+        <v>-6.896551724137947</v>
       </c>
       <c r="L58" t="n">
         <v>6.097</v>
@@ -3237,7 +3259,7 @@
         <v>2.169999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.12820512820513</v>
+        <v>-1.818181818181783</v>
       </c>
       <c r="L59" t="n">
         <v>6.088999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-2.500000000000059</v>
+        <v>13.84615384615386</v>
       </c>
       <c r="L60" t="n">
         <v>6.097999999999998</v>
@@ -3339,7 +3361,7 @@
         <v>2.269999999999999</v>
       </c>
       <c r="K61" t="n">
-        <v>-2.500000000000059</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>6.106999999999998</v>
@@ -3390,7 +3412,7 @@
         <v>2.279999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.703703703703736</v>
+        <v>-11.53846153846149</v>
       </c>
       <c r="L62" t="n">
         <v>6.105999999999998</v>
@@ -3441,7 +3463,7 @@
         <v>2.279999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.703703703703736</v>
+        <v>6.976744186046588</v>
       </c>
       <c r="L63" t="n">
         <v>6.099999999999998</v>
@@ -3492,7 +3514,7 @@
         <v>2.279999999999998</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.703703703703736</v>
+        <v>24.32432432432434</v>
       </c>
       <c r="L64" t="n">
         <v>6.102999999999997</v>
@@ -3543,7 +3565,7 @@
         <v>2.349999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>-11.36363636363643</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L65" t="n">
         <v>6.104999999999997</v>
@@ -3594,7 +3616,7 @@
         <v>2.389999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>-1.149425287356298</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L66" t="n">
         <v>6.101999999999998</v>
@@ -3645,7 +3667,7 @@
         <v>2.449999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>-7.526881720430052</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L67" t="n">
         <v>6.088999999999997</v>
@@ -3696,7 +3718,7 @@
         <v>2.449999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.890109890109892</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>6.084999999999997</v>
@@ -3747,7 +3769,7 @@
         <v>2.449999999999998</v>
       </c>
       <c r="K69" t="n">
-        <v>-8.888888888888911</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L69" t="n">
         <v>6.084999999999996</v>
@@ -3798,7 +3820,7 @@
         <v>2.449999999999998</v>
       </c>
       <c r="K70" t="n">
-        <v>-1.204819277108411</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L70" t="n">
         <v>6.074999999999997</v>
@@ -3849,7 +3871,7 @@
         <v>2.449999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>-1.204819277108411</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L71" t="n">
         <v>6.064999999999996</v>
@@ -3900,7 +3922,7 @@
         <v>2.459999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>-14.66666666666673</v>
+        <v>-55.55555555555567</v>
       </c>
       <c r="L72" t="n">
         <v>6.054999999999996</v>
@@ -3951,7 +3973,7 @@
         <v>2.459999999999999</v>
       </c>
       <c r="K73" t="n">
-        <v>-22.8571428571429</v>
+        <v>-55.55555555555567</v>
       </c>
       <c r="L73" t="n">
         <v>6.044999999999996</v>
@@ -4002,7 +4024,7 @@
         <v>2.469999999999999</v>
       </c>
       <c r="K74" t="n">
-        <v>-12.90322580645164</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>6.033999999999997</v>
@@ -4053,7 +4075,7 @@
         <v>2.539999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>7.93650793650791</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L75" t="n">
         <v>6.036999999999997</v>
@@ -4104,7 +4126,7 @@
         <v>2.609999999999999</v>
       </c>
       <c r="K76" t="n">
-        <v>-18.03278688524594</v>
+        <v>-12.50000000000021</v>
       </c>
       <c r="L76" t="n">
         <v>6.028999999999998</v>
@@ -4155,7 +4177,7 @@
         <v>2.619999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>-27.58620689655175</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L77" t="n">
         <v>6.025999999999998</v>
@@ -4206,7 +4228,7 @@
         <v>2.629999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>-12.0000000000001</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L78" t="n">
         <v>6.023999999999998</v>
@@ -4257,7 +4279,7 @@
         <v>2.639999999999999</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.382978723404312</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L79" t="n">
         <v>6.020999999999998</v>
@@ -4308,7 +4330,7 @@
         <v>2.649999999999999</v>
       </c>
       <c r="K80" t="n">
-        <v>-31.57894736842109</v>
+        <v>-10.00000000000022</v>
       </c>
       <c r="L80" t="n">
         <v>6.018999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>2.649999999999999</v>
       </c>
       <c r="K81" t="n">
-        <v>-31.57894736842109</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L81" t="n">
         <v>6.016999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>2.709999999999999</v>
       </c>
       <c r="K82" t="n">
-        <v>-11.62790697674413</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L82" t="n">
         <v>6.021999999999998</v>
@@ -4461,7 +4483,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>-26.92307692307684</v>
+        <v>-9.090909090908896</v>
       </c>
       <c r="L83" t="n">
         <v>6.017999999999999</v>
@@ -4512,7 +4534,7 @@
         <v>2.829999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>-20.00000000000006</v>
+        <v>-24.13793103448293</v>
       </c>
       <c r="L84" t="n">
         <v>6.018</v>
@@ -4563,7 +4585,7 @@
         <v>2.829999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>-8.333333333333348</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>6.011</v>
@@ -4614,7 +4636,7 @@
         <v>2.869999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>-8.333333333333348</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>6.015</v>
@@ -4665,7 +4687,7 @@
         <v>2.879999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>6.976744186046367</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
         <v>6.020999999999999</v>
@@ -4716,7 +4738,7 @@
         <v>2.899999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>2.222222222222178</v>
+        <v>15.38461538461546</v>
       </c>
       <c r="L88" t="n">
         <v>6.024</v>
@@ -4767,7 +4789,7 @@
         <v>2.919999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>-2.12765957446823</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L89" t="n">
         <v>6.026000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>2.929999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>-4.166666666666767</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>6.026000000000002</v>
@@ -4869,7 +4891,7 @@
         <v>2.929999999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>-4.166666666666767</v>
+        <v>-27.27272727272764</v>
       </c>
       <c r="L91" t="n">
         <v>6.026000000000002</v>
@@ -4920,7 +4942,7 @@
         <v>2.929999999999998</v>
       </c>
       <c r="K92" t="n">
-        <v>-2.127659574468045</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L92" t="n">
         <v>6.020000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>2.969999999999998</v>
       </c>
       <c r="K93" t="n">
-        <v>5.882352941176532</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L93" t="n">
         <v>6.027000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>2.969999999999998</v>
       </c>
       <c r="K94" t="n">
-        <v>8.000000000000021</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L94" t="n">
         <v>6.031000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>2.979999999999998</v>
       </c>
       <c r="K95" t="n">
-        <v>-4.545454545454665</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L95" t="n">
         <v>6.036</v>
@@ -5124,7 +5146,7 @@
         <v>2.979999999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>13.51351351351352</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>6.037000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>2.989999999999998</v>
       </c>
       <c r="K97" t="n">
-        <v>18.91891891891904</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>6.037999999999999</v>
@@ -5226,7 +5248,7 @@
         <v>2.999999999999998</v>
       </c>
       <c r="K98" t="n">
-        <v>18.91891891891904</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L98" t="n">
         <v>6.042</v>
@@ -5277,7 +5299,7 @@
         <v>3.009999999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>24.32432432432434</v>
+        <v>100</v>
       </c>
       <c r="L99" t="n">
         <v>6.048999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>3.009999999999998</v>
       </c>
       <c r="K100" t="n">
-        <v>22.22222222222228</v>
+        <v>100</v>
       </c>
       <c r="L100" t="n">
         <v>6.057</v>
@@ -5379,7 +5401,7 @@
         <v>3.009999999999998</v>
       </c>
       <c r="K101" t="n">
-        <v>22.22222222222228</v>
+        <v>100</v>
       </c>
       <c r="L101" t="n">
         <v>6.065</v>
@@ -5430,7 +5452,7 @@
         <v>3.019999999999998</v>
       </c>
       <c r="K102" t="n">
-        <v>9.677419354838543</v>
+        <v>100</v>
       </c>
       <c r="L102" t="n">
         <v>6.074</v>
@@ -5481,7 +5503,7 @@
         <v>3.129999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>3.030303030302981</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L103" t="n">
         <v>6.068000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>3.189999999999997</v>
       </c>
       <c r="K104" t="n">
-        <v>11.11111111111117</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L104" t="n">
         <v>6.068000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>3.239999999999997</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.43902439024386</v>
+        <v>-23.07692307692303</v>
       </c>
       <c r="L105" t="n">
         <v>6.062</v>
@@ -5634,7 +5656,7 @@
         <v>3.309999999999997</v>
       </c>
       <c r="K106" t="n">
-        <v>4.545454545454665</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>6.063</v>
@@ -5685,7 +5707,7 @@
         <v>3.389999999999997</v>
       </c>
       <c r="K107" t="n">
-        <v>-13.72549019607834</v>
+        <v>-23.07692307692311</v>
       </c>
       <c r="L107" t="n">
         <v>6.054999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>3.479999999999997</v>
       </c>
       <c r="K108" t="n">
-        <v>6.896551724137947</v>
+        <v>-2.127659574468045</v>
       </c>
       <c r="L108" t="n">
         <v>6.055</v>
@@ -5787,7 +5809,7 @@
         <v>3.549999999999997</v>
       </c>
       <c r="K109" t="n">
-        <v>-1.587301587301556</v>
+        <v>-14.81481481481485</v>
       </c>
       <c r="L109" t="n">
         <v>6.047</v>
@@ -5838,7 +5860,7 @@
         <v>3.649999999999998</v>
       </c>
       <c r="K110" t="n">
-        <v>13.88888888888897</v>
+        <v>3.125000000000074</v>
       </c>
       <c r="L110" t="n">
         <v>6.048999999999999</v>
@@ -5889,7 +5911,7 @@
         <v>3.759999999999997</v>
       </c>
       <c r="K111" t="n">
-        <v>25.30120481927713</v>
+        <v>16.21621621621625</v>
       </c>
       <c r="L111" t="n">
         <v>6.061999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>3.819999999999998</v>
       </c>
       <c r="K112" t="n">
-        <v>30.33707865168546</v>
+        <v>42.02898550724636</v>
       </c>
       <c r="L112" t="n">
         <v>6.079999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>3.839999999999997</v>
       </c>
       <c r="K113" t="n">
-        <v>28.73563218390807</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L113" t="n">
         <v>6.110999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>3.839999999999997</v>
       </c>
       <c r="K114" t="n">
-        <v>28.73563218390807</v>
+        <v>49.99999999999993</v>
       </c>
       <c r="L114" t="n">
         <v>6.136</v>
@@ -6093,7 +6115,7 @@
         <v>3.859999999999997</v>
       </c>
       <c r="K115" t="n">
-        <v>25.0000000000001</v>
+        <v>38.18181818181819</v>
       </c>
       <c r="L115" t="n">
         <v>6.164</v>
@@ -6144,7 +6166,7 @@
         <v>3.879999999999996</v>
       </c>
       <c r="K116" t="n">
-        <v>26.66666666666673</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="L116" t="n">
         <v>6.186999999999999</v>
@@ -6195,7 +6217,7 @@
         <v>3.889999999999996</v>
       </c>
       <c r="K117" t="n">
-        <v>24.44444444444448</v>
+        <v>51.21951219512204</v>
       </c>
       <c r="L117" t="n">
         <v>6.217</v>
@@ -6246,7 +6268,7 @@
         <v>3.889999999999996</v>
       </c>
       <c r="K118" t="n">
-        <v>23.59550561797758</v>
+        <v>82.35294117647091</v>
       </c>
       <c r="L118" t="n">
         <v>6.238</v>
@@ -6297,7 +6319,7 @@
         <v>3.889999999999996</v>
       </c>
       <c r="K119" t="n">
-        <v>22.7272727272728</v>
+        <v>75.00000000000037</v>
       </c>
       <c r="L119" t="n">
         <v>6.266</v>
@@ -6348,7 +6370,7 @@
         <v>3.889999999999996</v>
       </c>
       <c r="K120" t="n">
-        <v>22.7272727272728</v>
+        <v>53.84615384615448</v>
       </c>
       <c r="L120" t="n">
         <v>6.284000000000001</v>
@@ -6399,7 +6421,7 @@
         <v>3.899999999999996</v>
       </c>
       <c r="K121" t="n">
-        <v>23.59550561797758</v>
+        <v>25</v>
       </c>
       <c r="L121" t="n">
         <v>6.292</v>
@@ -6450,7 +6472,7 @@
         <v>3.899999999999996</v>
       </c>
       <c r="K122" t="n">
-        <v>22.7272727272728</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>6.294</v>
@@ -6501,7 +6523,7 @@
         <v>3.909999999999996</v>
       </c>
       <c r="K123" t="n">
-        <v>38.46153846153852</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>6.293000000000001</v>
@@ -6552,7 +6574,7 @@
         <v>3.929999999999996</v>
       </c>
       <c r="K124" t="n">
-        <v>29.72972972972973</v>
+        <v>-14.28571428571537</v>
       </c>
       <c r="L124" t="n">
         <v>6.290000000000001</v>
@@ -6603,7 +6625,7 @@
         <v>3.939999999999997</v>
       </c>
       <c r="K125" t="n">
-        <v>40.00000000000002</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L125" t="n">
         <v>6.290000000000001</v>
@@ -6654,7 +6676,7 @@
         <v>3.949999999999997</v>
       </c>
       <c r="K126" t="n">
-        <v>34.37499999999998</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>6.289000000000001</v>
@@ -6705,7 +6727,7 @@
         <v>3.949999999999997</v>
       </c>
       <c r="K127" t="n">
-        <v>53.57142857142858</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>6.289000000000002</v>
@@ -6756,7 +6778,7 @@
         <v>3.959999999999996</v>
       </c>
       <c r="K128" t="n">
-        <v>45.83333333333333</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L128" t="n">
         <v>6.290000000000003</v>
@@ -6807,7 +6829,7 @@
         <v>3.959999999999996</v>
       </c>
       <c r="K129" t="n">
-        <v>70.73170731707332</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L129" t="n">
         <v>6.291000000000003</v>
@@ -6858,7 +6880,7 @@
         <v>3.959999999999996</v>
       </c>
       <c r="K130" t="n">
-        <v>61.29032258064525</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>6.292000000000003</v>
@@ -6909,7 +6931,7 @@
         <v>3.969999999999996</v>
       </c>
       <c r="K131" t="n">
-        <v>33.33333333333361</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L131" t="n">
         <v>6.291000000000004</v>
@@ -6960,7 +6982,7 @@
         <v>3.969999999999996</v>
       </c>
       <c r="K132" t="n">
-        <v>6.666666666666588</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>6.290000000000004</v>
@@ -7011,7 +7033,7 @@
         <v>3.979999999999996</v>
       </c>
       <c r="K133" t="n">
-        <v>-14.28571428571411</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L133" t="n">
         <v>6.289000000000005</v>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S133"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.009999999999999787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.009999999999999787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +559,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.009999999999999787</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.02999999999999936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1399999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1600000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.3400000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.370000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.410000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>6.146</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.410000000000001</v>
-      </c>
-      <c r="K12" t="n">
-        <v>9.999999999999979</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6.151000000000001</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03000000000000025</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4300000000000006</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.761904761904863</v>
-      </c>
-      <c r="L13" t="n">
-        <v>6.153</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.97674418604656</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6.156000000000001</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12.19512195121944</v>
-      </c>
-      <c r="L15" t="n">
-        <v>6.159000000000001</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="K16" t="n">
-        <v>53.33333333333326</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.164000000000001</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="K17" t="n">
-        <v>64.28571428571445</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6.180000000000001</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4400000000000004</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.198</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1243,22 +1051,10 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0.4800000000000004</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-9.090909090908944</v>
-      </c>
-      <c r="L19" t="n">
-        <v>6.194</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5700000000000003</v>
-      </c>
-      <c r="K20" t="n">
-        <v>-87.50000000000021</v>
-      </c>
-      <c r="L20" t="n">
-        <v>6.183999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1337,24 +1121,10 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.6600000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.178999999999998</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>6.1625</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,24 +1156,10 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0.6600000000000001</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-13.0434782608697</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.173999999999999</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>6.1625</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-13.0434782608697</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6.171999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>6.1625</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-13.0434782608697</v>
-      </c>
-      <c r="L24" t="n">
-        <v>6.168999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>6.1625</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6799999999999997</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-8.333333333333549</v>
-      </c>
-      <c r="L25" t="n">
-        <v>6.166999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>6.162999999999998</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6899999999999995</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-12.00000000000014</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6.163999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>6.163999999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-7.692307692307902</v>
-      </c>
-      <c r="L27" t="n">
-        <v>6.161999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>6.170999999999998</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L28" t="n">
-        <v>6.159999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>6.178999999999998</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.839999999999999</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-11.11111111111126</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6.147999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>6.170999999999998</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.9799999999999986</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6.249999999999896</v>
-      </c>
-      <c r="L30" t="n">
-        <v>6.158999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>6.171499999999998</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.009999999999999787</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.9899999999999984</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.030303030302981</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6.159999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>6.169499999999998</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6.161666666666665</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1878,26 +1506,10 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-3.030303030302981</v>
-      </c>
-      <c r="L32" t="n">
-        <v>6.159999999999997</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>6.167</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6.161666666666665</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,26 +1541,10 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-3.030303030302981</v>
-      </c>
-      <c r="L33" t="n">
-        <v>6.158999999999996</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>6.1655</v>
-      </c>
-      <c r="N33" t="n">
-        <v>6.161333333333332</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1980,26 +1576,10 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0.9999999999999982</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-6.249999999999896</v>
-      </c>
-      <c r="L34" t="n">
-        <v>6.157999999999996</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>6.1635</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6.161</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.059999999999999</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-18.91891891891904</v>
-      </c>
-      <c r="L35" t="n">
-        <v>6.149999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>6.1585</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.158666666666666</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.149999999999999</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-37.77777777777782</v>
-      </c>
-      <c r="L36" t="n">
-        <v>6.133999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>6.149</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.153999999999999</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.289999999999999</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-5.084745762711758</v>
-      </c>
-      <c r="L37" t="n">
-        <v>6.130999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>6.1465</v>
-      </c>
-      <c r="N37" t="n">
-        <v>6.157666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,26 +1716,10 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1.299999999999999</v>
-      </c>
-      <c r="K38" t="n">
-        <v>26.08695652173916</v>
-      </c>
-      <c r="L38" t="n">
-        <v>6.128999999999996</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>6.1445</v>
-      </c>
-      <c r="N38" t="n">
-        <v>6.162333333333333</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.389999999999999</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-26.82926829268278</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.131999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>6.140000000000001</v>
-      </c>
-      <c r="N39" t="n">
-        <v>6.157999999999999</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.469999999999999</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-4.166666666666574</v>
-      </c>
-      <c r="L40" t="n">
-        <v>6.128999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>6.144000000000001</v>
-      </c>
-      <c r="N40" t="n">
-        <v>6.157333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.469999999999999</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-2.127659574468037</v>
-      </c>
-      <c r="L41" t="n">
-        <v>6.126999999999995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>6.143500000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>6.155333333333333</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.469999999999999</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-2.127659574468037</v>
-      </c>
-      <c r="L42" t="n">
-        <v>6.125999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>6.143000000000002</v>
-      </c>
-      <c r="N42" t="n">
-        <v>6.153333333333333</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.469999999999999</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-2.127659574468037</v>
-      </c>
-      <c r="L43" t="n">
-        <v>6.124999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>6.142000000000002</v>
-      </c>
-      <c r="N43" t="n">
-        <v>6.152</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.469999999999999</v>
-      </c>
-      <c r="K44" t="n">
-        <v>12.19512195121968</v>
-      </c>
-      <c r="L44" t="n">
-        <v>6.123999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>6.141000000000002</v>
-      </c>
-      <c r="N44" t="n">
-        <v>6.150333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.009999999999999787</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.469999999999999</v>
-      </c>
-      <c r="K45" t="n">
-        <v>43.75000000000014</v>
-      </c>
-      <c r="L45" t="n">
-        <v>6.128999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>6.139500000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>6.148666666666668</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-21.73913043478288</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6.137999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>6.136000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>6.145333333333335</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-27.27272727272742</v>
-      </c>
-      <c r="L47" t="n">
-        <v>6.132999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>6.132000000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>6.142000000000001</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="K48" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>6.129</v>
-      </c>
-      <c r="N48" t="n">
-        <v>6.139333333333336</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-49.99999999999945</v>
-      </c>
-      <c r="L49" t="n">
-        <v>6.132999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>6.132500000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>6.13766666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-73.33333333333294</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6.121999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>6.125500000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>6.136666666666669</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-73.33333333333294</v>
-      </c>
-      <c r="L51" t="n">
-        <v>6.110999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>6.119000000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>6.132666666666669</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-8.333333333333487</v>
-      </c>
-      <c r="L52" t="n">
-        <v>6.109</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>6.117500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>6.131666666666669</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.01999999999999957</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K53" t="n">
-        <v>10.34482758620664</v>
-      </c>
-      <c r="L53" t="n">
-        <v>6.112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>6.118500000000002</v>
-      </c>
-      <c r="N53" t="n">
-        <v>6.132000000000003</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-15.78947368421063</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6.106</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>6.115000000000002</v>
-      </c>
-      <c r="N54" t="n">
-        <v>6.129333333333337</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1.909999999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>-17.94871794871781</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6.093999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>6.111500000000002</v>
-      </c>
-      <c r="N55" t="n">
-        <v>6.124333333333337</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.999999999999999</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4.166666666666767</v>
-      </c>
-      <c r="L56" t="n">
-        <v>6.095999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>6.117000000000003</v>
-      </c>
-      <c r="N56" t="n">
-        <v>6.122666666666671</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3153,26 +2381,10 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>2.039999999999999</v>
-      </c>
-      <c r="K57" t="n">
-        <v>8.000000000000021</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6.101999999999999</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>6.117500000000002</v>
-      </c>
-      <c r="N57" t="n">
-        <v>6.122000000000003</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2.129999999999999</v>
-      </c>
-      <c r="K58" t="n">
-        <v>-6.896551724137947</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6.097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>6.113000000000002</v>
-      </c>
-      <c r="N58" t="n">
-        <v>6.118333333333337</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2.169999999999999</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-1.818181818181783</v>
-      </c>
-      <c r="L59" t="n">
-        <v>6.088999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>6.111000000000002</v>
-      </c>
-      <c r="N59" t="n">
-        <v>6.118000000000004</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2.269999999999999</v>
-      </c>
-      <c r="K60" t="n">
-        <v>13.84615384615386</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6.097999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>6.110000000000002</v>
-      </c>
-      <c r="N60" t="n">
-        <v>6.116333333333336</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.03000000000000025</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2.269999999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>6.106999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>6.109000000000002</v>
-      </c>
-      <c r="N61" t="n">
-        <v>6.115000000000004</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2.279999999999998</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-11.53846153846149</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6.105999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>6.107500000000002</v>
-      </c>
-      <c r="N62" t="n">
-        <v>6.113666666666671</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2.279999999999998</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.976744186046588</v>
-      </c>
-      <c r="L63" t="n">
-        <v>6.099999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>6.106000000000002</v>
-      </c>
-      <c r="N63" t="n">
-        <v>6.112333333333337</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2.279999999999998</v>
-      </c>
-      <c r="K64" t="n">
-        <v>24.32432432432434</v>
-      </c>
-      <c r="L64" t="n">
-        <v>6.102999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>6.104500000000002</v>
-      </c>
-      <c r="N64" t="n">
-        <v>6.111000000000004</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2.349999999999999</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-20.0000000000001</v>
-      </c>
-      <c r="L65" t="n">
-        <v>6.104999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>6.099500000000002</v>
-      </c>
-      <c r="N65" t="n">
-        <v>6.109333333333338</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2.389999999999999</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-20.0000000000001</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6.101999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>6.099000000000002</v>
-      </c>
-      <c r="N66" t="n">
-        <v>6.112000000000005</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J67" t="n">
-        <v>2.449999999999998</v>
-      </c>
-      <c r="K67" t="n">
-        <v>-12.50000000000004</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.088999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>6.095500000000003</v>
-      </c>
-      <c r="N67" t="n">
-        <v>6.108000000000005</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2.449999999999998</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>6.084999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>6.091000000000003</v>
-      </c>
-      <c r="N68" t="n">
-        <v>6.103666666666672</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2.449999999999998</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-55.55555555555544</v>
-      </c>
-      <c r="L69" t="n">
-        <v>6.084999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>6.087000000000002</v>
-      </c>
-      <c r="N69" t="n">
-        <v>6.102333333333338</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2.449999999999998</v>
-      </c>
-      <c r="K70" t="n">
-        <v>-55.55555555555544</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.074999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>6.086500000000003</v>
-      </c>
-      <c r="N70" t="n">
-        <v>6.098333333333339</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.1299999999999999</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2.449999999999998</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-52.94117647058817</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.064999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>6.086000000000002</v>
-      </c>
-      <c r="N71" t="n">
-        <v>6.094333333333338</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2.459999999999999</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-55.55555555555567</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6.054999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>6.080500000000002</v>
-      </c>
-      <c r="N72" t="n">
-        <v>6.090000000000005</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.1400000000000006</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2.459999999999999</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-55.55555555555567</v>
-      </c>
-      <c r="L73" t="n">
-        <v>6.044999999999996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>6.072500000000002</v>
-      </c>
-      <c r="N73" t="n">
-        <v>6.085666666666672</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2.469999999999999</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>6.033999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>6.068500000000002</v>
-      </c>
-      <c r="N74" t="n">
-        <v>6.081000000000005</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2.539999999999999</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-6.666666666666508</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.036999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>6.071000000000002</v>
-      </c>
-      <c r="N75" t="n">
-        <v>6.078666666666672</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2.609999999999999</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-12.50000000000021</v>
-      </c>
-      <c r="L76" t="n">
-        <v>6.028999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>6.065500000000002</v>
-      </c>
-      <c r="N76" t="n">
-        <v>6.075666666666672</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3079,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2.619999999999999</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-17.64705882352947</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.025999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>6.057500000000003</v>
-      </c>
-      <c r="N77" t="n">
-        <v>6.072333333333338</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2.629999999999999</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-11.11111111111133</v>
-      </c>
-      <c r="L78" t="n">
-        <v>6.023999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>6.054500000000003</v>
-      </c>
-      <c r="N78" t="n">
-        <v>6.068666666666672</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2.639999999999999</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-15.78947368421063</v>
-      </c>
-      <c r="L79" t="n">
-        <v>6.020999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>6.053000000000003</v>
-      </c>
-      <c r="N79" t="n">
-        <v>6.065000000000004</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3181,19 @@
         <v>6.100333333333329</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>2.649999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="K80" t="n">
-        <v>-10.00000000000022</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6.018999999999998</v>
-      </c>
+        <v>6.01</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>6.047000000000003</v>
-      </c>
-      <c r="N80" t="n">
-        <v>6.064000000000004</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3220,23 @@
         <v>6.097833333333329</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>2.649999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.263157894736744</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.016999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>6.041000000000004</v>
-      </c>
-      <c r="N81" t="n">
-        <v>6.063000000000004</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3263,23 @@
         <v>6.096333333333328</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>2.709999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="K82" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.021999999999998</v>
+        <v>6.01</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>6.038500000000004</v>
-      </c>
-      <c r="N82" t="n">
-        <v>6.061000000000004</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3306,23 @@
         <v>6.093166666666662</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.1799999999999997</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>2.799999999999999</v>
+        <v>6.01</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.090909090908896</v>
-      </c>
-      <c r="L83" t="n">
-        <v>6.017999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>6.031500000000003</v>
-      </c>
-      <c r="N83" t="n">
-        <v>6.054333333333337</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3349,23 @@
         <v>6.090499999999994</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>2.829999999999998</v>
+        <v>6.01</v>
       </c>
       <c r="K84" t="n">
-        <v>-24.13793103448293</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.018</v>
+        <v>6.01</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>6.026000000000003</v>
-      </c>
-      <c r="N84" t="n">
-        <v>6.05166666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3395,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.1500000000000004</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2.829999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>6.011</v>
+        <v>6.01</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>6.024000000000004</v>
-      </c>
-      <c r="N85" t="n">
-        <v>6.051000000000003</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3433,23 @@
         <v>6.08566666666666</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-0.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.869999999999998</v>
+        <v>6.05</v>
       </c>
       <c r="K86" t="n">
-        <v>20</v>
-      </c>
-      <c r="L86" t="n">
-        <v>6.015</v>
+        <v>6.01</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>6.022000000000004</v>
-      </c>
-      <c r="N86" t="n">
-        <v>6.04866666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3476,23 @@
         <v>6.083666666666661</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-0.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.879999999999998</v>
+        <v>6.05</v>
       </c>
       <c r="K87" t="n">
-        <v>20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>6.020999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>6.023500000000004</v>
-      </c>
-      <c r="N87" t="n">
-        <v>6.045333333333336</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3519,23 @@
         <v>6.081333333333328</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.899999999999998</v>
+        <v>6.04</v>
       </c>
       <c r="K88" t="n">
-        <v>15.38461538461546</v>
-      </c>
-      <c r="L88" t="n">
-        <v>6.024</v>
+        <v>6.01</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>6.024000000000004</v>
-      </c>
-      <c r="N88" t="n">
-        <v>6.044333333333337</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3562,23 @@
         <v>6.080999999999993</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-0.1400000000000006</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.919999999999998</v>
+        <v>6.01</v>
       </c>
       <c r="K89" t="n">
-        <v>3.70370370370363</v>
-      </c>
-      <c r="L89" t="n">
-        <v>6.026000000000001</v>
+        <v>6.01</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>6.023500000000004</v>
-      </c>
-      <c r="N89" t="n">
-        <v>6.044000000000003</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3605,23 @@
         <v>6.07816666666666</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.929999999999998</v>
+        <v>6.01</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>6.026000000000002</v>
+        <v>6.01</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>6.022500000000004</v>
-      </c>
-      <c r="N90" t="n">
-        <v>6.040000000000004</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3648,23 @@
         <v>6.075499999999993</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.929999999999998</v>
+        <v>6.01</v>
       </c>
       <c r="K91" t="n">
-        <v>-27.27272727272764</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.026000000000002</v>
+        <v>6.01</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>6.021500000000004</v>
-      </c>
-      <c r="N91" t="n">
-        <v>6.036000000000003</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3691,23 @@
         <v>6.072999999999992</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.929999999999998</v>
+        <v>6.01</v>
       </c>
       <c r="K92" t="n">
-        <v>23.07692307692276</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.020000000000001</v>
+        <v>6.01</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>6.021000000000004</v>
-      </c>
-      <c r="N92" t="n">
-        <v>6.032333333333336</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3734,23 @@
         <v>6.071166666666659</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.969999999999998</v>
+        <v>6.05</v>
       </c>
       <c r="K93" t="n">
-        <v>28.57142857142867</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.027000000000001</v>
+        <v>6.01</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>6.022500000000004</v>
-      </c>
-      <c r="N93" t="n">
-        <v>6.030000000000003</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3777,23 @@
         <v>6.069333333333325</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.1100000000000003</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.969999999999998</v>
+        <v>6.05</v>
       </c>
       <c r="K94" t="n">
-        <v>28.57142857142867</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.031000000000001</v>
+        <v>6.01</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>6.024500000000004</v>
-      </c>
-      <c r="N94" t="n">
-        <v>6.02766666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3820,23 @@
         <v>6.068666666666658</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.979999999999998</v>
+        <v>6.06</v>
       </c>
       <c r="K95" t="n">
-        <v>9.090909090908944</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.036</v>
+        <v>6.01</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>6.023500000000004</v>
-      </c>
-      <c r="N95" t="n">
-        <v>6.028000000000003</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3863,23 @@
         <v>6.069499999999992</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.1000000000000005</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.979999999999998</v>
+        <v>6.06</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>6.037000000000001</v>
+        <v>6.01</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>6.026000000000004</v>
-      </c>
-      <c r="N96" t="n">
-        <v>6.027000000000003</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +3906,23 @@
         <v>6.068166666666658</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.08999999999999986</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.989999999999998</v>
+        <v>6.07</v>
       </c>
       <c r="K97" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>6.037999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>6.029500000000004</v>
-      </c>
-      <c r="N97" t="n">
-        <v>6.028333333333336</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +3949,23 @@
         <v>6.066833333333324</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.999999999999998</v>
+        <v>6.08</v>
       </c>
       <c r="K98" t="n">
-        <v>75.00000000000055</v>
-      </c>
-      <c r="L98" t="n">
-        <v>6.042</v>
+        <v>6.01</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>6.033000000000004</v>
-      </c>
-      <c r="N98" t="n">
-        <v>6.030000000000003</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +3992,23 @@
         <v>6.067166666666657</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-0.07000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>3.009999999999998</v>
+        <v>6.09</v>
       </c>
       <c r="K99" t="n">
-        <v>100</v>
-      </c>
-      <c r="L99" t="n">
-        <v>6.048999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>6.037500000000004</v>
-      </c>
-      <c r="N99" t="n">
-        <v>6.032000000000003</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4038,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3.009999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="n">
-        <v>6.057</v>
+        <v>6.01</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>6.041500000000005</v>
-      </c>
-      <c r="N100" t="n">
-        <v>6.034000000000003</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4079,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-0.07000000000000028</v>
-      </c>
-      <c r="J101" t="n">
-        <v>3.009999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>100</v>
-      </c>
-      <c r="L101" t="n">
-        <v>6.065</v>
+        <v>6.01</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>6.045500000000004</v>
-      </c>
-      <c r="N101" t="n">
-        <v>6.036000000000003</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4120,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-0.0600000000000005</v>
-      </c>
-      <c r="J102" t="n">
-        <v>3.019999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>100</v>
-      </c>
-      <c r="L102" t="n">
-        <v>6.074</v>
+        <v>6.01</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>6.047000000000004</v>
-      </c>
-      <c r="N102" t="n">
-        <v>6.03866666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4161,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.1699999999999999</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.129999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>-37.49999999999993</v>
-      </c>
-      <c r="L103" t="n">
-        <v>6.068000000000001</v>
+        <v>6.01</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>6.047500000000004</v>
-      </c>
-      <c r="N103" t="n">
-        <v>6.037666666666669</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4202,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.1100000000000003</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3.189999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>-4.761904761904681</v>
-      </c>
-      <c r="L104" t="n">
-        <v>6.068000000000001</v>
+        <v>6.01</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>6.049500000000004</v>
-      </c>
-      <c r="N104" t="n">
-        <v>6.039000000000003</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4243,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-0.1600000000000001</v>
-      </c>
-      <c r="J105" t="n">
-        <v>3.239999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>-23.07692307692303</v>
-      </c>
-      <c r="L105" t="n">
-        <v>6.062</v>
+        <v>6.01</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>6.049000000000003</v>
-      </c>
-      <c r="N105" t="n">
-        <v>6.036333333333336</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4284,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.08999999999999986</v>
-      </c>
-      <c r="J106" t="n">
-        <v>3.309999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>6.063</v>
+        <v>6.01</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>6.050000000000003</v>
-      </c>
-      <c r="N106" t="n">
-        <v>6.038333333333337</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,31 +4322,23 @@
         <v>6.055166666666659</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>3.389999999999997</v>
+        <v>5.99</v>
       </c>
       <c r="K107" t="n">
-        <v>-23.07692307692311</v>
-      </c>
-      <c r="L107" t="n">
-        <v>6.054999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>6.046500000000004</v>
-      </c>
-      <c r="N107" t="n">
-        <v>6.038000000000003</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4368,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3.479999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>-2.127659574468045</v>
-      </c>
-      <c r="L108" t="n">
-        <v>6.055</v>
+        <v>6.01</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>6.048500000000002</v>
-      </c>
-      <c r="N108" t="n">
-        <v>6.040333333333337</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5800,31 +4406,23 @@
         <v>6.052833333333325</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>-0.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>3.549999999999997</v>
+        <v>6.01</v>
       </c>
       <c r="K109" t="n">
-        <v>-14.81481481481485</v>
-      </c>
-      <c r="L109" t="n">
-        <v>6.047</v>
+        <v>6.01</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M109" t="n">
-        <v>6.048000000000004</v>
-      </c>
-      <c r="N109" t="n">
-        <v>6.04066666666667</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4452,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.04999999999999982</v>
-      </c>
-      <c r="J110" t="n">
-        <v>3.649999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>3.125000000000074</v>
-      </c>
-      <c r="L110" t="n">
-        <v>6.048999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M110" t="n">
-        <v>6.053000000000003</v>
-      </c>
-      <c r="N110" t="n">
-        <v>6.044000000000005</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5902,31 +4490,23 @@
         <v>6.056999999999992</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0.05999999999999961</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>3.759999999999997</v>
+        <v>6.13</v>
       </c>
       <c r="K111" t="n">
-        <v>16.21621621621625</v>
-      </c>
-      <c r="L111" t="n">
-        <v>6.061999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M111" t="n">
-        <v>6.063500000000003</v>
-      </c>
-      <c r="N111" t="n">
-        <v>6.051000000000005</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,1100 +4536,19 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J112" t="n">
-        <v>3.819999999999998</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>42.02898550724636</v>
-      </c>
-      <c r="L112" t="n">
-        <v>6.079999999999999</v>
+        <v>6.01</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M112" t="n">
-        <v>6.077000000000003</v>
-      </c>
-      <c r="N112" t="n">
-        <v>6.058000000000005</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C113" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E113" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="F113" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G113" t="n">
-        <v>6.061499999999992</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J113" t="n">
-        <v>3.839999999999997</v>
-      </c>
-      <c r="K113" t="n">
-        <v>38.46153846153844</v>
-      </c>
-      <c r="L113" t="n">
-        <v>6.110999999999999</v>
-      </c>
-      <c r="M113" t="n">
-        <v>6.089500000000003</v>
-      </c>
-      <c r="N113" t="n">
-        <v>6.068666666666672</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C114" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="F114" t="n">
-        <v>171.0866</v>
-      </c>
-      <c r="G114" t="n">
-        <v>6.064999999999992</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3.839999999999997</v>
-      </c>
-      <c r="K114" t="n">
-        <v>49.99999999999993</v>
-      </c>
-      <c r="L114" t="n">
-        <v>6.136</v>
-      </c>
-      <c r="M114" t="n">
-        <v>6.102000000000003</v>
-      </c>
-      <c r="N114" t="n">
-        <v>6.078333333333339</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="D115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E115" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="F115" t="n">
-        <v>130580.1489</v>
-      </c>
-      <c r="G115" t="n">
-        <v>6.069166666666659</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3.859999999999997</v>
-      </c>
-      <c r="K115" t="n">
-        <v>38.18181818181819</v>
-      </c>
-      <c r="L115" t="n">
-        <v>6.164</v>
-      </c>
-      <c r="M115" t="n">
-        <v>6.113000000000002</v>
-      </c>
-      <c r="N115" t="n">
-        <v>6.08733333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E116" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F116" t="n">
-        <v>221.3492</v>
-      </c>
-      <c r="G116" t="n">
-        <v>6.072166666666659</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J116" t="n">
-        <v>3.879999999999996</v>
-      </c>
-      <c r="K116" t="n">
-        <v>63.26530612244898</v>
-      </c>
-      <c r="L116" t="n">
-        <v>6.186999999999999</v>
-      </c>
-      <c r="M116" t="n">
-        <v>6.125000000000003</v>
-      </c>
-      <c r="N116" t="n">
-        <v>6.095666666666673</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="C117" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D117" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E117" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F117" t="n">
-        <v>8615.558199999999</v>
-      </c>
-      <c r="G117" t="n">
-        <v>6.074333333333326</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.889999999999996</v>
-      </c>
-      <c r="K117" t="n">
-        <v>51.21951219512204</v>
-      </c>
-      <c r="L117" t="n">
-        <v>6.217</v>
-      </c>
-      <c r="M117" t="n">
-        <v>6.136000000000003</v>
-      </c>
-      <c r="N117" t="n">
-        <v>6.10333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E118" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F118" t="n">
-        <v>11</v>
-      </c>
-      <c r="G118" t="n">
-        <v>6.077999999999992</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J118" t="n">
-        <v>3.889999999999996</v>
-      </c>
-      <c r="K118" t="n">
-        <v>82.35294117647091</v>
-      </c>
-      <c r="L118" t="n">
-        <v>6.238</v>
-      </c>
-      <c r="M118" t="n">
-        <v>6.146500000000002</v>
-      </c>
-      <c r="N118" t="n">
-        <v>6.111666666666673</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E119" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F119" t="n">
-        <v>300</v>
-      </c>
-      <c r="G119" t="n">
-        <v>6.082333333333326</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J119" t="n">
-        <v>3.889999999999996</v>
-      </c>
-      <c r="K119" t="n">
-        <v>75.00000000000037</v>
-      </c>
-      <c r="L119" t="n">
-        <v>6.266</v>
-      </c>
-      <c r="M119" t="n">
-        <v>6.156500000000003</v>
-      </c>
-      <c r="N119" t="n">
-        <v>6.120666666666673</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D120" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E120" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="F120" t="n">
-        <v>7493.48</v>
-      </c>
-      <c r="G120" t="n">
-        <v>6.084999999999994</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J120" t="n">
-        <v>3.889999999999996</v>
-      </c>
-      <c r="K120" t="n">
-        <v>53.84615384615448</v>
-      </c>
-      <c r="L120" t="n">
-        <v>6.284000000000001</v>
-      </c>
-      <c r="M120" t="n">
-        <v>6.166500000000002</v>
-      </c>
-      <c r="N120" t="n">
-        <v>6.130000000000006</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C121" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D121" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E121" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F121" t="n">
-        <v>8291</v>
-      </c>
-      <c r="G121" t="n">
-        <v>6.087833333333327</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J121" t="n">
-        <v>3.899999999999996</v>
-      </c>
-      <c r="K121" t="n">
-        <v>25</v>
-      </c>
-      <c r="L121" t="n">
-        <v>6.292</v>
-      </c>
-      <c r="M121" t="n">
-        <v>6.177000000000002</v>
-      </c>
-      <c r="N121" t="n">
-        <v>6.139666666666673</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E122" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>300</v>
-      </c>
-      <c r="G122" t="n">
-        <v>6.090833333333327</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J122" t="n">
-        <v>3.899999999999996</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>6.294</v>
-      </c>
-      <c r="M122" t="n">
-        <v>6.187000000000003</v>
-      </c>
-      <c r="N122" t="n">
-        <v>6.149333333333341</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C123" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D123" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="F123" t="n">
-        <v>295350.6266</v>
-      </c>
-      <c r="G123" t="n">
-        <v>6.093666666666661</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J123" t="n">
-        <v>3.909999999999996</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L123" t="n">
-        <v>6.293000000000001</v>
-      </c>
-      <c r="M123" t="n">
-        <v>6.202000000000004</v>
-      </c>
-      <c r="N123" t="n">
-        <v>6.15733333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="D124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F124" t="n">
-        <v>11923.1935</v>
-      </c>
-      <c r="G124" t="n">
-        <v>6.096166666666661</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.1099999999999994</v>
-      </c>
-      <c r="J124" t="n">
-        <v>3.929999999999996</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-14.28571428571537</v>
-      </c>
-      <c r="L124" t="n">
-        <v>6.290000000000001</v>
-      </c>
-      <c r="M124" t="n">
-        <v>6.213000000000003</v>
-      </c>
-      <c r="N124" t="n">
-        <v>6.164666666666673</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="C125" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="D125" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="F125" t="n">
-        <v>47197.2926</v>
-      </c>
-      <c r="G125" t="n">
-        <v>6.099999999999993</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J125" t="n">
-        <v>3.939999999999997</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-33.33333333333235</v>
-      </c>
-      <c r="L125" t="n">
-        <v>6.290000000000001</v>
-      </c>
-      <c r="M125" t="n">
-        <v>6.227000000000002</v>
-      </c>
-      <c r="N125" t="n">
-        <v>6.172000000000007</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C126" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D126" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="F126" t="n">
-        <v>581148.4603</v>
-      </c>
-      <c r="G126" t="n">
-        <v>6.103333333333327</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J126" t="n">
-        <v>3.949999999999997</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>6.289000000000001</v>
-      </c>
-      <c r="M126" t="n">
-        <v>6.238000000000002</v>
-      </c>
-      <c r="N126" t="n">
-        <v>6.179666666666673</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="C127" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D127" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E127" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="F127" t="n">
-        <v>363011</v>
-      </c>
-      <c r="G127" t="n">
-        <v>6.107666666666661</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.949999999999997</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>6.289000000000002</v>
-      </c>
-      <c r="M127" t="n">
-        <v>6.253000000000002</v>
-      </c>
-      <c r="N127" t="n">
-        <v>6.187000000000006</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C128" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F128" t="n">
-        <v>93234</v>
-      </c>
-      <c r="G128" t="n">
-        <v>6.112166666666663</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J128" t="n">
-        <v>3.959999999999996</v>
-      </c>
-      <c r="K128" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L128" t="n">
-        <v>6.290000000000003</v>
-      </c>
-      <c r="M128" t="n">
-        <v>6.264000000000002</v>
-      </c>
-      <c r="N128" t="n">
-        <v>6.194333333333339</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="F129" t="n">
-        <v>893</v>
-      </c>
-      <c r="G129" t="n">
-        <v>6.116666666666663</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.959999999999996</v>
-      </c>
-      <c r="K129" t="n">
-        <v>14.28571428571392</v>
-      </c>
-      <c r="L129" t="n">
-        <v>6.291000000000003</v>
-      </c>
-      <c r="M129" t="n">
-        <v>6.278500000000002</v>
-      </c>
-      <c r="N129" t="n">
-        <v>6.20133333333334</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E130" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="F130" t="n">
-        <v>100033</v>
-      </c>
-      <c r="G130" t="n">
-        <v>6.121166666666664</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.1399999999999997</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3.959999999999996</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>6.292000000000003</v>
-      </c>
-      <c r="M130" t="n">
-        <v>6.288000000000002</v>
-      </c>
-      <c r="N130" t="n">
-        <v>6.20833333333334</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="C131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E131" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="F131" t="n">
-        <v>246</v>
-      </c>
-      <c r="G131" t="n">
-        <v>6.125499999999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J131" t="n">
-        <v>3.969999999999996</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-14.28571428571392</v>
-      </c>
-      <c r="L131" t="n">
-        <v>6.291000000000004</v>
-      </c>
-      <c r="M131" t="n">
-        <v>6.291500000000002</v>
-      </c>
-      <c r="N131" t="n">
-        <v>6.215000000000006</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C132" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="D132" t="n">
-        <v>6.29</v>
-      </c>
-      <c r="E132" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F132" t="n">
-        <v>112064.1211</v>
-      </c>
-      <c r="G132" t="n">
-        <v>6.129999999999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3.969999999999996</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>6.290000000000004</v>
-      </c>
-      <c r="M132" t="n">
-        <v>6.292000000000002</v>
-      </c>
-      <c r="N132" t="n">
-        <v>6.221333333333339</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="D133" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E133" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F133" t="n">
-        <v>200022</v>
-      </c>
-      <c r="G133" t="n">
-        <v>6.134333333333331</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.1200000000000001</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3.979999999999996</v>
-      </c>
-      <c r="K133" t="n">
-        <v>20.00000000000142</v>
-      </c>
-      <c r="L133" t="n">
-        <v>6.289000000000005</v>
-      </c>
-      <c r="M133" t="n">
-        <v>6.291000000000002</v>
-      </c>
-      <c r="N133" t="n">
-        <v>6.231000000000006</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
+        <v>1.039925124792014</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -3181,17 +3181,13 @@
         <v>6.100333333333329</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K80" t="n">
-        <v>6.01</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
@@ -3220,579 +3216,481 @@
         <v>6.097833333333329</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K81" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F82" t="n">
+        <v>185393.1964</v>
+      </c>
+      <c r="G82" t="n">
+        <v>6.096333333333328</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E83" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1291900</v>
+      </c>
+      <c r="G83" t="n">
+        <v>6.093166666666662</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F84" t="n">
+        <v>33600</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6.090499999999994</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F85" t="n">
+        <v>16400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6.087666666666661</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E86" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F86" t="n">
+        <v>237.3223</v>
+      </c>
+      <c r="G86" t="n">
+        <v>6.08566666666666</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E87" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F87" t="n">
+        <v>63490.099</v>
+      </c>
+      <c r="G87" t="n">
+        <v>6.083666666666661</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D88" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E88" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F88" t="n">
+        <v>28389.9005</v>
+      </c>
+      <c r="G88" t="n">
+        <v>6.081333333333328</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F89" t="n">
+        <v>213624.909</v>
+      </c>
+      <c r="G89" t="n">
+        <v>6.080999999999993</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D90" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F90" t="n">
+        <v>38095.3246</v>
+      </c>
+      <c r="G90" t="n">
+        <v>6.07816666666666</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F91" t="n">
+        <v>39782.8757</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6.075499999999993</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E92" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F92" t="n">
+        <v>3521.6851</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6.072999999999992</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F93" t="n">
+        <v>106.7933</v>
+      </c>
+      <c r="G93" t="n">
+        <v>6.071166666666659</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K93" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F94" t="n">
+        <v>22762.3742</v>
+      </c>
+      <c r="G94" t="n">
+        <v>6.069333333333325</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C82" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D82" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F82" t="n">
-        <v>185393.1964</v>
-      </c>
-      <c r="G82" t="n">
-        <v>6.096333333333328</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K82" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C83" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D83" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E83" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F83" t="n">
-        <v>1291900</v>
-      </c>
-      <c r="G83" t="n">
-        <v>6.093166666666662</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K83" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F84" t="n">
-        <v>33600</v>
-      </c>
-      <c r="G84" t="n">
-        <v>6.090499999999994</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C85" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D85" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E85" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F85" t="n">
-        <v>16400</v>
-      </c>
-      <c r="G85" t="n">
-        <v>6.087666666666661</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C86" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D86" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E86" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F86" t="n">
-        <v>237.3223</v>
-      </c>
-      <c r="G86" t="n">
-        <v>6.08566666666666</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K86" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C87" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D87" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E87" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F87" t="n">
-        <v>63490.099</v>
-      </c>
-      <c r="G87" t="n">
-        <v>6.083666666666661</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K87" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C88" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D88" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F88" t="n">
-        <v>28389.9005</v>
-      </c>
-      <c r="G88" t="n">
-        <v>6.081333333333328</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K88" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D89" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E89" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F89" t="n">
-        <v>213624.909</v>
-      </c>
-      <c r="G89" t="n">
-        <v>6.080999999999993</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K89" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F90" t="n">
-        <v>38095.3246</v>
-      </c>
-      <c r="G90" t="n">
-        <v>6.07816666666666</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F91" t="n">
-        <v>39782.8757</v>
-      </c>
-      <c r="G91" t="n">
-        <v>6.075499999999993</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F92" t="n">
-        <v>3521.6851</v>
-      </c>
-      <c r="G92" t="n">
-        <v>6.072999999999992</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C93" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D93" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E93" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F93" t="n">
-        <v>106.7933</v>
-      </c>
-      <c r="G93" t="n">
-        <v>6.071166666666659</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K93" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C94" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D94" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E94" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F94" t="n">
-        <v>22762.3742</v>
-      </c>
-      <c r="G94" t="n">
-        <v>6.069333333333325</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3826,14 +3724,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="K95" t="n">
         <v>6.01</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3872,13 +3770,9 @@
         <v>6.06</v>
       </c>
       <c r="K96" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.06</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3806,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="K97" t="n">
-        <v>6.01</v>
+        <v>6.06</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
@@ -3949,20 +3843,18 @@
         <v>6.066833333333324</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>6.08</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>6.01</v>
+        <v>6.06</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
@@ -3998,16 +3890,12 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="K99" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.08</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4042,11 +3930,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4083,11 +3971,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -4123,14 +4011,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4164,14 +4046,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4205,14 +4081,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4246,14 +4116,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4287,14 +4151,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4322,22 +4180,14 @@
         <v>6.055166666666659</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K107" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +4221,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4406,22 +4250,14 @@
         <v>6.052833333333325</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K109" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4455,14 +4291,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4490,22 +4320,14 @@
         <v>6.056999999999992</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="K111" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4539,16 +4361,10 @@
         <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>1.039925124792014</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="C2" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D2" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="E2" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="F2" t="n">
-        <v>8578.6566</v>
+        <v>7000</v>
       </c>
       <c r="G2" t="n">
-        <v>6.164833333333335</v>
+        <v>6.164500000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="C3" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="D3" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E3" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="F3" t="n">
-        <v>28228.8424</v>
+        <v>8578.6566</v>
       </c>
       <c r="G3" t="n">
-        <v>6.165333333333336</v>
+        <v>6.164833333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="C4" t="n">
         <v>6.17</v>
@@ -512,13 +512,13 @@
         <v>6.17</v>
       </c>
       <c r="E4" t="n">
-        <v>6.17</v>
+        <v>6.15</v>
       </c>
       <c r="F4" t="n">
-        <v>6019.1671</v>
+        <v>28228.8424</v>
       </c>
       <c r="G4" t="n">
-        <v>6.166166666666669</v>
+        <v>6.165333333333336</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>6.17</v>
       </c>
       <c r="F5" t="n">
-        <v>80000</v>
+        <v>6019.1671</v>
       </c>
       <c r="G5" t="n">
-        <v>6.166833333333336</v>
+        <v>6.166166666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="C6" t="n">
-        <v>6.15</v>
+        <v>6.17</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="E6" t="n">
-        <v>6.15</v>
+        <v>6.17</v>
       </c>
       <c r="F6" t="n">
-        <v>135106.8955</v>
+        <v>80000</v>
       </c>
       <c r="G6" t="n">
-        <v>6.168000000000003</v>
+        <v>6.166833333333336</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="C7" t="n">
-        <v>6.04</v>
+        <v>6.15</v>
       </c>
       <c r="D7" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="E7" t="n">
-        <v>6.04</v>
+        <v>6.15</v>
       </c>
       <c r="F7" t="n">
-        <v>1440200.2292</v>
+        <v>135106.8955</v>
       </c>
       <c r="G7" t="n">
-        <v>6.16616666666667</v>
+        <v>6.168000000000003</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.06</v>
+        <v>6.16</v>
       </c>
       <c r="C8" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="D8" t="n">
-        <v>6.06</v>
+        <v>6.16</v>
       </c>
       <c r="E8" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="F8" t="n">
-        <v>414104.9092</v>
+        <v>1440200.2292</v>
       </c>
       <c r="G8" t="n">
-        <v>6.164000000000003</v>
+        <v>6.16616666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="C9" t="n">
-        <v>6.2</v>
+        <v>6.02</v>
       </c>
       <c r="D9" t="n">
-        <v>6.2</v>
+        <v>6.06</v>
       </c>
       <c r="E9" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="F9" t="n">
-        <v>1776233.3774</v>
+        <v>414104.9092</v>
       </c>
       <c r="G9" t="n">
-        <v>6.16466666666667</v>
+        <v>6.164000000000003</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.22</v>
+        <v>6.04</v>
       </c>
       <c r="C10" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="D10" t="n">
-        <v>6.23</v>
+        <v>6.2</v>
       </c>
       <c r="E10" t="n">
-        <v>6.17</v>
+        <v>6.01</v>
       </c>
       <c r="F10" t="n">
-        <v>255674.0971</v>
+        <v>1776233.3774</v>
       </c>
       <c r="G10" t="n">
-        <v>6.164833333333336</v>
+        <v>6.16466666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.21</v>
+        <v>6.22</v>
       </c>
       <c r="C11" t="n">
-        <v>6.21</v>
+        <v>6.17</v>
       </c>
       <c r="D11" t="n">
-        <v>6.21</v>
+        <v>6.23</v>
       </c>
       <c r="E11" t="n">
-        <v>6.21</v>
+        <v>6.17</v>
       </c>
       <c r="F11" t="n">
-        <v>111</v>
+        <v>255674.0971</v>
       </c>
       <c r="G11" t="n">
-        <v>6.165666666666668</v>
+        <v>6.164833333333336</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>6.21</v>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="G12" t="n">
-        <v>6.166500000000001</v>
+        <v>6.165666666666668</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="C13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="D13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="E13" t="n">
-        <v>6.19</v>
+        <v>6.21</v>
       </c>
       <c r="F13" t="n">
-        <v>7670</v>
+        <v>200</v>
       </c>
       <c r="G13" t="n">
-        <v>6.167000000000001</v>
+        <v>6.166500000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="C14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="D14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="E14" t="n">
-        <v>6.2</v>
+        <v>6.19</v>
       </c>
       <c r="F14" t="n">
-        <v>133</v>
+        <v>7670</v>
       </c>
       <c r="G14" t="n">
-        <v>6.167666666666666</v>
+        <v>6.167000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>6.2</v>
       </c>
       <c r="F15" t="n">
-        <v>456</v>
+        <v>133</v>
       </c>
       <c r="G15" t="n">
-        <v>6.169166666666666</v>
+        <v>6.167666666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>6.2</v>
       </c>
       <c r="F16" t="n">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="G16" t="n">
-        <v>6.170666666666666</v>
+        <v>6.169166666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>6.2</v>
       </c>
       <c r="F17" t="n">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="G17" t="n">
-        <v>6.172166666666666</v>
+        <v>6.170666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>6.2</v>
       </c>
       <c r="F18" t="n">
-        <v>52310.1612</v>
+        <v>527</v>
       </c>
       <c r="G18" t="n">
-        <v>6.172833333333331</v>
+        <v>6.172166666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="C19" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D19" t="n">
-        <v>6.19</v>
+        <v>6.2</v>
       </c>
       <c r="E19" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="F19" t="n">
-        <v>14216.2597</v>
+        <v>52310.1612</v>
       </c>
       <c r="G19" t="n">
-        <v>6.173666666666665</v>
+        <v>6.172833333333331</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.12</v>
+        <v>6.19</v>
       </c>
       <c r="C20" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="D20" t="n">
-        <v>6.12</v>
+        <v>6.19</v>
       </c>
       <c r="E20" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="F20" t="n">
-        <v>202182.4614</v>
+        <v>14216.2597</v>
       </c>
       <c r="G20" t="n">
-        <v>6.172999999999998</v>
+        <v>6.173666666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.13</v>
+        <v>6.12</v>
       </c>
       <c r="C21" t="n">
-        <v>6.16</v>
+        <v>6.07</v>
       </c>
       <c r="D21" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="E21" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="F21" t="n">
-        <v>51800.6691</v>
+        <v>202182.4614</v>
       </c>
       <c r="G21" t="n">
-        <v>6.172666666666665</v>
+        <v>6.172999999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.17</v>
+        <v>6.13</v>
       </c>
       <c r="C22" t="n">
         <v>6.16</v>
       </c>
       <c r="D22" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E22" t="n">
-        <v>6.16</v>
+        <v>6.13</v>
       </c>
       <c r="F22" t="n">
-        <v>85616.69289999999</v>
+        <v>51800.6691</v>
       </c>
       <c r="G22" t="n">
-        <v>6.172333333333332</v>
+        <v>6.172666666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>6.17</v>
       </c>
       <c r="C23" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="D23" t="n">
         <v>6.17</v>
       </c>
       <c r="E23" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="F23" t="n">
-        <v>227.739</v>
+        <v>85616.69289999999</v>
       </c>
       <c r="G23" t="n">
-        <v>6.172166666666666</v>
+        <v>6.172333333333332</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>6.17</v>
       </c>
       <c r="F24" t="n">
-        <v>19191.5721</v>
+        <v>227.739</v>
       </c>
       <c r="G24" t="n">
-        <v>6.171499999999999</v>
+        <v>6.172166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1241,19 +1241,19 @@
         <v>6.17</v>
       </c>
       <c r="C25" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="D25" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E25" t="n">
         <v>6.17</v>
       </c>
       <c r="F25" t="n">
-        <v>10607.0093</v>
+        <v>19191.5721</v>
       </c>
       <c r="G25" t="n">
-        <v>6.171</v>
+        <v>6.171499999999999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>6.17</v>
       </c>
       <c r="C26" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E26" t="n">
         <v>6.17</v>
       </c>
-      <c r="D26" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.06</v>
-      </c>
       <c r="F26" t="n">
-        <v>585960.2071999999</v>
+        <v>10607.0093</v>
       </c>
       <c r="G26" t="n">
-        <v>6.170833333333333</v>
+        <v>6.171</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>6.17</v>
       </c>
       <c r="C27" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="D27" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E27" t="n">
-        <v>6.17</v>
+        <v>6.06</v>
       </c>
       <c r="F27" t="n">
-        <v>29806.9925</v>
+        <v>585960.2071999999</v>
       </c>
       <c r="G27" t="n">
-        <v>6.171833333333334</v>
+        <v>6.170833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>6.17</v>
       </c>
       <c r="F28" t="n">
-        <v>5916.0032</v>
+        <v>29806.9925</v>
       </c>
       <c r="G28" t="n">
-        <v>6.173</v>
+        <v>6.171833333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>6.17</v>
       </c>
       <c r="C29" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="D29" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E29" t="n">
         <v>6.17</v>
       </c>
-      <c r="E29" t="n">
-        <v>6.04</v>
-      </c>
       <c r="F29" t="n">
-        <v>173381.599</v>
+        <v>5916.0032</v>
       </c>
       <c r="G29" t="n">
-        <v>6.170666666666667</v>
+        <v>6.173</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="C30" t="n">
-        <v>6.18</v>
+        <v>6.04</v>
       </c>
       <c r="D30" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E30" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="F30" t="n">
-        <v>661909.8162999999</v>
+        <v>173381.599</v>
       </c>
       <c r="G30" t="n">
-        <v>6.170166666666668</v>
+        <v>6.170666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.17</v>
+        <v>6.09</v>
       </c>
       <c r="C31" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="D31" t="n">
-        <v>6.17</v>
+        <v>6.18</v>
       </c>
       <c r="E31" t="n">
-        <v>6.17</v>
+        <v>6.03</v>
       </c>
       <c r="F31" t="n">
-        <v>28940</v>
+        <v>661909.8162999999</v>
       </c>
       <c r="G31" t="n">
-        <v>6.169500000000001</v>
+        <v>6.170166666666668</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="C32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="D32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E32" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>28940</v>
       </c>
       <c r="G32" t="n">
-        <v>6.168000000000002</v>
+        <v>6.169500000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>6.16</v>
       </c>
       <c r="F33" t="n">
-        <v>14460</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>6.166666666666669</v>
+        <v>6.168000000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>6.16</v>
       </c>
       <c r="F34" t="n">
-        <v>6560.0487</v>
+        <v>14460</v>
       </c>
       <c r="G34" t="n">
-        <v>6.166166666666669</v>
+        <v>6.166666666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="C35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="D35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1</v>
+        <v>6.16</v>
       </c>
       <c r="F35" t="n">
-        <v>21226.8852</v>
+        <v>6560.0487</v>
       </c>
       <c r="G35" t="n">
-        <v>6.166000000000002</v>
+        <v>6.166166666666669</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="C36" t="n">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="D36" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="E36" t="n">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="F36" t="n">
-        <v>463773.1148</v>
+        <v>21226.8852</v>
       </c>
       <c r="G36" t="n">
-        <v>6.164333333333335</v>
+        <v>6.166000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="C37" t="n">
-        <v>6.15</v>
+        <v>6.01</v>
       </c>
       <c r="D37" t="n">
-        <v>6.15</v>
+        <v>6.08</v>
       </c>
       <c r="E37" t="n">
-        <v>6.15</v>
+        <v>6.01</v>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>463773.1148</v>
       </c>
       <c r="G37" t="n">
-        <v>6.163833333333335</v>
+        <v>6.164333333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="C38" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="D38" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E38" t="n">
-        <v>6.14</v>
+        <v>6.15</v>
       </c>
       <c r="F38" t="n">
-        <v>81168.8311</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>6.163500000000002</v>
+        <v>6.163833333333335</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.15</v>
+        <v>6.14</v>
       </c>
       <c r="C39" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="D39" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="E39" t="n">
-        <v>6.07</v>
+        <v>6.14</v>
       </c>
       <c r="F39" t="n">
-        <v>20</v>
+        <v>81168.8311</v>
       </c>
       <c r="G39" t="n">
-        <v>6.161666666666668</v>
+        <v>6.163500000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1766,19 +1766,19 @@
         <v>6.15</v>
       </c>
       <c r="C40" t="n">
-        <v>6.15</v>
+        <v>6.07</v>
       </c>
       <c r="D40" t="n">
         <v>6.15</v>
       </c>
       <c r="E40" t="n">
-        <v>6.15</v>
+        <v>6.07</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>6.160500000000001</v>
+        <v>6.161666666666668</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1804,16 +1804,16 @@
         <v>6.15</v>
       </c>
       <c r="D41" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E41" t="n">
         <v>6.15</v>
       </c>
       <c r="F41" t="n">
-        <v>81214.691558441</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>6.161500000000001</v>
+        <v>6.160500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1839,16 +1839,16 @@
         <v>6.15</v>
       </c>
       <c r="D42" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="E42" t="n">
         <v>6.15</v>
       </c>
       <c r="F42" t="n">
-        <v>252.6178</v>
+        <v>81214.691558441</v>
       </c>
       <c r="G42" t="n">
-        <v>6.162166666666667</v>
+        <v>6.161500000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>6.15</v>
       </c>
       <c r="F43" t="n">
-        <v>239.9837</v>
+        <v>252.6178</v>
       </c>
       <c r="G43" t="n">
-        <v>6.162</v>
+        <v>6.162166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>6.15</v>
       </c>
       <c r="F44" t="n">
-        <v>1494.8698</v>
+        <v>239.9837</v>
       </c>
       <c r="G44" t="n">
-        <v>6.161333333333332</v>
+        <v>6.162</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>6.15</v>
       </c>
       <c r="F45" t="n">
-        <v>3104.7152</v>
+        <v>1494.8698</v>
       </c>
       <c r="G45" t="n">
-        <v>6.160833333333332</v>
+        <v>6.161333333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="C46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="D46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="E46" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="F46" t="n">
-        <v>16759.5362</v>
+        <v>3104.7152</v>
       </c>
       <c r="G46" t="n">
-        <v>6.159499999999999</v>
+        <v>6.160833333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>6.1</v>
       </c>
       <c r="F47" t="n">
-        <v>42360</v>
+        <v>16759.5362</v>
       </c>
       <c r="G47" t="n">
-        <v>6.158166666666665</v>
+        <v>6.159499999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="C48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="D48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="E48" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>42360</v>
       </c>
       <c r="G48" t="n">
-        <v>6.157333333333332</v>
+        <v>6.158166666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C49" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="D49" t="n">
         <v>6.12</v>
       </c>
       <c r="E49" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F49" t="n">
-        <v>60596.5522</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
-        <v>6.156333333333333</v>
+        <v>6.157333333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.08</v>
+        <v>6.11</v>
       </c>
       <c r="C50" t="n">
-        <v>6.04</v>
+        <v>6.11</v>
       </c>
       <c r="D50" t="n">
-        <v>6.08</v>
+        <v>6.12</v>
       </c>
       <c r="E50" t="n">
-        <v>6.04</v>
+        <v>6.11</v>
       </c>
       <c r="F50" t="n">
-        <v>80991.70480000001</v>
+        <v>60596.5522</v>
       </c>
       <c r="G50" t="n">
-        <v>6.154166666666666</v>
+        <v>6.156333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="C51" t="n">
         <v>6.04</v>
       </c>
       <c r="D51" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="E51" t="n">
         <v>6.04</v>
       </c>
       <c r="F51" t="n">
-        <v>26647.5339</v>
+        <v>80991.70480000001</v>
       </c>
       <c r="G51" t="n">
-        <v>6.151999999999999</v>
+        <v>6.154166666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.13</v>
+        <v>6.05</v>
       </c>
       <c r="C52" t="n">
-        <v>6.13</v>
+        <v>6.04</v>
       </c>
       <c r="D52" t="n">
-        <v>6.13</v>
+        <v>6.05</v>
       </c>
       <c r="E52" t="n">
-        <v>6.13</v>
+        <v>6.04</v>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>26647.5339</v>
       </c>
       <c r="G52" t="n">
-        <v>6.151666666666666</v>
+        <v>6.151999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.17</v>
+        <v>6.13</v>
       </c>
       <c r="C53" t="n">
-        <v>6.18</v>
+        <v>6.13</v>
       </c>
       <c r="D53" t="n">
-        <v>6.18</v>
+        <v>6.13</v>
       </c>
       <c r="E53" t="n">
-        <v>6.17</v>
+        <v>6.13</v>
       </c>
       <c r="F53" t="n">
-        <v>68019.2556</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>6.151333333333333</v>
+        <v>6.151666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="C54" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="D54" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="E54" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="F54" t="n">
-        <v>55943.4069</v>
+        <v>68019.2556</v>
       </c>
       <c r="G54" t="n">
-        <v>6.149999999999999</v>
+        <v>6.151333333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="C55" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="D55" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="E55" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="F55" t="n">
-        <v>600105.0736</v>
+        <v>55943.4069</v>
       </c>
       <c r="G55" t="n">
-        <v>6.147166666666665</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.12</v>
+        <v>6.06</v>
       </c>
       <c r="C56" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="D56" t="n">
-        <v>6.12</v>
+        <v>6.06</v>
       </c>
       <c r="E56" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>600105.0736</v>
       </c>
       <c r="G56" t="n">
-        <v>6.145833333333332</v>
+        <v>6.147166666666665</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C57" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="D57" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="E57" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F57" t="n">
-        <v>47890.595688311</v>
+        <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>6.145166666666666</v>
+        <v>6.145833333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="C58" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="D58" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="E58" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="F58" t="n">
-        <v>23950</v>
+        <v>47890.595688311</v>
       </c>
       <c r="G58" t="n">
-        <v>6.143</v>
+        <v>6.145166666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>6.07</v>
       </c>
       <c r="C59" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="D59" t="n">
         <v>6.07</v>
       </c>
       <c r="E59" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="F59" t="n">
-        <v>36933.4538</v>
+        <v>23950</v>
       </c>
       <c r="G59" t="n">
-        <v>6.140166666666667</v>
+        <v>6.143</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.12</v>
+        <v>6.07</v>
       </c>
       <c r="C60" t="n">
-        <v>6.13</v>
+        <v>6.03</v>
       </c>
       <c r="D60" t="n">
-        <v>6.16</v>
+        <v>6.07</v>
       </c>
       <c r="E60" t="n">
-        <v>6.12</v>
+        <v>6.03</v>
       </c>
       <c r="F60" t="n">
-        <v>90170.5462</v>
+        <v>36933.4538</v>
       </c>
       <c r="G60" t="n">
-        <v>6.139499999999999</v>
+        <v>6.140166666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C61" t="n">
         <v>6.13</v>
       </c>
       <c r="D61" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="E61" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="F61" t="n">
-        <v>147045.774877487</v>
+        <v>90170.5462</v>
       </c>
       <c r="G61" t="n">
-        <v>6.138333333333333</v>
+        <v>6.139499999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="C62" t="n">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
       <c r="D62" t="n">
-        <v>6.12</v>
+        <v>6.13</v>
       </c>
       <c r="E62" t="n">
-        <v>6.12</v>
+        <v>6.11</v>
       </c>
       <c r="F62" t="n">
-        <v>498.3986</v>
+        <v>147045.774877487</v>
       </c>
       <c r="G62" t="n">
-        <v>6.137666666666665</v>
+        <v>6.138333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>6.12</v>
       </c>
       <c r="F63" t="n">
-        <v>452.851</v>
+        <v>498.3986</v>
       </c>
       <c r="G63" t="n">
-        <v>6.136833333333332</v>
+        <v>6.137666666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>6.12</v>
       </c>
       <c r="F64" t="n">
-        <v>95.7516</v>
+        <v>452.851</v>
       </c>
       <c r="G64" t="n">
-        <v>6.135999999999998</v>
+        <v>6.136833333333332</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.07</v>
+        <v>6.12</v>
       </c>
       <c r="C65" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="D65" t="n">
-        <v>6.07</v>
+        <v>6.12</v>
       </c>
       <c r="E65" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="F65" t="n">
-        <v>141043.4983</v>
+        <v>95.7516</v>
       </c>
       <c r="G65" t="n">
-        <v>6.133999999999999</v>
+        <v>6.135999999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.09</v>
+        <v>6.07</v>
       </c>
       <c r="C66" t="n">
-        <v>6.09</v>
+        <v>6.05</v>
       </c>
       <c r="D66" t="n">
-        <v>6.09</v>
+        <v>6.07</v>
       </c>
       <c r="E66" t="n">
-        <v>6.09</v>
+        <v>6.05</v>
       </c>
       <c r="F66" t="n">
-        <v>4597.7011</v>
+        <v>141043.4983</v>
       </c>
       <c r="G66" t="n">
-        <v>6.132999999999998</v>
+        <v>6.133999999999999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.04</v>
+        <v>6.09</v>
       </c>
       <c r="C67" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="D67" t="n">
-        <v>6.04</v>
+        <v>6.09</v>
       </c>
       <c r="E67" t="n">
-        <v>6.03</v>
+        <v>6.09</v>
       </c>
       <c r="F67" t="n">
-        <v>63671.2294</v>
+        <v>4597.7011</v>
       </c>
       <c r="G67" t="n">
-        <v>6.132833333333331</v>
+        <v>6.132999999999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="C68" t="n">
         <v>6.03</v>
       </c>
       <c r="D68" t="n">
-        <v>6.03</v>
+        <v>6.04</v>
       </c>
       <c r="E68" t="n">
         <v>6.03</v>
       </c>
       <c r="F68" t="n">
-        <v>51727.9318</v>
+        <v>63671.2294</v>
       </c>
       <c r="G68" t="n">
-        <v>6.132999999999997</v>
+        <v>6.132833333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>6.03</v>
       </c>
       <c r="F69" t="n">
-        <v>74842.77220000001</v>
+        <v>51727.9318</v>
       </c>
       <c r="G69" t="n">
-        <v>6.130166666666664</v>
+        <v>6.132999999999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>6.03</v>
       </c>
       <c r="F70" t="n">
-        <v>10460.3648</v>
+        <v>74842.77220000001</v>
       </c>
       <c r="G70" t="n">
-        <v>6.12783333333333</v>
+        <v>6.130166666666664</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>6.03</v>
       </c>
       <c r="F71" t="n">
-        <v>9441.301799999999</v>
+        <v>10460.3648</v>
       </c>
       <c r="G71" t="n">
-        <v>6.12483333333333</v>
+        <v>6.12783333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="C72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="D72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="E72" t="n">
-        <v>6.02</v>
+        <v>6.03</v>
       </c>
       <c r="F72" t="n">
-        <v>81054.24129999999</v>
+        <v>9441.301799999999</v>
       </c>
       <c r="G72" t="n">
-        <v>6.121666666666663</v>
+        <v>6.12483333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>6.02</v>
       </c>
       <c r="F73" t="n">
-        <v>261652.9557</v>
+        <v>81054.24129999999</v>
       </c>
       <c r="G73" t="n">
-        <v>6.118833333333329</v>
+        <v>6.121666666666663</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="C74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="D74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="E74" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="F74" t="n">
-        <v>62770.1061</v>
+        <v>261652.9557</v>
       </c>
       <c r="G74" t="n">
-        <v>6.115666666666663</v>
+        <v>6.118833333333329</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="C75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="D75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="E75" t="n">
-        <v>6.08</v>
+        <v>6.01</v>
       </c>
       <c r="F75" t="n">
-        <v>2450.6414</v>
+        <v>62770.1061</v>
       </c>
       <c r="G75" t="n">
-        <v>6.113666666666663</v>
+        <v>6.115666666666663</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="C76" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D76" t="n">
-        <v>6.02</v>
+        <v>6.08</v>
       </c>
       <c r="E76" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F76" t="n">
-        <v>124050.5276</v>
+        <v>2450.6414</v>
       </c>
       <c r="G76" t="n">
-        <v>6.110499999999996</v>
+        <v>6.113666666666663</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D77" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="F77" t="n">
-        <v>64720.6398</v>
+        <v>124050.5276</v>
       </c>
       <c r="G77" t="n">
-        <v>6.107166666666663</v>
+        <v>6.110499999999996</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3096,19 +3096,19 @@
         <v>6.01</v>
       </c>
       <c r="C78" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
         <v>6.01</v>
       </c>
       <c r="E78" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>132.3544</v>
+        <v>64720.6398</v>
       </c>
       <c r="G78" t="n">
-        <v>6.103999999999997</v>
+        <v>6.107166666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="F79" t="n">
-        <v>72927.7004</v>
+        <v>132.3544</v>
       </c>
       <c r="G79" t="n">
-        <v>6.101333333333329</v>
+        <v>6.103999999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="F80" t="n">
-        <v>41886.1896</v>
+        <v>72927.7004</v>
       </c>
       <c r="G80" t="n">
-        <v>6.100333333333329</v>
+        <v>6.101333333333329</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>6.01</v>
       </c>
       <c r="F81" t="n">
-        <v>192347.5873</v>
+        <v>41886.1896</v>
       </c>
       <c r="G81" t="n">
-        <v>6.097833333333329</v>
+        <v>6.100333333333329</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>6.01</v>
       </c>
       <c r="C82" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="D82" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="E82" t="n">
         <v>6.01</v>
       </c>
       <c r="F82" t="n">
-        <v>185393.1964</v>
+        <v>192347.5873</v>
       </c>
       <c r="G82" t="n">
-        <v>6.096333333333328</v>
+        <v>6.097833333333329</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3271,19 +3271,19 @@
         <v>6.01</v>
       </c>
       <c r="C83" t="n">
-        <v>5.98</v>
+        <v>6.07</v>
       </c>
       <c r="D83" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="E83" t="n">
-        <v>5.98</v>
+        <v>6.01</v>
       </c>
       <c r="F83" t="n">
-        <v>1291900</v>
+        <v>185393.1964</v>
       </c>
       <c r="G83" t="n">
-        <v>6.093166666666662</v>
+        <v>6.096333333333328</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3306,19 +3306,19 @@
         <v>6.01</v>
       </c>
       <c r="C84" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="D84" t="n">
         <v>6.01</v>
       </c>
       <c r="E84" t="n">
-        <v>6.01</v>
+        <v>5.98</v>
       </c>
       <c r="F84" t="n">
-        <v>33600</v>
+        <v>1291900</v>
       </c>
       <c r="G84" t="n">
-        <v>6.090499999999994</v>
+        <v>6.093166666666662</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>6.01</v>
       </c>
       <c r="F85" t="n">
-        <v>16400</v>
+        <v>33600</v>
       </c>
       <c r="G85" t="n">
-        <v>6.087666666666661</v>
+        <v>6.090499999999994</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E86" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F86" t="n">
-        <v>237.3223</v>
+        <v>16400</v>
       </c>
       <c r="G86" t="n">
-        <v>6.08566666666666</v>
+        <v>6.087666666666661</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3411,19 +3411,19 @@
         <v>6.05</v>
       </c>
       <c r="C87" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="D87" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="E87" t="n">
         <v>6.05</v>
       </c>
       <c r="F87" t="n">
-        <v>63490.099</v>
+        <v>237.3223</v>
       </c>
       <c r="G87" t="n">
-        <v>6.083666666666661</v>
+        <v>6.08566666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="C88" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="D88" t="n">
-        <v>6.04</v>
+        <v>6.06</v>
       </c>
       <c r="E88" t="n">
-        <v>6.04</v>
+        <v>6.05</v>
       </c>
       <c r="F88" t="n">
-        <v>28389.9005</v>
+        <v>63490.099</v>
       </c>
       <c r="G88" t="n">
-        <v>6.081333333333328</v>
+        <v>6.083666666666661</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="C89" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="D89" t="n">
-        <v>6.02</v>
+        <v>6.04</v>
       </c>
       <c r="E89" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="F89" t="n">
-        <v>213624.909</v>
+        <v>28389.9005</v>
       </c>
       <c r="G89" t="n">
-        <v>6.080999999999993</v>
+        <v>6.081333333333328</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3516,19 @@
         <v>6.01</v>
       </c>
       <c r="C90" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="D90" t="n">
-        <v>6.01</v>
+        <v>6.02</v>
       </c>
       <c r="E90" t="n">
         <v>6.01</v>
       </c>
       <c r="F90" t="n">
-        <v>38095.3246</v>
+        <v>213624.909</v>
       </c>
       <c r="G90" t="n">
-        <v>6.07816666666666</v>
+        <v>6.080999999999993</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>6.01</v>
       </c>
       <c r="F91" t="n">
-        <v>39782.8757</v>
+        <v>38095.3246</v>
       </c>
       <c r="G91" t="n">
-        <v>6.075499999999993</v>
+        <v>6.07816666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>6.01</v>
       </c>
       <c r="F92" t="n">
-        <v>3521.6851</v>
+        <v>39782.8757</v>
       </c>
       <c r="G92" t="n">
-        <v>6.072999999999992</v>
+        <v>6.075499999999993</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,35 +3618,31 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="E93" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F93" t="n">
-        <v>106.7933</v>
+        <v>3521.6851</v>
       </c>
       <c r="G93" t="n">
-        <v>6.071166666666659</v>
+        <v>6.072999999999992</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K93" t="n">
-        <v>6.01</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
@@ -3669,28 +3665,20 @@
         <v>6.05</v>
       </c>
       <c r="F94" t="n">
-        <v>22762.3742</v>
+        <v>106.7933</v>
       </c>
       <c r="G94" t="n">
-        <v>6.069333333333325</v>
+        <v>6.071166666666659</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3700,40 +3688,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="C95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="D95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="E95" t="n">
-        <v>6.06</v>
+        <v>6.05</v>
       </c>
       <c r="F95" t="n">
-        <v>202.5742</v>
+        <v>22762.3742</v>
       </c>
       <c r="G95" t="n">
-        <v>6.068666666666658</v>
+        <v>6.069333333333325</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K95" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3755,23 +3735,19 @@
         <v>6.06</v>
       </c>
       <c r="F96" t="n">
-        <v>23870.2337</v>
+        <v>202.5742</v>
       </c>
       <c r="G96" t="n">
-        <v>6.069499999999992</v>
+        <v>6.068666666666658</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K96" t="n">
-        <v>6.06</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
@@ -3782,40 +3758,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="C97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="D97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="E97" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="F97" t="n">
-        <v>28077.3383</v>
+        <v>23870.2337</v>
       </c>
       <c r="G97" t="n">
-        <v>6.068166666666658</v>
+        <v>6.069499999999992</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K97" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3825,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="C98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="D98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="E98" t="n">
-        <v>6.08</v>
+        <v>6.07</v>
       </c>
       <c r="F98" t="n">
-        <v>12060</v>
+        <v>28077.3383</v>
       </c>
       <c r="G98" t="n">
-        <v>6.066833333333324</v>
+        <v>6.068166666666658</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3849,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3866,35 +3828,31 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="C99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="D99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="E99" t="n">
-        <v>6.09</v>
+        <v>6.08</v>
       </c>
       <c r="F99" t="n">
-        <v>37900.2765</v>
+        <v>12060</v>
       </c>
       <c r="G99" t="n">
-        <v>6.067166666666657</v>
+        <v>6.066833333333324</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K99" t="n">
-        <v>6.08</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
@@ -3917,10 +3875,10 @@
         <v>6.09</v>
       </c>
       <c r="F100" t="n">
-        <v>341102.4891</v>
+        <v>37900.2765</v>
       </c>
       <c r="G100" t="n">
-        <v>6.066166666666658</v>
+        <v>6.067166666666657</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3929,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3958,10 +3910,10 @@
         <v>6.09</v>
       </c>
       <c r="F101" t="n">
-        <v>50035.8878</v>
+        <v>341102.4891</v>
       </c>
       <c r="G101" t="n">
-        <v>6.065166666666657</v>
+        <v>6.066166666666658</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3970,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3987,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="C102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="D102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="E102" t="n">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="F102" t="n">
-        <v>139.377</v>
+        <v>50035.8878</v>
       </c>
       <c r="G102" t="n">
-        <v>6.064333333333325</v>
+        <v>6.065166666666657</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4022,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.05</v>
+        <v>6.1</v>
       </c>
       <c r="C103" t="n">
-        <v>5.99</v>
+        <v>6.1</v>
       </c>
       <c r="D103" t="n">
-        <v>6.09</v>
+        <v>6.1</v>
       </c>
       <c r="E103" t="n">
-        <v>5.99</v>
+        <v>6.1</v>
       </c>
       <c r="F103" t="n">
-        <v>760108.3975</v>
+        <v>139.377</v>
       </c>
       <c r="G103" t="n">
-        <v>6.061666666666659</v>
+        <v>6.064333333333325</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4060,19 +4006,19 @@
         <v>6.05</v>
       </c>
       <c r="C104" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="D104" t="n">
-        <v>6.05</v>
+        <v>6.09</v>
       </c>
       <c r="E104" t="n">
-        <v>6.05</v>
+        <v>5.99</v>
       </c>
       <c r="F104" t="n">
-        <v>166389.351</v>
+        <v>760108.3975</v>
       </c>
       <c r="G104" t="n">
-        <v>6.059999999999993</v>
+        <v>6.061666666666659</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4092,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="C105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="E105" t="n">
-        <v>6</v>
+        <v>6.05</v>
       </c>
       <c r="F105" t="n">
-        <v>8000</v>
+        <v>166389.351</v>
       </c>
       <c r="G105" t="n">
-        <v>6.057499999999993</v>
+        <v>6.059999999999993</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4127,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>113.4431</v>
+        <v>8000</v>
       </c>
       <c r="G106" t="n">
-        <v>6.056999999999992</v>
+        <v>6.057499999999993</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4162,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="C107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="D107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="E107" t="n">
-        <v>5.99</v>
+        <v>6.07</v>
       </c>
       <c r="F107" t="n">
-        <v>11</v>
+        <v>113.4431</v>
       </c>
       <c r="G107" t="n">
-        <v>6.055166666666659</v>
+        <v>6.056999999999992</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4197,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="C108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="D108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="E108" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="F108" t="n">
-        <v>101.9407</v>
+        <v>11</v>
       </c>
       <c r="G108" t="n">
-        <v>6.054499999999992</v>
+        <v>6.055166666666659</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4232,31 +4178,35 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="C109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="D109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="E109" t="n">
-        <v>6.01</v>
+        <v>6.08</v>
       </c>
       <c r="F109" t="n">
-        <v>89974.1234</v>
+        <v>101.9407</v>
       </c>
       <c r="G109" t="n">
-        <v>6.052833333333325</v>
+        <v>6.054499999999992</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K109" t="n">
+        <v>5.99</v>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
@@ -4267,32 +4217,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="C110" t="n">
-        <v>6.11</v>
+        <v>6.01</v>
       </c>
       <c r="D110" t="n">
-        <v>6.11</v>
+        <v>6.01</v>
       </c>
       <c r="E110" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="F110" t="n">
-        <v>200896.3285</v>
+        <v>89974.1234</v>
       </c>
       <c r="G110" t="n">
-        <v>6.053999999999991</v>
+        <v>6.052833333333325</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K110" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4302,22 +4260,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="C111" t="n">
-        <v>6.22</v>
+        <v>6.11</v>
       </c>
       <c r="D111" t="n">
-        <v>6.22</v>
+        <v>6.11</v>
       </c>
       <c r="E111" t="n">
-        <v>6.13</v>
+        <v>6.07</v>
       </c>
       <c r="F111" t="n">
-        <v>72170.0819</v>
+        <v>200896.3285</v>
       </c>
       <c r="G111" t="n">
-        <v>6.056999999999992</v>
+        <v>6.053999999999991</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4326,8 +4284,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4337,28 +4301,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="C112" t="n">
-        <v>6.28</v>
+        <v>6.22</v>
       </c>
       <c r="D112" t="n">
-        <v>6.28</v>
+        <v>6.22</v>
       </c>
       <c r="E112" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="F112" t="n">
-        <v>733561.2747</v>
+        <v>72170.0819</v>
       </c>
       <c r="G112" t="n">
-        <v>6.059499999999991</v>
+        <v>6.056999999999992</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4367,6 +4331,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F113" t="n">
+        <v>733561.2747</v>
+      </c>
+      <c r="G113" t="n">
+        <v>6.059499999999991</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>7000</v>
       </c>
       <c r="G2" t="n">
+        <v>6.183333333333335</v>
+      </c>
+      <c r="H2" t="n">
         <v>6.164500000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>8578.6566</v>
       </c>
       <c r="G3" t="n">
+        <v>6.182000000000001</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.164833333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>28228.8424</v>
       </c>
       <c r="G4" t="n">
+        <v>6.182000000000001</v>
+      </c>
+      <c r="H4" t="n">
         <v>6.165333333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>6019.1671</v>
       </c>
       <c r="G5" t="n">
+        <v>6.182000000000001</v>
+      </c>
+      <c r="H5" t="n">
         <v>6.166166666666669</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>80000</v>
       </c>
       <c r="G6" t="n">
+        <v>6.182000000000001</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.166833333333336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>135106.8955</v>
       </c>
       <c r="G7" t="n">
+        <v>6.180666666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>6.168000000000003</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>1440200.2292</v>
       </c>
       <c r="G8" t="n">
+        <v>6.173333333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>6.16616666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>414104.9092</v>
       </c>
       <c r="G9" t="n">
+        <v>6.161333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>6.164000000000003</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>1776233.3774</v>
       </c>
       <c r="G10" t="n">
+        <v>6.163333333333335</v>
+      </c>
+      <c r="H10" t="n">
         <v>6.16466666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>255674.0971</v>
       </c>
       <c r="G11" t="n">
+        <v>6.161333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>6.164833333333336</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>111</v>
       </c>
       <c r="G12" t="n">
+        <v>6.162000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>6.165666666666668</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>200</v>
       </c>
       <c r="G13" t="n">
+        <v>6.162666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>6.166500000000001</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>7670</v>
       </c>
       <c r="G14" t="n">
+        <v>6.162</v>
+      </c>
+      <c r="H14" t="n">
         <v>6.167000000000001</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>133</v>
       </c>
       <c r="G15" t="n">
+        <v>6.162</v>
+      </c>
+      <c r="H15" t="n">
         <v>6.167666666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>456</v>
       </c>
       <c r="G16" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="H16" t="n">
         <v>6.169166666666666</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>508</v>
       </c>
       <c r="G17" t="n">
+        <v>6.164</v>
+      </c>
+      <c r="H17" t="n">
         <v>6.170666666666666</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>527</v>
       </c>
       <c r="G18" t="n">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>6.172166666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>52310.1612</v>
       </c>
       <c r="G19" t="n">
+        <v>6.168666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>6.172833333333331</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>14216.2597</v>
       </c>
       <c r="G20" t="n">
+        <v>6.168</v>
+      </c>
+      <c r="H20" t="n">
         <v>6.173666666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>202182.4614</v>
       </c>
       <c r="G21" t="n">
+        <v>6.161333333333333</v>
+      </c>
+      <c r="H21" t="n">
         <v>6.172999999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>51800.6691</v>
       </c>
       <c r="G22" t="n">
+        <v>6.162</v>
+      </c>
+      <c r="H22" t="n">
         <v>6.172666666666665</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>85616.69289999999</v>
       </c>
       <c r="G23" t="n">
+        <v>6.169999999999999</v>
+      </c>
+      <c r="H23" t="n">
         <v>6.172333333333332</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>227.739</v>
       </c>
       <c r="G24" t="n">
+        <v>6.179999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>6.172166666666666</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>19191.5721</v>
       </c>
       <c r="G25" t="n">
+        <v>6.177999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>6.171499999999999</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>10607.0093</v>
       </c>
       <c r="G26" t="n">
+        <v>6.178666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>6.171</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>585960.2071999999</v>
       </c>
       <c r="G27" t="n">
+        <v>6.176</v>
+      </c>
+      <c r="H27" t="n">
         <v>6.170833333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>29806.9925</v>
       </c>
       <c r="G28" t="n">
+        <v>6.174</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.171833333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>5916.0032</v>
       </c>
       <c r="G29" t="n">
+        <v>6.173333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>6.173</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>173381.599</v>
       </c>
       <c r="G30" t="n">
+        <v>6.162666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>6.170666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>661909.8162999999</v>
       </c>
       <c r="G31" t="n">
+        <v>6.161333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>6.170166666666668</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>28940</v>
       </c>
       <c r="G32" t="n">
+        <v>6.159333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>6.169500000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>10</v>
       </c>
       <c r="G33" t="n">
+        <v>6.156666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>6.168000000000002</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>14460</v>
       </c>
       <c r="G34" t="n">
+        <v>6.153999999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>6.166666666666669</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>6560.0487</v>
       </c>
       <c r="G35" t="n">
+        <v>6.153999999999999</v>
+      </c>
+      <c r="H35" t="n">
         <v>6.166166666666669</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>21226.8852</v>
       </c>
       <c r="G36" t="n">
+        <v>6.155999999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>6.166000000000002</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>463773.1148</v>
       </c>
       <c r="G37" t="n">
+        <v>6.145999999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>6.164333333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>11</v>
       </c>
       <c r="G38" t="n">
+        <v>6.145333333333332</v>
+      </c>
+      <c r="H38" t="n">
         <v>6.163833333333335</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>81168.8311</v>
       </c>
       <c r="G39" t="n">
+        <v>6.144666666666666</v>
+      </c>
+      <c r="H39" t="n">
         <v>6.163500000000002</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>20</v>
       </c>
       <c r="G40" t="n">
+        <v>6.137999999999999</v>
+      </c>
+      <c r="H40" t="n">
         <v>6.161666666666668</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
+        <v>6.135999999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>6.160500000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>81214.691558441</v>
       </c>
       <c r="G42" t="n">
+        <v>6.134666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>6.161500000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>252.6178</v>
       </c>
       <c r="G43" t="n">
+        <v>6.132666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>6.162166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>239.9837</v>
       </c>
       <c r="G44" t="n">
+        <v>6.130666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>6.162</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>1494.8698</v>
       </c>
       <c r="G45" t="n">
+        <v>6.138000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>6.161333333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>3104.7152</v>
       </c>
       <c r="G46" t="n">
+        <v>6.136000000000001</v>
+      </c>
+      <c r="H46" t="n">
         <v>6.160833333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>16759.5362</v>
       </c>
       <c r="G47" t="n">
+        <v>6.131333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>6.159499999999999</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>42360</v>
       </c>
       <c r="G48" t="n">
+        <v>6.127333333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>6.158166666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>12</v>
       </c>
       <c r="G49" t="n">
+        <v>6.124666666666668</v>
+      </c>
+      <c r="H49" t="n">
         <v>6.157333333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>60596.5522</v>
       </c>
       <c r="G50" t="n">
+        <v>6.121333333333335</v>
+      </c>
+      <c r="H50" t="n">
         <v>6.156333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>80991.70480000001</v>
       </c>
       <c r="G51" t="n">
+        <v>6.117333333333336</v>
+      </c>
+      <c r="H51" t="n">
         <v>6.154166666666666</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>26647.5339</v>
       </c>
       <c r="G52" t="n">
+        <v>6.119333333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>6.151999999999999</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
+        <v>6.118000000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>6.151666666666666</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>68019.2556</v>
       </c>
       <c r="G54" t="n">
+        <v>6.119333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>6.151333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>55943.4069</v>
       </c>
       <c r="G55" t="n">
+        <v>6.120666666666668</v>
+      </c>
+      <c r="H55" t="n">
         <v>6.149999999999999</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>600105.0736</v>
       </c>
       <c r="G56" t="n">
+        <v>6.112666666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>6.147166666666665</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>12</v>
       </c>
       <c r="G57" t="n">
+        <v>6.110666666666669</v>
+      </c>
+      <c r="H57" t="n">
         <v>6.145833333333332</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>47890.595688311</v>
       </c>
       <c r="G58" t="n">
+        <v>6.111333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>6.145166666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>23950</v>
       </c>
       <c r="G59" t="n">
+        <v>6.106</v>
+      </c>
+      <c r="H59" t="n">
         <v>6.143</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>36933.4538</v>
       </c>
       <c r="G60" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="H60" t="n">
         <v>6.140166666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>90170.5462</v>
       </c>
       <c r="G61" t="n">
+        <v>6.096666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>6.139499999999999</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>147045.774877487</v>
       </c>
       <c r="G62" t="n">
+        <v>6.098666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>6.138333333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>498.3986</v>
       </c>
       <c r="G63" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H63" t="n">
         <v>6.137666666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>452.851</v>
       </c>
       <c r="G64" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H64" t="n">
         <v>6.136833333333332</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>95.7516</v>
       </c>
       <c r="G65" t="n">
+        <v>6.100666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>6.135999999999998</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>141043.4983</v>
       </c>
       <c r="G66" t="n">
+        <v>6.101333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>6.133999999999999</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>4597.7011</v>
       </c>
       <c r="G67" t="n">
+        <v>6.104666666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>6.132999999999998</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>63671.2294</v>
       </c>
       <c r="G68" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="H68" t="n">
         <v>6.132833333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>51727.9318</v>
       </c>
       <c r="G69" t="n">
+        <v>6.087999999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>6.132999999999997</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>74842.77220000001</v>
       </c>
       <c r="G70" t="n">
+        <v>6.084</v>
+      </c>
+      <c r="H70" t="n">
         <v>6.130166666666664</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>10460.3648</v>
       </c>
       <c r="G71" t="n">
+        <v>6.084</v>
+      </c>
+      <c r="H71" t="n">
         <v>6.12783333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>9441.301799999999</v>
       </c>
       <c r="G72" t="n">
+        <v>6.077999999999999</v>
+      </c>
+      <c r="H72" t="n">
         <v>6.12483333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>81054.24129999999</v>
       </c>
       <c r="G73" t="n">
+        <v>6.068666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>6.121666666666663</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,25 @@
         <v>261652.9557</v>
       </c>
       <c r="G74" t="n">
+        <v>6.065333333333332</v>
+      </c>
+      <c r="H74" t="n">
         <v>6.118833333333329</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L74" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3231,29 @@
         <v>62770.1061</v>
       </c>
       <c r="G75" t="n">
+        <v>6.063999999999999</v>
+      </c>
+      <c r="H75" t="n">
         <v>6.115666666666663</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3277,29 @@
         <v>2450.6414</v>
       </c>
       <c r="G76" t="n">
+        <v>6.060666666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>6.113666666666663</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3323,21 @@
         <v>124050.5276</v>
       </c>
       <c r="G77" t="n">
+        <v>6.052666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>6.110499999999996</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3361,21 @@
         <v>64720.6398</v>
       </c>
       <c r="G78" t="n">
+        <v>6.044666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>6.107166666666663</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3399,21 @@
         <v>132.3544</v>
       </c>
       <c r="G79" t="n">
+        <v>6.037333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>6.103999999999997</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3437,25 @@
         <v>72927.7004</v>
       </c>
       <c r="G80" t="n">
+        <v>6.029333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>6.101333333333329</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L80" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3479,29 @@
         <v>41886.1896</v>
       </c>
       <c r="G81" t="n">
+        <v>6.026666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>6.100333333333329</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>6</v>
+      </c>
+      <c r="L81" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3525,29 @@
         <v>192347.5873</v>
       </c>
       <c r="G82" t="n">
+        <v>6.021333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>6.097833333333329</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L82" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3571,29 @@
         <v>185393.1964</v>
       </c>
       <c r="G83" t="n">
+        <v>6.024000000000001</v>
+      </c>
+      <c r="H83" t="n">
         <v>6.096333333333328</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3617,29 @@
         <v>1291900</v>
       </c>
       <c r="G84" t="n">
+        <v>6.020666666666668</v>
+      </c>
+      <c r="H84" t="n">
         <v>6.093166666666662</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="L84" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3663,27 @@
         <v>33600</v>
       </c>
       <c r="G85" t="n">
+        <v>6.019333333333335</v>
+      </c>
+      <c r="H85" t="n">
         <v>6.090499999999994</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3707,27 @@
         <v>16400</v>
       </c>
       <c r="G86" t="n">
+        <v>6.018000000000002</v>
+      </c>
+      <c r="H86" t="n">
         <v>6.087666666666661</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3751,27 @@
         <v>237.3223</v>
       </c>
       <c r="G87" t="n">
+        <v>6.019333333333335</v>
+      </c>
+      <c r="H87" t="n">
         <v>6.08566666666666</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3795,27 @@
         <v>63490.099</v>
       </c>
       <c r="G88" t="n">
+        <v>6.022000000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>6.083666666666661</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3839,27 @@
         <v>28389.9005</v>
       </c>
       <c r="G89" t="n">
+        <v>6.023333333333336</v>
+      </c>
+      <c r="H89" t="n">
         <v>6.081333333333328</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3883,29 @@
         <v>213624.909</v>
       </c>
       <c r="G90" t="n">
+        <v>6.024000000000002</v>
+      </c>
+      <c r="H90" t="n">
         <v>6.080999999999993</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="L90" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3929,29 @@
         <v>38095.3246</v>
       </c>
       <c r="G91" t="n">
+        <v>6.019333333333336</v>
+      </c>
+      <c r="H91" t="n">
         <v>6.07816666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L91" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3975,29 @@
         <v>39782.8757</v>
       </c>
       <c r="G92" t="n">
+        <v>6.019333333333336</v>
+      </c>
+      <c r="H92" t="n">
         <v>6.075499999999993</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L92" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4021,29 @@
         <v>3521.6851</v>
       </c>
       <c r="G93" t="n">
+        <v>6.020000000000002</v>
+      </c>
+      <c r="H93" t="n">
         <v>6.072999999999992</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L93" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4067,29 @@
         <v>106.7933</v>
       </c>
       <c r="G94" t="n">
+        <v>6.022666666666669</v>
+      </c>
+      <c r="H94" t="n">
         <v>6.071166666666659</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L94" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4113,29 @@
         <v>22762.3742</v>
       </c>
       <c r="G95" t="n">
+        <v>6.026000000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>6.069333333333325</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L95" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4159,27 @@
         <v>202.5742</v>
       </c>
       <c r="G96" t="n">
+        <v>6.029333333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>6.068666666666658</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4203,27 @@
         <v>23870.2337</v>
       </c>
       <c r="G97" t="n">
+        <v>6.032666666666668</v>
+      </c>
+      <c r="H97" t="n">
         <v>6.069499999999992</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4247,27 @@
         <v>28077.3383</v>
       </c>
       <c r="G98" t="n">
+        <v>6.032666666666669</v>
+      </c>
+      <c r="H98" t="n">
         <v>6.068166666666658</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4291,27 @@
         <v>12060</v>
       </c>
       <c r="G99" t="n">
+        <v>6.039333333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>6.066833333333324</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4335,29 @@
         <v>37900.2765</v>
       </c>
       <c r="G100" t="n">
+        <v>6.044666666666669</v>
+      </c>
+      <c r="H100" t="n">
         <v>6.067166666666657</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="L100" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4381,27 @@
         <v>341102.4891</v>
       </c>
       <c r="G101" t="n">
+        <v>6.050000000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>6.066166666666658</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4425,27 @@
         <v>50035.8878</v>
       </c>
       <c r="G102" t="n">
+        <v>6.052666666666669</v>
+      </c>
+      <c r="H102" t="n">
         <v>6.065166666666657</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4469,27 @@
         <v>139.377</v>
       </c>
       <c r="G103" t="n">
+        <v>6.055333333333335</v>
+      </c>
+      <c r="H103" t="n">
         <v>6.064333333333325</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4513,27 @@
         <v>760108.3975</v>
       </c>
       <c r="G104" t="n">
+        <v>6.052000000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>6.061666666666659</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4557,27 @@
         <v>166389.351</v>
       </c>
       <c r="G105" t="n">
+        <v>6.054000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>6.059999999999993</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4601,27 @@
         <v>8000</v>
       </c>
       <c r="G106" t="n">
+        <v>6.053333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>6.057499999999993</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4645,27 @@
         <v>113.4431</v>
       </c>
       <c r="G107" t="n">
+        <v>6.057333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>6.056999999999992</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4689,27 @@
         <v>11</v>
       </c>
       <c r="G108" t="n">
+        <v>6.055999999999999</v>
+      </c>
+      <c r="H108" t="n">
         <v>6.055166666666659</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,22 +4733,29 @@
         <v>101.9407</v>
       </c>
       <c r="G109" t="n">
+        <v>6.057999999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>6.054499999999992</v>
       </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>5.99</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
         <v>5.99</v>
       </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,26 +4779,29 @@
         <v>89974.1234</v>
       </c>
       <c r="G110" t="n">
+        <v>6.055333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>6.052833333333325</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
         <v>6.08</v>
       </c>
-      <c r="K110" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4275,24 +4825,29 @@
         <v>200896.3285</v>
       </c>
       <c r="G111" t="n">
+        <v>6.058666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>6.053999999999991</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L111" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4871,29 @@
         <v>72170.0819</v>
       </c>
       <c r="G112" t="n">
+        <v>6.069333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>6.056999999999992</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L112" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4917,461 @@
         <v>733561.2747</v>
       </c>
       <c r="G113" t="n">
+        <v>6.083333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>6.059499999999991</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G114" t="n">
+        <v>6.098</v>
+      </c>
+      <c r="H114" t="n">
+        <v>6.061499999999992</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F115" t="n">
+        <v>171.0866</v>
+      </c>
+      <c r="G115" t="n">
+        <v>6.111999999999999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>6.064999999999992</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F116" t="n">
+        <v>130580.1489</v>
+      </c>
+      <c r="G116" t="n">
+        <v>6.124666666666666</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6.069166666666659</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F117" t="n">
+        <v>221.3492</v>
+      </c>
+      <c r="G117" t="n">
+        <v>6.138666666666666</v>
+      </c>
+      <c r="H117" t="n">
+        <v>6.072166666666659</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8615.558199999999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>6.151333333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>6.074333333333326</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F119" t="n">
+        <v>11</v>
+      </c>
+      <c r="G119" t="n">
+        <v>6.171333333333334</v>
+      </c>
+      <c r="H119" t="n">
+        <v>6.077999999999992</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F120" t="n">
+        <v>300</v>
+      </c>
+      <c r="G120" t="n">
+        <v>6.187333333333334</v>
+      </c>
+      <c r="H120" t="n">
+        <v>6.082333333333326</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F121" t="n">
+        <v>7493.48</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6.206666666666668</v>
+      </c>
+      <c r="H121" t="n">
+        <v>6.084999999999994</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8291</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6.222</v>
+      </c>
+      <c r="H122" t="n">
+        <v>6.087833333333327</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>1.043252911813644</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>300</v>
+      </c>
+      <c r="G123" t="n">
+        <v>6.242666666666667</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6.090833333333327</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.18</v>
+        <v>6.25</v>
       </c>
       <c r="C2" t="n">
-        <v>6.2</v>
+        <v>6.25</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2</v>
+        <v>6.25</v>
       </c>
       <c r="E2" t="n">
-        <v>6.18</v>
+        <v>6.25</v>
       </c>
       <c r="F2" t="n">
-        <v>7000</v>
+        <v>4555</v>
       </c>
       <c r="G2" t="n">
-        <v>6.183333333333335</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="H2" t="n">
-        <v>6.164500000000001</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.16</v>
+        <v>6.24</v>
       </c>
       <c r="C3" t="n">
-        <v>6.16</v>
+        <v>6.24</v>
       </c>
       <c r="D3" t="n">
-        <v>6.16</v>
+        <v>6.24</v>
       </c>
       <c r="E3" t="n">
-        <v>6.16</v>
+        <v>6.24</v>
       </c>
       <c r="F3" t="n">
-        <v>8578.6566</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>6.182000000000001</v>
+        <v>12.00000000000014</v>
       </c>
       <c r="H3" t="n">
-        <v>6.164833333333335</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>6.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6.25</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="C4" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="D4" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="E4" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="F4" t="n">
-        <v>28228.8424</v>
+        <v>27444.7092</v>
       </c>
       <c r="G4" t="n">
-        <v>6.182000000000001</v>
+        <v>-6.666666666666549</v>
       </c>
       <c r="H4" t="n">
-        <v>6.165333333333336</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="C5" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="D5" t="n">
-        <v>6.17</v>
+        <v>6.19</v>
       </c>
       <c r="E5" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="F5" t="n">
-        <v>6019.1671</v>
+        <v>118361.3439</v>
       </c>
       <c r="G5" t="n">
-        <v>6.182000000000001</v>
+        <v>-19.9999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>6.166166666666669</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +593,41 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="C6" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="E6" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="F6" t="n">
-        <v>80000</v>
+        <v>40939.6842</v>
       </c>
       <c r="G6" t="n">
-        <v>6.182000000000001</v>
+        <v>-3.448275862068902</v>
       </c>
       <c r="H6" t="n">
-        <v>6.166833333333336</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,33 +639,38 @@
         <v>6.18</v>
       </c>
       <c r="C7" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="D7" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E7" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="F7" t="n">
-        <v>135106.8955</v>
+        <v>590.9708000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>6.180666666666668</v>
+        <v>19.9999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>6.168000000000003</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +679,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="C8" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="D8" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="E8" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="F8" t="n">
-        <v>1440200.2292</v>
+        <v>307.9288</v>
       </c>
       <c r="G8" t="n">
-        <v>6.173333333333335</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.16616666666667</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +722,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="C9" t="n">
-        <v>6.02</v>
+        <v>6.18</v>
       </c>
       <c r="D9" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="E9" t="n">
-        <v>6.02</v>
+        <v>6.18</v>
       </c>
       <c r="F9" t="n">
-        <v>414104.9092</v>
+        <v>5047.6699</v>
       </c>
       <c r="G9" t="n">
-        <v>6.161333333333334</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="H9" t="n">
-        <v>6.164000000000003</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +765,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="C10" t="n">
-        <v>6.2</v>
+        <v>6.22</v>
       </c>
       <c r="D10" t="n">
-        <v>6.2</v>
+        <v>6.22</v>
       </c>
       <c r="E10" t="n">
-        <v>6.01</v>
+        <v>6.18</v>
       </c>
       <c r="F10" t="n">
-        <v>1776233.3774</v>
+        <v>172859.3273</v>
       </c>
       <c r="G10" t="n">
-        <v>6.163333333333335</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="H10" t="n">
-        <v>6.16466666666667</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +808,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>582147.9567</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-42.10526315789488</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
         <v>6.22</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>255674.0971</v>
-      </c>
-      <c r="G11" t="n">
-        <v>6.161333333333334</v>
-      </c>
-      <c r="H11" t="n">
-        <v>6.164833333333336</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="K11" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +851,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.21</v>
+        <v>6.11</v>
       </c>
       <c r="C12" t="n">
-        <v>6.21</v>
+        <v>6.11</v>
       </c>
       <c r="D12" t="n">
-        <v>6.21</v>
+        <v>6.11</v>
       </c>
       <c r="E12" t="n">
-        <v>6.21</v>
+        <v>6.1</v>
       </c>
       <c r="F12" t="n">
-        <v>111</v>
+        <v>84411.45359999999</v>
       </c>
       <c r="G12" t="n">
-        <v>6.162000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>6.165666666666668</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +894,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.21</v>
+        <v>6.16</v>
       </c>
       <c r="C13" t="n">
-        <v>6.21</v>
+        <v>6.16</v>
       </c>
       <c r="D13" t="n">
-        <v>6.21</v>
+        <v>6.16</v>
       </c>
       <c r="E13" t="n">
-        <v>6.21</v>
+        <v>6.16</v>
       </c>
       <c r="F13" t="n">
-        <v>200</v>
+        <v>33557.8834</v>
       </c>
       <c r="G13" t="n">
-        <v>6.162666666666667</v>
+        <v>-7.692307692307762</v>
       </c>
       <c r="H13" t="n">
-        <v>6.166500000000001</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -906,24 +949,29 @@
         <v>6.19</v>
       </c>
       <c r="F14" t="n">
-        <v>7670</v>
+        <v>6712.7625</v>
       </c>
       <c r="G14" t="n">
-        <v>6.162</v>
+        <v>23.52941176470591</v>
       </c>
       <c r="H14" t="n">
-        <v>6.167000000000001</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +980,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="C15" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="D15" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E15" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="F15" t="n">
-        <v>133</v>
+        <v>4315.712</v>
       </c>
       <c r="G15" t="n">
-        <v>6.162</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="H15" t="n">
-        <v>6.167666666666666</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,37 +1023,42 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="C16" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="D16" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E16" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="F16" t="n">
-        <v>456</v>
+        <v>5303.3818</v>
       </c>
       <c r="G16" t="n">
-        <v>6.164</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6.169166666666666</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>1</v>
+        <v>6.18</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0.9837999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1008,36 +1066,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="C17" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="D17" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="E17" t="n">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="F17" t="n">
-        <v>508</v>
+        <v>10085.5987</v>
       </c>
       <c r="G17" t="n">
-        <v>6.164</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.170666666666666</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1109,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="C18" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="D18" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="E18" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="F18" t="n">
-        <v>527</v>
+        <v>8265.8022</v>
       </c>
       <c r="G18" t="n">
-        <v>6.166666666666667</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="H18" t="n">
-        <v>6.172166666666666</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6.18</v>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1148,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="C19" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="D19" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="E19" t="n">
-        <v>6.2</v>
+        <v>6.17</v>
       </c>
       <c r="F19" t="n">
-        <v>52310.1612</v>
+        <v>477</v>
       </c>
       <c r="G19" t="n">
-        <v>6.168666666666667</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="H19" t="n">
-        <v>6.172833333333331</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1191,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.19</v>
+        <v>6.17</v>
       </c>
       <c r="C20" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="D20" t="n">
-        <v>6.19</v>
+        <v>6.17</v>
       </c>
       <c r="E20" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="F20" t="n">
-        <v>14216.2597</v>
+        <v>111</v>
       </c>
       <c r="G20" t="n">
-        <v>6.168</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="H20" t="n">
-        <v>6.173666666666665</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1234,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="C21" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="D21" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="E21" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="F21" t="n">
-        <v>202182.4614</v>
+        <v>1146.1978</v>
       </c>
       <c r="G21" t="n">
-        <v>6.161333333333333</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="H21" t="n">
-        <v>6.172999999999998</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.17</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1273,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="C22" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="D22" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E22" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F22" t="n">
-        <v>51800.6691</v>
+        <v>7983.0568</v>
       </c>
       <c r="G22" t="n">
-        <v>6.162</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="H22" t="n">
-        <v>6.172666666666665</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1239,33 +1319,38 @@
         <v>6.17</v>
       </c>
       <c r="C23" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D23" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="E23" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="F23" t="n">
-        <v>85616.69289999999</v>
+        <v>26858.4385</v>
       </c>
       <c r="G23" t="n">
-        <v>6.169999999999999</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="H23" t="n">
-        <v>6.172333333333332</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,24 +1371,29 @@
         <v>6.17</v>
       </c>
       <c r="F24" t="n">
-        <v>227.739</v>
+        <v>39456.4463</v>
       </c>
       <c r="G24" t="n">
-        <v>6.179999999999999</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="H24" t="n">
-        <v>6.172166666666666</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1402,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="C25" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="D25" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="E25" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="F25" t="n">
-        <v>19191.5721</v>
+        <v>503.6451</v>
       </c>
       <c r="G25" t="n">
-        <v>6.177999999999999</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="H25" t="n">
-        <v>6.171499999999999</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1445,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="C26" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="D26" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="E26" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="F26" t="n">
-        <v>10607.0093</v>
+        <v>4495.2258</v>
       </c>
       <c r="G26" t="n">
-        <v>6.178666666666667</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="H26" t="n">
-        <v>6.171</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1488,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="C27" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="D27" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="E27" t="n">
-        <v>6.06</v>
+        <v>6.2</v>
       </c>
       <c r="F27" t="n">
-        <v>585960.2071999999</v>
+        <v>63830.8064</v>
       </c>
       <c r="G27" t="n">
-        <v>6.176</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="H27" t="n">
-        <v>6.170833333333333</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1531,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="D28" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="E28" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="F28" t="n">
-        <v>29806.9925</v>
+        <v>1111</v>
       </c>
       <c r="G28" t="n">
-        <v>6.174</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="H28" t="n">
-        <v>6.171833333333334</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1574,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="C29" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="D29" t="n">
-        <v>6.18</v>
+        <v>6.2</v>
       </c>
       <c r="E29" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="F29" t="n">
-        <v>5916.0032</v>
+        <v>1368</v>
       </c>
       <c r="G29" t="n">
-        <v>6.173333333333333</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="H29" t="n">
-        <v>6.173</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1617,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="C30" t="n">
-        <v>6.04</v>
+        <v>6.17</v>
       </c>
       <c r="D30" t="n">
-        <v>6.17</v>
+        <v>6.2</v>
       </c>
       <c r="E30" t="n">
-        <v>6.04</v>
+        <v>6.17</v>
       </c>
       <c r="F30" t="n">
-        <v>173381.599</v>
+        <v>816568.2781</v>
       </c>
       <c r="G30" t="n">
-        <v>6.162666666666667</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.170666666666667</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1660,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="C31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E31" t="n">
         <v>6.18</v>
       </c>
-      <c r="D31" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6.03</v>
-      </c>
       <c r="F31" t="n">
-        <v>661909.8162999999</v>
+        <v>7000</v>
       </c>
       <c r="G31" t="n">
-        <v>6.161333333333333</v>
+        <v>29.41176470588211</v>
       </c>
       <c r="H31" t="n">
-        <v>6.170166666666668</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1703,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="C32" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="D32" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E32" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="F32" t="n">
-        <v>28940</v>
+        <v>8578.6566</v>
       </c>
       <c r="G32" t="n">
-        <v>6.159333333333334</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="H32" t="n">
-        <v>6.169500000000001</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,37 +1746,42 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>28228.8424</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
         <v>6.16</v>
       </c>
-      <c r="C33" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="E33" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.156666666666666</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6.168000000000002</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
-        <v>1</v>
+      <c r="K33" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0.995</v>
       </c>
     </row>
     <row r="34">
@@ -1654,36 +1789,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="C34" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="D34" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E34" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="F34" t="n">
-        <v>14460</v>
+        <v>6019.1671</v>
       </c>
       <c r="G34" t="n">
-        <v>6.153999999999999</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="H34" t="n">
-        <v>6.166666666666669</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>6.17</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6.17</v>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1828,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="C35" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="D35" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E35" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="F35" t="n">
-        <v>6560.0487</v>
+        <v>80000</v>
       </c>
       <c r="G35" t="n">
-        <v>6.153999999999999</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="H35" t="n">
-        <v>6.166166666666669</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1871,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.1</v>
+        <v>6.18</v>
       </c>
       <c r="C36" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="D36" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E36" t="n">
-        <v>6.1</v>
+        <v>6.15</v>
       </c>
       <c r="F36" t="n">
-        <v>21226.8852</v>
+        <v>135106.8955</v>
       </c>
       <c r="G36" t="n">
-        <v>6.155999999999998</v>
+        <v>-38.46153846153836</v>
       </c>
       <c r="H36" t="n">
-        <v>6.166000000000002</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1914,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.08</v>
+        <v>6.16</v>
       </c>
       <c r="C37" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="D37" t="n">
-        <v>6.08</v>
+        <v>6.16</v>
       </c>
       <c r="E37" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="F37" t="n">
-        <v>463773.1148</v>
+        <v>1440200.2292</v>
       </c>
       <c r="G37" t="n">
-        <v>6.145999999999999</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="H37" t="n">
-        <v>6.164333333333335</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1957,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.15</v>
+        <v>6.06</v>
       </c>
       <c r="C38" t="n">
-        <v>6.15</v>
+        <v>6.02</v>
       </c>
       <c r="D38" t="n">
-        <v>6.15</v>
+        <v>6.06</v>
       </c>
       <c r="E38" t="n">
-        <v>6.15</v>
+        <v>6.02</v>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>414104.9092</v>
       </c>
       <c r="G38" t="n">
-        <v>6.145333333333332</v>
+        <v>-69.23076923076928</v>
       </c>
       <c r="H38" t="n">
-        <v>6.163833333333335</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +2000,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.14</v>
+        <v>6.04</v>
       </c>
       <c r="C39" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="D39" t="n">
-        <v>6.16</v>
+        <v>6.2</v>
       </c>
       <c r="E39" t="n">
-        <v>6.14</v>
+        <v>6.01</v>
       </c>
       <c r="F39" t="n">
-        <v>81168.8311</v>
+        <v>1776233.3774</v>
       </c>
       <c r="G39" t="n">
-        <v>6.144666666666666</v>
+        <v>7.31707317073175</v>
       </c>
       <c r="H39" t="n">
-        <v>6.163500000000002</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +2043,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.15</v>
+        <v>6.22</v>
       </c>
       <c r="C40" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="D40" t="n">
-        <v>6.15</v>
+        <v>6.23</v>
       </c>
       <c r="E40" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>255674.0971</v>
       </c>
       <c r="G40" t="n">
-        <v>6.137999999999999</v>
+        <v>-7.31707317073175</v>
       </c>
       <c r="H40" t="n">
-        <v>6.161666666666668</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +2086,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="C41" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="D41" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="E41" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="G41" t="n">
-        <v>6.135999999999999</v>
+        <v>12.19512195121944</v>
       </c>
       <c r="H41" t="n">
-        <v>6.160500000000001</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2129,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="C42" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="D42" t="n">
-        <v>6.16</v>
+        <v>6.21</v>
       </c>
       <c r="E42" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="F42" t="n">
-        <v>81214.691558441</v>
+        <v>200</v>
       </c>
       <c r="G42" t="n">
-        <v>6.134666666666666</v>
+        <v>9.999999999999979</v>
       </c>
       <c r="H42" t="n">
-        <v>6.161500000000001</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2172,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="C43" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="D43" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="E43" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="F43" t="n">
-        <v>252.6178</v>
+        <v>7670</v>
       </c>
       <c r="G43" t="n">
-        <v>6.132666666666667</v>
+        <v>4.761904761904863</v>
       </c>
       <c r="H43" t="n">
-        <v>6.162166666666667</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2215,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="C44" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="D44" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="E44" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="F44" t="n">
-        <v>239.9837</v>
+        <v>133</v>
       </c>
       <c r="G44" t="n">
-        <v>6.130666666666667</v>
+        <v>6.97674418604656</v>
       </c>
       <c r="H44" t="n">
-        <v>6.162</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2258,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="C45" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="D45" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="E45" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="F45" t="n">
-        <v>1494.8698</v>
+        <v>456</v>
       </c>
       <c r="G45" t="n">
-        <v>6.138000000000001</v>
+        <v>12.19512195121944</v>
       </c>
       <c r="H45" t="n">
-        <v>6.161333333333332</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2301,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="C46" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="D46" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="E46" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="F46" t="n">
-        <v>3104.7152</v>
+        <v>508</v>
       </c>
       <c r="G46" t="n">
-        <v>6.136000000000001</v>
+        <v>53.33333333333326</v>
       </c>
       <c r="H46" t="n">
-        <v>6.160833333333332</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,37 +2344,42 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C47" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D47" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E47" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="F47" t="n">
-        <v>16759.5362</v>
+        <v>527</v>
       </c>
       <c r="G47" t="n">
-        <v>6.131333333333334</v>
+        <v>64.28571428571445</v>
       </c>
       <c r="H47" t="n">
-        <v>6.159499999999999</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
-        <v>1</v>
+        <v>6.2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>0.9998622366288493</v>
       </c>
     </row>
     <row r="48">
@@ -2186,36 +2387,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="C48" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D48" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E48" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="F48" t="n">
-        <v>42360</v>
+        <v>52310.1612</v>
       </c>
       <c r="G48" t="n">
-        <v>6.127333333333334</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>6.158166666666665</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2430,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.12</v>
+        <v>6.19</v>
       </c>
       <c r="C49" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="D49" t="n">
-        <v>6.12</v>
+        <v>6.19</v>
       </c>
       <c r="E49" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>14216.2597</v>
       </c>
       <c r="G49" t="n">
-        <v>6.124666666666668</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="H49" t="n">
-        <v>6.157333333333332</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2473,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.11</v>
+        <v>6.12</v>
       </c>
       <c r="C50" t="n">
-        <v>6.11</v>
+        <v>6.07</v>
       </c>
       <c r="D50" t="n">
         <v>6.12</v>
       </c>
       <c r="E50" t="n">
-        <v>6.11</v>
+        <v>6.07</v>
       </c>
       <c r="F50" t="n">
-        <v>60596.5522</v>
+        <v>202182.4614</v>
       </c>
       <c r="G50" t="n">
-        <v>6.121333333333335</v>
+        <v>-87.50000000000021</v>
       </c>
       <c r="H50" t="n">
-        <v>6.156333333333333</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2516,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.08</v>
+        <v>6.13</v>
       </c>
       <c r="C51" t="n">
-        <v>6.04</v>
+        <v>6.16</v>
       </c>
       <c r="D51" t="n">
-        <v>6.08</v>
+        <v>6.16</v>
       </c>
       <c r="E51" t="n">
-        <v>6.04</v>
+        <v>6.13</v>
       </c>
       <c r="F51" t="n">
-        <v>80991.70480000001</v>
+        <v>51800.6691</v>
       </c>
       <c r="G51" t="n">
-        <v>6.117333333333336</v>
+        <v>-20</v>
       </c>
       <c r="H51" t="n">
-        <v>6.154166666666666</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2559,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="C52" t="n">
-        <v>6.04</v>
+        <v>6.16</v>
       </c>
       <c r="D52" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="E52" t="n">
-        <v>6.04</v>
+        <v>6.16</v>
       </c>
       <c r="F52" t="n">
-        <v>26647.5339</v>
+        <v>85616.69289999999</v>
       </c>
       <c r="G52" t="n">
-        <v>6.119333333333335</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="H52" t="n">
-        <v>6.151999999999999</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2602,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="C53" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="D53" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="E53" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>227.739</v>
       </c>
       <c r="G53" t="n">
-        <v>6.118000000000001</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="H53" t="n">
-        <v>6.151666666666666</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K53" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2417,33 +2648,38 @@
         <v>6.17</v>
       </c>
       <c r="C54" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="D54" t="n">
-        <v>6.18</v>
+        <v>6.17</v>
       </c>
       <c r="E54" t="n">
         <v>6.17</v>
       </c>
       <c r="F54" t="n">
-        <v>68019.2556</v>
+        <v>19191.5721</v>
       </c>
       <c r="G54" t="n">
-        <v>6.119333333333334</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="H54" t="n">
-        <v>6.151333333333333</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K54" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2688,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="C55" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="D55" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="E55" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="F55" t="n">
-        <v>55943.4069</v>
+        <v>10607.0093</v>
       </c>
       <c r="G55" t="n">
-        <v>6.120666666666668</v>
+        <v>-8.333333333333549</v>
       </c>
       <c r="H55" t="n">
-        <v>6.149999999999999</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2731,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="C56" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="E56" t="n">
         <v>6.06</v>
       </c>
-      <c r="C56" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="D56" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E56" t="n">
-        <v>6.03</v>
-      </c>
       <c r="F56" t="n">
-        <v>600105.0736</v>
+        <v>585960.2071999999</v>
       </c>
       <c r="G56" t="n">
-        <v>6.112666666666668</v>
+        <v>-12.00000000000014</v>
       </c>
       <c r="H56" t="n">
-        <v>6.147166666666665</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K56" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2774,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="C57" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="D57" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="E57" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="F57" t="n">
-        <v>12</v>
+        <v>29806.9925</v>
       </c>
       <c r="G57" t="n">
-        <v>6.110666666666669</v>
+        <v>-7.692307692307902</v>
       </c>
       <c r="H57" t="n">
-        <v>6.145833333333332</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2817,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.11</v>
+        <v>6.17</v>
       </c>
       <c r="C58" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="D58" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="E58" t="n">
-        <v>6.11</v>
+        <v>6.17</v>
       </c>
       <c r="F58" t="n">
-        <v>47890.595688311</v>
+        <v>5916.0032</v>
       </c>
       <c r="G58" t="n">
-        <v>6.111333333333334</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="H58" t="n">
-        <v>6.145166666666666</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2860,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="C59" t="n">
-        <v>6.07</v>
+        <v>6.04</v>
       </c>
       <c r="D59" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="E59" t="n">
-        <v>6.07</v>
+        <v>6.04</v>
       </c>
       <c r="F59" t="n">
-        <v>23950</v>
+        <v>173381.599</v>
       </c>
       <c r="G59" t="n">
-        <v>6.106</v>
+        <v>-11.11111111111126</v>
       </c>
       <c r="H59" t="n">
-        <v>6.143</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="K59" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,37 +2903,42 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.07</v>
+        <v>6.09</v>
       </c>
       <c r="C60" t="n">
-        <v>6.03</v>
+        <v>6.18</v>
       </c>
       <c r="D60" t="n">
-        <v>6.07</v>
+        <v>6.18</v>
       </c>
       <c r="E60" t="n">
         <v>6.03</v>
       </c>
       <c r="F60" t="n">
-        <v>36933.4538</v>
+        <v>661909.8162999999</v>
       </c>
       <c r="G60" t="n">
-        <v>6.098</v>
+        <v>6.249999999999896</v>
       </c>
       <c r="H60" t="n">
-        <v>6.140166666666667</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
-        <v>1</v>
+        <v>6.04</v>
+      </c>
+      <c r="K60" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0.991774193548387</v>
       </c>
     </row>
     <row r="61">
@@ -2680,36 +2946,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="C61" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="D61" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E61" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="F61" t="n">
-        <v>90170.5462</v>
+        <v>28940</v>
       </c>
       <c r="G61" t="n">
-        <v>6.096666666666666</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="H61" t="n">
-        <v>6.139499999999999</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>6.18</v>
+      </c>
+      <c r="K61" t="n">
+        <v>6.18</v>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2985,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.11</v>
+        <v>6.16</v>
       </c>
       <c r="C62" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="D62" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="E62" t="n">
-        <v>6.11</v>
+        <v>6.16</v>
       </c>
       <c r="F62" t="n">
-        <v>147045.774877487</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>6.098666666666666</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="H62" t="n">
-        <v>6.138333333333333</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="K62" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +3028,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="C63" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="D63" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="E63" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="F63" t="n">
-        <v>498.3986</v>
+        <v>14460</v>
       </c>
       <c r="G63" t="n">
-        <v>6.1</v>
+        <v>-3.030303030302981</v>
       </c>
       <c r="H63" t="n">
-        <v>6.137666666666665</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K63" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +3071,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="C64" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="D64" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="E64" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="F64" t="n">
-        <v>452.851</v>
+        <v>6560.0487</v>
       </c>
       <c r="G64" t="n">
-        <v>6.1</v>
+        <v>-6.249999999999896</v>
       </c>
       <c r="H64" t="n">
-        <v>6.136833333333332</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>6.16</v>
+      </c>
+      <c r="K64" t="n">
+        <v>6.16</v>
+      </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +3110,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="C65" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="D65" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="E65" t="n">
-        <v>6.12</v>
+        <v>6.1</v>
       </c>
       <c r="F65" t="n">
-        <v>95.7516</v>
+        <v>21226.8852</v>
       </c>
       <c r="G65" t="n">
-        <v>6.100666666666667</v>
+        <v>-18.91891891891904</v>
       </c>
       <c r="H65" t="n">
-        <v>6.135999999999998</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K65" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +3153,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="C66" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="D66" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
       <c r="E66" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="F66" t="n">
-        <v>141043.4983</v>
+        <v>463773.1148</v>
       </c>
       <c r="G66" t="n">
-        <v>6.101333333333333</v>
+        <v>-37.77777777777782</v>
       </c>
       <c r="H66" t="n">
-        <v>6.133999999999999</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +3196,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.09</v>
+        <v>6.15</v>
       </c>
       <c r="C67" t="n">
-        <v>6.09</v>
+        <v>6.15</v>
       </c>
       <c r="D67" t="n">
-        <v>6.09</v>
+        <v>6.15</v>
       </c>
       <c r="E67" t="n">
-        <v>6.09</v>
+        <v>6.15</v>
       </c>
       <c r="F67" t="n">
-        <v>4597.7011</v>
+        <v>11</v>
       </c>
       <c r="G67" t="n">
-        <v>6.104666666666666</v>
+        <v>-5.084745762711758</v>
       </c>
       <c r="H67" t="n">
-        <v>6.132999999999998</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +3239,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.04</v>
+        <v>6.14</v>
       </c>
       <c r="C68" t="n">
-        <v>6.03</v>
+        <v>6.16</v>
       </c>
       <c r="D68" t="n">
-        <v>6.04</v>
+        <v>6.16</v>
       </c>
       <c r="E68" t="n">
-        <v>6.03</v>
+        <v>6.14</v>
       </c>
       <c r="F68" t="n">
-        <v>63671.2294</v>
+        <v>81168.8311</v>
       </c>
       <c r="G68" t="n">
-        <v>6.098</v>
+        <v>26.08695652173916</v>
       </c>
       <c r="H68" t="n">
-        <v>6.132833333333331</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K68" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3282,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="C69" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="D69" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="E69" t="n">
-        <v>6.03</v>
+        <v>6.07</v>
       </c>
       <c r="F69" t="n">
-        <v>51727.9318</v>
+        <v>20</v>
       </c>
       <c r="G69" t="n">
-        <v>6.087999999999999</v>
+        <v>-26.82926829268278</v>
       </c>
       <c r="H69" t="n">
-        <v>6.132999999999997</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K69" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3325,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="C70" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="D70" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="E70" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="F70" t="n">
-        <v>74842.77220000001</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>6.084</v>
+        <v>-4.166666666666574</v>
       </c>
       <c r="H70" t="n">
-        <v>6.130166666666664</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K70" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3368,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="C71" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="D71" t="n">
-        <v>6.03</v>
+        <v>6.16</v>
       </c>
       <c r="E71" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="F71" t="n">
-        <v>10460.3648</v>
+        <v>81214.691558441</v>
       </c>
       <c r="G71" t="n">
-        <v>6.084</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="H71" t="n">
-        <v>6.12783333333333</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K71" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3411,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="C72" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="D72" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="E72" t="n">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="F72" t="n">
-        <v>9441.301799999999</v>
+        <v>252.6178</v>
       </c>
       <c r="G72" t="n">
-        <v>6.077999999999999</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="H72" t="n">
-        <v>6.12483333333333</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K72" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3454,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="C73" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="D73" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="E73" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="F73" t="n">
-        <v>81054.24129999999</v>
+        <v>239.9837</v>
       </c>
       <c r="G73" t="n">
-        <v>6.068666666666666</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="H73" t="n">
-        <v>6.121666666666663</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="K73" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,40 +3497,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="C74" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="D74" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="E74" t="n">
-        <v>6.02</v>
+        <v>6.15</v>
       </c>
       <c r="F74" t="n">
-        <v>261652.9557</v>
+        <v>1494.8698</v>
       </c>
       <c r="G74" t="n">
-        <v>6.065333333333332</v>
+        <v>12.19512195121968</v>
       </c>
       <c r="H74" t="n">
-        <v>6.118833333333329</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="K74" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L74" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,44 +3540,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.01</v>
+        <v>6.15</v>
       </c>
       <c r="C75" t="n">
-        <v>6.01</v>
+        <v>6.15</v>
       </c>
       <c r="D75" t="n">
-        <v>6.01</v>
+        <v>6.15</v>
       </c>
       <c r="E75" t="n">
-        <v>6.01</v>
+        <v>6.15</v>
       </c>
       <c r="F75" t="n">
-        <v>62770.1061</v>
+        <v>3104.7152</v>
       </c>
       <c r="G75" t="n">
-        <v>6.063999999999999</v>
+        <v>43.75000000000014</v>
       </c>
       <c r="H75" t="n">
-        <v>6.115666666666663</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="K75" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3262,44 +3583,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="C76" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="D76" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="E76" t="n">
-        <v>6.08</v>
+        <v>6.1</v>
       </c>
       <c r="F76" t="n">
-        <v>2450.6414</v>
+        <v>16759.5362</v>
       </c>
       <c r="G76" t="n">
-        <v>6.060666666666666</v>
+        <v>-21.73913043478288</v>
       </c>
       <c r="H76" t="n">
-        <v>6.113666666666663</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="K76" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L76" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3308,37 +3626,42 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.02</v>
+        <v>6.1</v>
       </c>
       <c r="C77" t="n">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="D77" t="n">
-        <v>6.02</v>
+        <v>6.1</v>
       </c>
       <c r="E77" t="n">
-        <v>6.01</v>
+        <v>6.1</v>
       </c>
       <c r="F77" t="n">
-        <v>124050.5276</v>
+        <v>42360</v>
       </c>
       <c r="G77" t="n">
-        <v>6.052666666666667</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="H77" t="n">
-        <v>6.110499999999996</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
-        <v>1</v>
+        <v>6.1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>0.9852597402597402</v>
       </c>
     </row>
     <row r="78">
@@ -3346,36 +3669,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>6.12</v>
       </c>
       <c r="D78" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="E78" t="n">
-        <v>6</v>
+        <v>6.12</v>
       </c>
       <c r="F78" t="n">
-        <v>64720.6398</v>
+        <v>12</v>
       </c>
       <c r="G78" t="n">
-        <v>6.044666666666667</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="H78" t="n">
-        <v>6.107166666666663</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3384,36 +3712,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.01</v>
+        <v>6.11</v>
       </c>
       <c r="C79" t="n">
-        <v>6.01</v>
+        <v>6.11</v>
       </c>
       <c r="D79" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="E79" t="n">
-        <v>6.01</v>
+        <v>6.11</v>
       </c>
       <c r="F79" t="n">
-        <v>132.3544</v>
+        <v>60596.5522</v>
       </c>
       <c r="G79" t="n">
-        <v>6.037333333333334</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="H79" t="n">
-        <v>6.103999999999997</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,40 +3755,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>6.08</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>6.04</v>
       </c>
       <c r="F80" t="n">
-        <v>72927.7004</v>
+        <v>80991.70480000001</v>
       </c>
       <c r="G80" t="n">
-        <v>6.029333333333333</v>
+        <v>-73.33333333333294</v>
       </c>
       <c r="H80" t="n">
-        <v>6.101333333333329</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>6.11</v>
       </c>
       <c r="K80" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L80" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,44 +3798,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="C81" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="D81" t="n">
-        <v>6.01</v>
+        <v>6.05</v>
       </c>
       <c r="E81" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="F81" t="n">
-        <v>41886.1896</v>
+        <v>26647.5339</v>
       </c>
       <c r="G81" t="n">
-        <v>6.026666666666667</v>
+        <v>-73.33333333333294</v>
       </c>
       <c r="H81" t="n">
-        <v>6.100333333333329</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="K81" t="n">
-        <v>6</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3510,44 +3841,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="C82" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="D82" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="E82" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="F82" t="n">
-        <v>192347.5873</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>6.021333333333334</v>
+        <v>-8.333333333333487</v>
       </c>
       <c r="H82" t="n">
-        <v>6.097833333333329</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>6.04</v>
       </c>
       <c r="K82" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L82" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,44 +3884,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="C83" t="n">
-        <v>6.07</v>
+        <v>6.18</v>
       </c>
       <c r="D83" t="n">
-        <v>6.07</v>
+        <v>6.18</v>
       </c>
       <c r="E83" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="F83" t="n">
-        <v>185393.1964</v>
+        <v>68019.2556</v>
       </c>
       <c r="G83" t="n">
-        <v>6.024000000000001</v>
+        <v>10.34482758620664</v>
       </c>
       <c r="H83" t="n">
-        <v>6.096333333333328</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>6.13</v>
       </c>
       <c r="K83" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L83" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3602,44 +3927,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.01</v>
+        <v>6.09</v>
       </c>
       <c r="C84" t="n">
-        <v>5.98</v>
+        <v>6.09</v>
       </c>
       <c r="D84" t="n">
-        <v>6.01</v>
+        <v>6.09</v>
       </c>
       <c r="E84" t="n">
-        <v>5.98</v>
+        <v>6.09</v>
       </c>
       <c r="F84" t="n">
-        <v>1291900</v>
+        <v>55943.4069</v>
       </c>
       <c r="G84" t="n">
-        <v>6.020666666666668</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="H84" t="n">
-        <v>6.093166666666662</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>6.18</v>
       </c>
       <c r="K84" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="L84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,42 +3970,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.01</v>
+        <v>6.06</v>
       </c>
       <c r="C85" t="n">
-        <v>6.01</v>
+        <v>6.03</v>
       </c>
       <c r="D85" t="n">
-        <v>6.01</v>
+        <v>6.06</v>
       </c>
       <c r="E85" t="n">
-        <v>6.01</v>
+        <v>6.03</v>
       </c>
       <c r="F85" t="n">
-        <v>33600</v>
+        <v>600105.0736</v>
       </c>
       <c r="G85" t="n">
-        <v>6.019333333333335</v>
+        <v>-17.94871794871781</v>
       </c>
       <c r="H85" t="n">
-        <v>6.090499999999994</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K85" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,42 +4013,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="C86" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="D86" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="E86" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="F86" t="n">
-        <v>16400</v>
+        <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>6.018000000000002</v>
+        <v>4.166666666666767</v>
       </c>
       <c r="H86" t="n">
-        <v>6.087666666666661</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K86" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3736,42 +4056,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.05</v>
+        <v>6.11</v>
       </c>
       <c r="C87" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="D87" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="E87" t="n">
-        <v>6.05</v>
+        <v>6.11</v>
       </c>
       <c r="F87" t="n">
-        <v>237.3223</v>
+        <v>47890.595688311</v>
       </c>
       <c r="G87" t="n">
-        <v>6.019333333333335</v>
+        <v>8.000000000000021</v>
       </c>
       <c r="H87" t="n">
-        <v>6.08566666666666</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="K87" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3780,42 +4099,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="C88" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="D88" t="n">
-        <v>6.06</v>
+        <v>6.07</v>
       </c>
       <c r="E88" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="F88" t="n">
-        <v>63490.099</v>
+        <v>23950</v>
       </c>
       <c r="G88" t="n">
-        <v>6.022000000000002</v>
+        <v>-6.896551724137947</v>
       </c>
       <c r="H88" t="n">
-        <v>6.083666666666661</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="K88" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,42 +4142,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="C89" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="D89" t="n">
-        <v>6.04</v>
+        <v>6.07</v>
       </c>
       <c r="E89" t="n">
-        <v>6.04</v>
+        <v>6.03</v>
       </c>
       <c r="F89" t="n">
-        <v>28389.9005</v>
+        <v>36933.4538</v>
       </c>
       <c r="G89" t="n">
-        <v>6.023333333333336</v>
+        <v>-1.818181818181783</v>
       </c>
       <c r="H89" t="n">
-        <v>6.081333333333328</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K89" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,45 +4185,42 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="C90" t="n">
-        <v>6.02</v>
+        <v>6.13</v>
       </c>
       <c r="D90" t="n">
-        <v>6.02</v>
+        <v>6.16</v>
       </c>
       <c r="E90" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="F90" t="n">
-        <v>213624.909</v>
+        <v>90170.5462</v>
       </c>
       <c r="G90" t="n">
-        <v>6.024000000000002</v>
+        <v>13.84615384615386</v>
       </c>
       <c r="H90" t="n">
-        <v>6.080999999999993</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>6.03</v>
       </c>
       <c r="K90" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="L90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>1</v>
+        <v>6.15</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9917479674796748</v>
       </c>
     </row>
     <row r="91">
@@ -3914,44 +4228,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.01</v>
+        <v>6.11</v>
       </c>
       <c r="C91" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="D91" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="E91" t="n">
-        <v>6.01</v>
+        <v>6.11</v>
       </c>
       <c r="F91" t="n">
-        <v>38095.3246</v>
+        <v>147045.774877487</v>
       </c>
       <c r="G91" t="n">
-        <v>6.019333333333336</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>6.07816666666666</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>6.13</v>
       </c>
       <c r="K91" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,44 +4271,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="C92" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="D92" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="E92" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="F92" t="n">
-        <v>39782.8757</v>
+        <v>498.3986</v>
       </c>
       <c r="G92" t="n">
-        <v>6.019333333333336</v>
+        <v>-11.53846153846149</v>
       </c>
       <c r="H92" t="n">
-        <v>6.075499999999993</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>6.13</v>
       </c>
       <c r="K92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,44 +4314,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="C93" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="D93" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="E93" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="F93" t="n">
-        <v>3521.6851</v>
+        <v>452.851</v>
       </c>
       <c r="G93" t="n">
-        <v>6.020000000000002</v>
+        <v>6.976744186046588</v>
       </c>
       <c r="H93" t="n">
-        <v>6.072999999999992</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="K93" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L93" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,44 +4353,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="C94" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="D94" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="E94" t="n">
-        <v>6.05</v>
+        <v>6.12</v>
       </c>
       <c r="F94" t="n">
-        <v>106.7933</v>
+        <v>95.7516</v>
       </c>
       <c r="G94" t="n">
-        <v>6.022666666666669</v>
+        <v>24.32432432432434</v>
       </c>
       <c r="H94" t="n">
-        <v>6.071166666666659</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="K94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4098,44 +4396,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="C95" t="n">
         <v>6.05</v>
       </c>
       <c r="D95" t="n">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="E95" t="n">
         <v>6.05</v>
       </c>
       <c r="F95" t="n">
-        <v>22762.3742</v>
+        <v>141043.4983</v>
       </c>
       <c r="G95" t="n">
-        <v>6.026000000000002</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>6.069333333333325</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>6.12</v>
       </c>
       <c r="K95" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L95" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4144,42 +4439,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="C96" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="D96" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="E96" t="n">
-        <v>6.06</v>
+        <v>6.09</v>
       </c>
       <c r="F96" t="n">
-        <v>202.5742</v>
+        <v>4597.7011</v>
       </c>
       <c r="G96" t="n">
-        <v>6.029333333333335</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>6.068666666666658</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K96" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4188,42 +4482,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.06</v>
+        <v>6.04</v>
       </c>
       <c r="C97" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="D97" t="n">
-        <v>6.06</v>
+        <v>6.04</v>
       </c>
       <c r="E97" t="n">
-        <v>6.06</v>
+        <v>6.03</v>
       </c>
       <c r="F97" t="n">
-        <v>23870.2337</v>
+        <v>63671.2294</v>
       </c>
       <c r="G97" t="n">
-        <v>6.032666666666668</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="H97" t="n">
-        <v>6.069499999999992</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K97" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4232,42 +4525,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="C98" t="n">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="D98" t="n">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="E98" t="n">
-        <v>6.07</v>
+        <v>6.03</v>
       </c>
       <c r="F98" t="n">
-        <v>28077.3383</v>
+        <v>51727.9318</v>
       </c>
       <c r="G98" t="n">
-        <v>6.032666666666669</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>6.068166666666658</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K98" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,42 +4568,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.08</v>
+        <v>6.03</v>
       </c>
       <c r="C99" t="n">
-        <v>6.08</v>
+        <v>6.03</v>
       </c>
       <c r="D99" t="n">
-        <v>6.08</v>
+        <v>6.03</v>
       </c>
       <c r="E99" t="n">
-        <v>6.08</v>
+        <v>6.03</v>
       </c>
       <c r="F99" t="n">
-        <v>12060</v>
+        <v>74842.77220000001</v>
       </c>
       <c r="G99" t="n">
-        <v>6.039333333333335</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="H99" t="n">
-        <v>6.066833333333324</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K99" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4320,44 +4611,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="C100" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="D100" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="E100" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="F100" t="n">
-        <v>37900.2765</v>
+        <v>10460.3648</v>
       </c>
       <c r="G100" t="n">
-        <v>6.044666666666669</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="H100" t="n">
-        <v>6.067166666666657</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>6.03</v>
       </c>
       <c r="K100" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L100" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4366,42 +4654,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="C101" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="D101" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="E101" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="F101" t="n">
-        <v>341102.4891</v>
+        <v>9441.301799999999</v>
       </c>
       <c r="G101" t="n">
-        <v>6.050000000000002</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="H101" t="n">
-        <v>6.066166666666658</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K101" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4410,42 +4697,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.09</v>
+        <v>6.02</v>
       </c>
       <c r="C102" t="n">
-        <v>6.09</v>
+        <v>6.02</v>
       </c>
       <c r="D102" t="n">
-        <v>6.09</v>
+        <v>6.02</v>
       </c>
       <c r="E102" t="n">
-        <v>6.09</v>
+        <v>6.02</v>
       </c>
       <c r="F102" t="n">
-        <v>50035.8878</v>
+        <v>81054.24129999999</v>
       </c>
       <c r="G102" t="n">
-        <v>6.052666666666669</v>
+        <v>-55.55555555555567</v>
       </c>
       <c r="H102" t="n">
-        <v>6.065166666666657</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K102" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,42 +4740,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.1</v>
+        <v>6.02</v>
       </c>
       <c r="C103" t="n">
-        <v>6.1</v>
+        <v>6.02</v>
       </c>
       <c r="D103" t="n">
-        <v>6.1</v>
+        <v>6.02</v>
       </c>
       <c r="E103" t="n">
-        <v>6.1</v>
+        <v>6.02</v>
       </c>
       <c r="F103" t="n">
-        <v>139.377</v>
+        <v>261652.9557</v>
       </c>
       <c r="G103" t="n">
-        <v>6.055333333333335</v>
+        <v>-55.55555555555567</v>
       </c>
       <c r="H103" t="n">
-        <v>6.064333333333325</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K103" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,42 +4783,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.05</v>
+        <v>6.01</v>
       </c>
       <c r="C104" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="D104" t="n">
-        <v>6.09</v>
+        <v>6.01</v>
       </c>
       <c r="E104" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="F104" t="n">
-        <v>760108.3975</v>
+        <v>62770.1061</v>
       </c>
       <c r="G104" t="n">
-        <v>6.052000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>6.061666666666659</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K104" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,42 +4826,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="C105" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="D105" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="E105" t="n">
-        <v>6.05</v>
+        <v>6.08</v>
       </c>
       <c r="F105" t="n">
-        <v>166389.351</v>
+        <v>2450.6414</v>
       </c>
       <c r="G105" t="n">
-        <v>6.054000000000001</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="H105" t="n">
-        <v>6.059999999999993</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
         <v>6.01</v>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="K105" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,43 +4869,42 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="C106" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="F106" t="n">
-        <v>8000</v>
+        <v>124050.5276</v>
       </c>
       <c r="G106" t="n">
-        <v>6.053333333333334</v>
+        <v>-12.50000000000021</v>
       </c>
       <c r="H106" t="n">
-        <v>6.057499999999993</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>1</v>
+        <v>6.08</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0.9770261437908496</v>
       </c>
     </row>
     <row r="107">
@@ -4630,42 +4912,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="C107" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="E107" t="n">
-        <v>6.07</v>
+        <v>6</v>
       </c>
       <c r="F107" t="n">
-        <v>113.4431</v>
+        <v>64720.6398</v>
       </c>
       <c r="G107" t="n">
-        <v>6.057333333333333</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="H107" t="n">
-        <v>6.056999999999992</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
         <v>6.01</v>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="K107" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4674,42 +4955,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="C108" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="D108" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="E108" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="F108" t="n">
-        <v>11</v>
+        <v>132.3544</v>
       </c>
       <c r="G108" t="n">
-        <v>6.055999999999999</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="H108" t="n">
-        <v>6.055166666666659</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>6</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,44 +4998,41 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="E109" t="n">
-        <v>6.08</v>
+        <v>6</v>
       </c>
       <c r="F109" t="n">
-        <v>101.9407</v>
+        <v>72927.7004</v>
       </c>
       <c r="G109" t="n">
-        <v>6.057999999999999</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="H109" t="n">
-        <v>6.054499999999992</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="K109" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L109" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4776,32 +5053,29 @@
         <v>6.01</v>
       </c>
       <c r="F110" t="n">
-        <v>89974.1234</v>
+        <v>41886.1896</v>
       </c>
       <c r="G110" t="n">
-        <v>6.055333333333333</v>
+        <v>-10.00000000000022</v>
       </c>
       <c r="H110" t="n">
-        <v>6.052833333333325</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K110" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="L110" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4810,44 +5084,41 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="C111" t="n">
-        <v>6.11</v>
+        <v>6.01</v>
       </c>
       <c r="D111" t="n">
-        <v>6.11</v>
+        <v>6.01</v>
       </c>
       <c r="E111" t="n">
-        <v>6.07</v>
+        <v>6.01</v>
       </c>
       <c r="F111" t="n">
-        <v>200896.3285</v>
+        <v>192347.5873</v>
       </c>
       <c r="G111" t="n">
-        <v>6.058666666666666</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="H111" t="n">
-        <v>6.053999999999991</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="K111" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L111" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,44 +5127,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6.13</v>
+        <v>6.01</v>
       </c>
       <c r="C112" t="n">
-        <v>6.22</v>
+        <v>6.07</v>
       </c>
       <c r="D112" t="n">
-        <v>6.22</v>
+        <v>6.07</v>
       </c>
       <c r="E112" t="n">
-        <v>6.13</v>
+        <v>6.01</v>
       </c>
       <c r="F112" t="n">
-        <v>72170.0819</v>
+        <v>185393.1964</v>
       </c>
       <c r="G112" t="n">
-        <v>6.069333333333333</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="H112" t="n">
-        <v>6.056999999999992</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="K112" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="L112" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,42 +5170,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6.2</v>
+        <v>6.01</v>
       </c>
       <c r="C113" t="n">
-        <v>6.28</v>
+        <v>5.98</v>
       </c>
       <c r="D113" t="n">
-        <v>6.28</v>
+        <v>6.01</v>
       </c>
       <c r="E113" t="n">
-        <v>6.2</v>
+        <v>5.98</v>
       </c>
       <c r="F113" t="n">
-        <v>733561.2747</v>
+        <v>1291900</v>
       </c>
       <c r="G113" t="n">
-        <v>6.083333333333333</v>
+        <v>-9.090909090908896</v>
       </c>
       <c r="H113" t="n">
-        <v>6.059499999999991</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K113" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,42 +5213,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6.28</v>
+        <v>6.01</v>
       </c>
       <c r="C114" t="n">
-        <v>6.3</v>
+        <v>6.01</v>
       </c>
       <c r="D114" t="n">
-        <v>6.3</v>
+        <v>6.01</v>
       </c>
       <c r="E114" t="n">
-        <v>6.28</v>
+        <v>6.01</v>
       </c>
       <c r="F114" t="n">
-        <v>5000</v>
+        <v>33600</v>
       </c>
       <c r="G114" t="n">
-        <v>6.098</v>
+        <v>-24.13793103448293</v>
       </c>
       <c r="H114" t="n">
-        <v>6.061499999999992</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="K114" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,42 +5256,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6.28</v>
+        <v>6.01</v>
       </c>
       <c r="C115" t="n">
-        <v>6.3</v>
+        <v>6.01</v>
       </c>
       <c r="D115" t="n">
-        <v>6.3</v>
+        <v>6.01</v>
       </c>
       <c r="E115" t="n">
-        <v>6.28</v>
+        <v>6.01</v>
       </c>
       <c r="F115" t="n">
-        <v>171.0866</v>
+        <v>16400</v>
       </c>
       <c r="G115" t="n">
-        <v>6.111999999999999</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>6.064999999999992</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
         <v>6.01</v>
       </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="K115" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,42 +5299,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6.28</v>
+        <v>6.05</v>
       </c>
       <c r="C116" t="n">
-        <v>6.28</v>
+        <v>6.05</v>
       </c>
       <c r="D116" t="n">
-        <v>6.28</v>
+        <v>6.05</v>
       </c>
       <c r="E116" t="n">
-        <v>6.28</v>
+        <v>6.05</v>
       </c>
       <c r="F116" t="n">
-        <v>130580.1489</v>
+        <v>237.3223</v>
       </c>
       <c r="G116" t="n">
-        <v>6.124666666666666</v>
+        <v>20</v>
       </c>
       <c r="H116" t="n">
-        <v>6.069166666666659</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
         <v>6.01</v>
       </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="K116" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,42 +5342,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6.3</v>
+        <v>6.05</v>
       </c>
       <c r="C117" t="n">
-        <v>6.3</v>
+        <v>6.06</v>
       </c>
       <c r="D117" t="n">
-        <v>6.3</v>
+        <v>6.06</v>
       </c>
       <c r="E117" t="n">
-        <v>6.3</v>
+        <v>6.05</v>
       </c>
       <c r="F117" t="n">
-        <v>221.3492</v>
+        <v>63490.099</v>
       </c>
       <c r="G117" t="n">
-        <v>6.138666666666666</v>
+        <v>20</v>
       </c>
       <c r="H117" t="n">
-        <v>6.072166666666659</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K117" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,43 +5385,42 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="C118" t="n">
-        <v>6.29</v>
+        <v>6.04</v>
       </c>
       <c r="D118" t="n">
-        <v>6.29</v>
+        <v>6.04</v>
       </c>
       <c r="E118" t="n">
-        <v>6.27</v>
+        <v>6.04</v>
       </c>
       <c r="F118" t="n">
-        <v>8615.558199999999</v>
+        <v>28389.9005</v>
       </c>
       <c r="G118" t="n">
-        <v>6.151333333333333</v>
+        <v>15.38461538461546</v>
       </c>
       <c r="H118" t="n">
-        <v>6.074333333333326</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>1</v>
+        <v>6.06</v>
+      </c>
+      <c r="K118" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>0.9983222591362128</v>
       </c>
     </row>
     <row r="119">
@@ -5166,42 +5428,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="C119" t="n">
-        <v>6.29</v>
+        <v>6.02</v>
       </c>
       <c r="D119" t="n">
-        <v>6.29</v>
+        <v>6.02</v>
       </c>
       <c r="E119" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="F119" t="n">
-        <v>11</v>
+        <v>213624.909</v>
       </c>
       <c r="G119" t="n">
-        <v>6.171333333333334</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="H119" t="n">
-        <v>6.077999999999992</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="K119" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,42 +5471,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="C120" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="D120" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="E120" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="F120" t="n">
-        <v>300</v>
+        <v>38095.3246</v>
       </c>
       <c r="G120" t="n">
-        <v>6.187333333333334</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>6.082333333333326</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K120" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,42 +5514,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.25</v>
+        <v>6.01</v>
       </c>
       <c r="C121" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="D121" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="E121" t="n">
-        <v>6.25</v>
+        <v>6.01</v>
       </c>
       <c r="F121" t="n">
-        <v>7493.48</v>
+        <v>39782.8757</v>
       </c>
       <c r="G121" t="n">
-        <v>6.206666666666668</v>
+        <v>-27.27272727272764</v>
       </c>
       <c r="H121" t="n">
-        <v>6.084999999999994</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
         <v>6.01</v>
       </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="K121" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,43 +5557,42 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="C122" t="n">
-        <v>6.3</v>
+        <v>6.01</v>
       </c>
       <c r="D122" t="n">
-        <v>6.3</v>
+        <v>6.01</v>
       </c>
       <c r="E122" t="n">
-        <v>6.29</v>
+        <v>6.01</v>
       </c>
       <c r="F122" t="n">
-        <v>8291</v>
+        <v>3521.6851</v>
       </c>
       <c r="G122" t="n">
-        <v>6.222</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="H122" t="n">
-        <v>6.087833333333327</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
         <v>6.01</v>
       </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
-        <v>1.043252911813644</v>
+      <c r="K122" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -5342,36 +5600,1280 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F123" t="n">
+        <v>106.7933</v>
+      </c>
+      <c r="G123" t="n">
+        <v>28.57142857142867</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K123" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>22762.3742</v>
+      </c>
+      <c r="G124" t="n">
+        <v>28.57142857142867</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K124" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>202.5742</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9.090909090908944</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K125" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>23870.2337</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K126" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F127" t="n">
+        <v>28077.3383</v>
+      </c>
+      <c r="G127" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K127" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12060</v>
+      </c>
+      <c r="G128" t="n">
+        <v>75.00000000000055</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K128" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F129" t="n">
+        <v>37900.2765</v>
+      </c>
+      <c r="G129" t="n">
+        <v>100</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K129" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F130" t="n">
+        <v>341102.4891</v>
+      </c>
+      <c r="G130" t="n">
+        <v>100</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K130" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>0.999950495049505</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F131" t="n">
+        <v>50035.8878</v>
+      </c>
+      <c r="G131" t="n">
+        <v>100</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K131" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>139.377</v>
+      </c>
+      <c r="G132" t="n">
+        <v>100</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K132" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E133" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F133" t="n">
+        <v>760108.3975</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-37.49999999999993</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>166389.351</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-4.761904761904681</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K134" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-23.07692307692303</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K135" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F136" t="n">
+        <v>113.4431</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>6</v>
+      </c>
+      <c r="K136" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D137" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E137" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F137" t="n">
+        <v>11</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-23.07692307692311</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K137" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F138" t="n">
+        <v>101.9407</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-2.127659574468045</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K138" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F139" t="n">
+        <v>89974.1234</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-14.81481481481485</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K139" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F140" t="n">
+        <v>200896.3285</v>
+      </c>
+      <c r="G140" t="n">
+        <v>3.125000000000074</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K140" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F141" t="n">
+        <v>72170.0819</v>
+      </c>
+      <c r="G141" t="n">
+        <v>16.21621621621625</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K141" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E142" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>733561.2747</v>
+      </c>
+      <c r="G142" t="n">
+        <v>42.02898550724636</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K142" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C143" t="n">
         <v>6.3</v>
       </c>
-      <c r="C123" t="n">
+      <c r="D143" t="n">
         <v>6.3</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E143" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G143" t="n">
+        <v>38.46153846153844</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="K143" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C144" t="n">
         <v>6.3</v>
       </c>
-      <c r="E123" t="n">
+      <c r="D144" t="n">
         <v>6.3</v>
       </c>
-      <c r="F123" t="n">
+      <c r="E144" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F144" t="n">
+        <v>171.0866</v>
+      </c>
+      <c r="G144" t="n">
+        <v>49.99999999999993</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K144" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1.02948275862069</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F145" t="n">
+        <v>130580.1489</v>
+      </c>
+      <c r="G145" t="n">
+        <v>38.18181818181819</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K145" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>221.3492</v>
+      </c>
+      <c r="G146" t="n">
+        <v>63.26530612244898</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="K146" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8615.558199999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>51.21951219512204</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F148" t="n">
+        <v>11</v>
+      </c>
+      <c r="G148" t="n">
+        <v>82.35294117647091</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K148" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F149" t="n">
         <v>300</v>
       </c>
-      <c r="G123" t="n">
-        <v>6.242666666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>6.090833333333327</v>
-      </c>
-      <c r="I123" t="n">
+      <c r="G149" t="n">
+        <v>75.00000000000037</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K149" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F150" t="n">
+        <v>7493.48</v>
+      </c>
+      <c r="G150" t="n">
+        <v>53.84615384615448</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K150" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8291</v>
+      </c>
+      <c r="G151" t="n">
+        <v>25</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K151" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F152" t="n">
+        <v>300</v>
+      </c>
+      <c r="G152" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K152" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="C2" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="E2" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="F2" t="n">
-        <v>133</v>
+        <v>738454.4223</v>
       </c>
       <c r="G2" t="n">
-        <v>-3814493.464399998</v>
+        <v>-961224.3529000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="C3" t="n">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
       <c r="D3" t="n">
-        <v>6.2</v>
+        <v>6.14</v>
       </c>
       <c r="E3" t="n">
-        <v>6.2</v>
+        <v>6.11</v>
       </c>
       <c r="F3" t="n">
-        <v>456</v>
+        <v>479883.7342</v>
       </c>
       <c r="G3" t="n">
-        <v>-3814493.464399998</v>
+        <v>-1441108.0871</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
       <c r="C4" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="D4" t="n">
-        <v>6.2</v>
+        <v>6.13</v>
       </c>
       <c r="E4" t="n">
-        <v>6.2</v>
+        <v>6.11</v>
       </c>
       <c r="F4" t="n">
-        <v>508</v>
+        <v>184639.4041</v>
       </c>
       <c r="G4" t="n">
-        <v>-3814493.464399998</v>
+        <v>-1256468.683</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.2</v>
+        <v>6.11</v>
       </c>
       <c r="C5" t="n">
-        <v>6.2</v>
+        <v>6.08</v>
       </c>
       <c r="D5" t="n">
-        <v>6.2</v>
+        <v>6.11</v>
       </c>
       <c r="E5" t="n">
-        <v>6.2</v>
+        <v>6.08</v>
       </c>
       <c r="F5" t="n">
-        <v>527</v>
+        <v>1320140.4223</v>
       </c>
       <c r="G5" t="n">
-        <v>-3814493.464399998</v>
+        <v>-2576609.1053</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="C6" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="E6" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="F6" t="n">
-        <v>52310.1612</v>
+        <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>-3814493.464399998</v>
+        <v>-2566609.1053</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="C7" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="D7" t="n">
-        <v>6.19</v>
+        <v>6.15</v>
       </c>
       <c r="E7" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="F7" t="n">
-        <v>14216.2597</v>
+        <v>23702.9625</v>
       </c>
       <c r="G7" t="n">
-        <v>-3828709.724099997</v>
+        <v>-2566609.1053</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="C8" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="D8" t="n">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="E8" t="n">
-        <v>6.07</v>
+        <v>6.16</v>
       </c>
       <c r="F8" t="n">
-        <v>202182.4614</v>
+        <v>25674.2694</v>
       </c>
       <c r="G8" t="n">
-        <v>-4030892.185499997</v>
+        <v>-2540934.8359</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="C9" t="n">
         <v>6.16</v>
@@ -699,13 +699,13 @@
         <v>6.16</v>
       </c>
       <c r="E9" t="n">
-        <v>6.13</v>
+        <v>6.16</v>
       </c>
       <c r="F9" t="n">
-        <v>51800.6691</v>
+        <v>17266.1931</v>
       </c>
       <c r="G9" t="n">
-        <v>-3979091.516399997</v>
+        <v>-2540934.8359</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="C10" t="n">
         <v>6.16</v>
       </c>
       <c r="D10" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E10" t="n">
         <v>6.16</v>
       </c>
       <c r="F10" t="n">
-        <v>85616.69289999999</v>
+        <v>5179.8538</v>
       </c>
       <c r="G10" t="n">
-        <v>-3979091.516399997</v>
+        <v>-2540934.8359</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="C11" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="D11" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E11" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="F11" t="n">
-        <v>227.739</v>
+        <v>25640.2758</v>
       </c>
       <c r="G11" t="n">
-        <v>-3978863.777399997</v>
+        <v>-2540934.8359</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="C12" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="D12" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E12" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="F12" t="n">
-        <v>19191.5721</v>
+        <v>10489.2045</v>
       </c>
       <c r="G12" t="n">
-        <v>-3978863.777399997</v>
+        <v>-2540934.8359</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="C13" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="D13" t="n">
-        <v>6.18</v>
+        <v>6.16</v>
       </c>
       <c r="E13" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="F13" t="n">
-        <v>10607.0093</v>
+        <v>5244.6428</v>
       </c>
       <c r="G13" t="n">
-        <v>-3968256.768099997</v>
+        <v>-2540934.8359</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="C14" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="D14" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="E14" t="n">
-        <v>6.06</v>
+        <v>6.11</v>
       </c>
       <c r="F14" t="n">
-        <v>585960.2071999999</v>
+        <v>5586.5971</v>
       </c>
       <c r="G14" t="n">
-        <v>-4554216.975299997</v>
+        <v>-2546521.433</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="C15" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="D15" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="E15" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="F15" t="n">
-        <v>29806.9925</v>
+        <v>9217.8853</v>
       </c>
       <c r="G15" t="n">
-        <v>-4524409.982799998</v>
+        <v>-2546521.433</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="C16" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="D16" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="E16" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="F16" t="n">
-        <v>5916.0032</v>
+        <v>979.4287</v>
       </c>
       <c r="G16" t="n">
-        <v>-4524409.982799998</v>
+        <v>-2546521.433</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="C17" t="n">
-        <v>6.04</v>
+        <v>6.16</v>
       </c>
       <c r="D17" t="n">
-        <v>6.17</v>
+        <v>6.16</v>
       </c>
       <c r="E17" t="n">
-        <v>6.04</v>
+        <v>6.16</v>
       </c>
       <c r="F17" t="n">
-        <v>173381.599</v>
+        <v>785</v>
       </c>
       <c r="G17" t="n">
-        <v>-4697791.581799998</v>
+        <v>-2545736.433</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.09</v>
+        <v>6.11</v>
       </c>
       <c r="C18" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="D18" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="E18" t="n">
-        <v>6.03</v>
+        <v>6.11</v>
       </c>
       <c r="F18" t="n">
-        <v>661909.8162999999</v>
+        <v>7783.4614</v>
       </c>
       <c r="G18" t="n">
-        <v>-4035881.765499998</v>
+        <v>-2553519.8944</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="C19" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="D19" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="E19" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="F19" t="n">
-        <v>28940</v>
+        <v>1575.7407</v>
       </c>
       <c r="G19" t="n">
-        <v>-4064821.765499998</v>
+        <v>-2553519.8944</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>6.16</v>
       </c>
       <c r="C20" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="D20" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="E20" t="n">
         <v>6.16</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>101922.7802</v>
       </c>
       <c r="G20" t="n">
-        <v>-4064831.765499998</v>
+        <v>-2451597.1142</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="C21" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="D21" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="E21" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="F21" t="n">
-        <v>14460</v>
+        <v>61541.6828</v>
       </c>
       <c r="G21" t="n">
-        <v>-4064831.765499998</v>
+        <v>-2451597.1142</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="C22" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="D22" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="E22" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="F22" t="n">
-        <v>6560.0487</v>
+        <v>32856.2267</v>
       </c>
       <c r="G22" t="n">
-        <v>-4064831.765499998</v>
+        <v>-2451597.1142</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.1</v>
+        <v>6.21</v>
       </c>
       <c r="C23" t="n">
-        <v>6.1</v>
+        <v>6.21</v>
       </c>
       <c r="D23" t="n">
-        <v>6.1</v>
+        <v>6.21</v>
       </c>
       <c r="E23" t="n">
-        <v>6.1</v>
+        <v>6.21</v>
       </c>
       <c r="F23" t="n">
-        <v>21226.8852</v>
+        <v>14.2995</v>
       </c>
       <c r="G23" t="n">
-        <v>-4086058.650699998</v>
+        <v>-2451582.8147</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.08</v>
+        <v>6.21</v>
       </c>
       <c r="C24" t="n">
-        <v>6.01</v>
+        <v>6.21</v>
       </c>
       <c r="D24" t="n">
-        <v>6.08</v>
+        <v>6.21</v>
       </c>
       <c r="E24" t="n">
-        <v>6.01</v>
+        <v>6.21</v>
       </c>
       <c r="F24" t="n">
-        <v>463773.1148</v>
+        <v>2000</v>
       </c>
       <c r="G24" t="n">
-        <v>-4549831.765499998</v>
+        <v>-2451582.8147</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="C25" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="D25" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="E25" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>22118.8083</v>
       </c>
       <c r="G25" t="n">
-        <v>-4549820.765499998</v>
+        <v>-2473701.623</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="C26" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="D26" t="n">
-        <v>6.16</v>
+        <v>6.12</v>
       </c>
       <c r="E26" t="n">
-        <v>6.14</v>
+        <v>6.12</v>
       </c>
       <c r="F26" t="n">
-        <v>81168.8311</v>
+        <v>9171.0578</v>
       </c>
       <c r="G26" t="n">
-        <v>-4468651.934399998</v>
+        <v>-2482872.6808</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.15</v>
+        <v>6.11</v>
       </c>
       <c r="C27" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="D27" t="n">
-        <v>6.15</v>
+        <v>6.11</v>
       </c>
       <c r="E27" t="n">
-        <v>6.07</v>
+        <v>6.11</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>52.6937</v>
       </c>
       <c r="G27" t="n">
-        <v>-4468671.934399998</v>
+        <v>-2482925.3745</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="C28" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="D28" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="E28" t="n">
-        <v>6.15</v>
+        <v>6.18</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9298.058000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-4468661.934399998</v>
+        <v>-2473627.3165</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="C29" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="D29" t="n">
-        <v>6.16</v>
+        <v>6.21</v>
       </c>
       <c r="E29" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="F29" t="n">
-        <v>81214.691558441</v>
+        <v>383266.2439</v>
       </c>
       <c r="G29" t="n">
-        <v>-4468661.934399998</v>
+        <v>-2090361.0726</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="C30" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="D30" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="E30" t="n">
-        <v>6.15</v>
+        <v>6.21</v>
       </c>
       <c r="F30" t="n">
-        <v>252.6178</v>
+        <v>63320.2797</v>
       </c>
       <c r="G30" t="n">
-        <v>-4468661.934399998</v>
+        <v>-2090361.0726</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.15</v>
+        <v>6.25</v>
       </c>
       <c r="C31" t="n">
-        <v>6.15</v>
+        <v>6.25</v>
       </c>
       <c r="D31" t="n">
-        <v>6.15</v>
+        <v>6.25</v>
       </c>
       <c r="E31" t="n">
-        <v>6.15</v>
+        <v>6.25</v>
       </c>
       <c r="F31" t="n">
-        <v>239.9837</v>
+        <v>4555</v>
       </c>
       <c r="G31" t="n">
-        <v>-4468661.934399998</v>
+        <v>-2085806.0726</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.15</v>
+        <v>6.24</v>
       </c>
       <c r="C32" t="n">
-        <v>6.15</v>
+        <v>6.24</v>
       </c>
       <c r="D32" t="n">
-        <v>6.15</v>
+        <v>6.24</v>
       </c>
       <c r="E32" t="n">
-        <v>6.15</v>
+        <v>6.24</v>
       </c>
       <c r="F32" t="n">
-        <v>1494.8698</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-4468661.934399998</v>
+        <v>-2085816.0726</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="C33" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="D33" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="E33" t="n">
-        <v>6.15</v>
+        <v>6.19</v>
       </c>
       <c r="F33" t="n">
-        <v>3104.7152</v>
+        <v>27444.7092</v>
       </c>
       <c r="G33" t="n">
-        <v>-4468661.934399998</v>
+        <v>-2113260.7818</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6.1</v>
+        <v>6.19</v>
       </c>
       <c r="C34" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="D34" t="n">
-        <v>6.1</v>
+        <v>6.19</v>
       </c>
       <c r="E34" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="F34" t="n">
-        <v>16759.5362</v>
+        <v>118361.3439</v>
       </c>
       <c r="G34" t="n">
-        <v>-4485421.470599998</v>
+        <v>-2231622.1257</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="C35" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="D35" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="E35" t="n">
-        <v>6.1</v>
+        <v>6.11</v>
       </c>
       <c r="F35" t="n">
-        <v>42360</v>
+        <v>40939.6842</v>
       </c>
       <c r="G35" t="n">
-        <v>-4485421.470599998</v>
+        <v>-2231622.1257</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="C36" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="D36" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="E36" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="F36" t="n">
-        <v>12</v>
+        <v>590.9708000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-4485409.470599998</v>
+        <v>-2231031.1549</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.11</v>
+        <v>6.18</v>
       </c>
       <c r="C37" t="n">
-        <v>6.11</v>
+        <v>6.18</v>
       </c>
       <c r="D37" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="E37" t="n">
-        <v>6.11</v>
+        <v>6.18</v>
       </c>
       <c r="F37" t="n">
-        <v>60596.5522</v>
+        <v>307.9288</v>
       </c>
       <c r="G37" t="n">
-        <v>-4546006.022799998</v>
+        <v>-2231031.1549</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.08</v>
+        <v>6.18</v>
       </c>
       <c r="C38" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="D38" t="n">
-        <v>6.08</v>
+        <v>6.18</v>
       </c>
       <c r="E38" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="F38" t="n">
-        <v>80991.70480000001</v>
+        <v>5047.6699</v>
       </c>
       <c r="G38" t="n">
-        <v>-4626997.727599998</v>
+        <v>-2231031.1549</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.05</v>
+        <v>6.18</v>
       </c>
       <c r="C39" t="n">
-        <v>6.04</v>
+        <v>6.22</v>
       </c>
       <c r="D39" t="n">
-        <v>6.05</v>
+        <v>6.22</v>
       </c>
       <c r="E39" t="n">
-        <v>6.04</v>
+        <v>6.18</v>
       </c>
       <c r="F39" t="n">
-        <v>26647.5339</v>
+        <v>172859.3273</v>
       </c>
       <c r="G39" t="n">
-        <v>-4626997.727599998</v>
+        <v>-2058171.8276</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C40" t="n">
-        <v>6.13</v>
+        <v>6.09</v>
       </c>
       <c r="D40" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="E40" t="n">
-        <v>6.13</v>
+        <v>6.09</v>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>582147.9567</v>
       </c>
       <c r="G40" t="n">
-        <v>-4626987.727599998</v>
+        <v>-2640319.7843</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.17</v>
+        <v>6.11</v>
       </c>
       <c r="C41" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="D41" t="n">
-        <v>6.18</v>
+        <v>6.11</v>
       </c>
       <c r="E41" t="n">
-        <v>6.17</v>
+        <v>6.1</v>
       </c>
       <c r="F41" t="n">
-        <v>68019.2556</v>
+        <v>84411.45359999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-4558968.471999998</v>
+        <v>-2555908.3307</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.09</v>
+        <v>6.16</v>
       </c>
       <c r="C42" t="n">
-        <v>6.09</v>
+        <v>6.16</v>
       </c>
       <c r="D42" t="n">
-        <v>6.09</v>
+        <v>6.16</v>
       </c>
       <c r="E42" t="n">
-        <v>6.09</v>
+        <v>6.16</v>
       </c>
       <c r="F42" t="n">
-        <v>55943.4069</v>
+        <v>33557.8834</v>
       </c>
       <c r="G42" t="n">
-        <v>-4614911.878899998</v>
+        <v>-2522350.4473</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.06</v>
+        <v>6.19</v>
       </c>
       <c r="C43" t="n">
-        <v>6.03</v>
+        <v>6.19</v>
       </c>
       <c r="D43" t="n">
-        <v>6.06</v>
+        <v>6.19</v>
       </c>
       <c r="E43" t="n">
-        <v>6.03</v>
+        <v>6.19</v>
       </c>
       <c r="F43" t="n">
-        <v>600105.0736</v>
+        <v>6712.7625</v>
       </c>
       <c r="G43" t="n">
-        <v>-5215016.952499998</v>
+        <v>-2515637.684799999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="C44" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="D44" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="E44" t="n">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="F44" t="n">
-        <v>12</v>
+        <v>4315.712</v>
       </c>
       <c r="G44" t="n">
-        <v>-5215004.952499998</v>
+        <v>-2519953.396799999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.11</v>
+        <v>6.18</v>
       </c>
       <c r="C45" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="D45" t="n">
-        <v>6.16</v>
+        <v>6.18</v>
       </c>
       <c r="E45" t="n">
-        <v>6.11</v>
+        <v>6.18</v>
       </c>
       <c r="F45" t="n">
-        <v>47890.595688311</v>
+        <v>5303.3818</v>
       </c>
       <c r="G45" t="n">
-        <v>-5167114.356811686</v>
+        <v>-2519953.396799999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.07</v>
+        <v>6.18</v>
       </c>
       <c r="C46" t="n">
-        <v>6.07</v>
+        <v>6.18</v>
       </c>
       <c r="D46" t="n">
-        <v>6.07</v>
+        <v>6.18</v>
       </c>
       <c r="E46" t="n">
-        <v>6.07</v>
+        <v>6.18</v>
       </c>
       <c r="F46" t="n">
-        <v>23950</v>
+        <v>10085.5987</v>
       </c>
       <c r="G46" t="n">
-        <v>-5191064.356811686</v>
+        <v>-2519953.396799999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="C47" t="n">
-        <v>6.03</v>
+        <v>6.17</v>
       </c>
       <c r="D47" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="E47" t="n">
-        <v>6.03</v>
+        <v>6.17</v>
       </c>
       <c r="F47" t="n">
-        <v>36933.4538</v>
+        <v>8265.8022</v>
       </c>
       <c r="G47" t="n">
-        <v>-5227997.810611687</v>
+        <v>-2528219.198999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="C48" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="D48" t="n">
-        <v>6.16</v>
+        <v>6.17</v>
       </c>
       <c r="E48" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="F48" t="n">
-        <v>90170.5462</v>
+        <v>477</v>
       </c>
       <c r="G48" t="n">
-        <v>-5137827.264411687</v>
+        <v>-2528219.198999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.11</v>
+        <v>6.17</v>
       </c>
       <c r="C49" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="D49" t="n">
-        <v>6.13</v>
+        <v>6.17</v>
       </c>
       <c r="E49" t="n">
-        <v>6.11</v>
+        <v>6.17</v>
       </c>
       <c r="F49" t="n">
-        <v>147045.774877487</v>
+        <v>111</v>
       </c>
       <c r="G49" t="n">
-        <v>-5137827.264411687</v>
+        <v>-2528219.198999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="C50" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="D50" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="E50" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="F50" t="n">
-        <v>498.3986</v>
+        <v>1146.1978</v>
       </c>
       <c r="G50" t="n">
-        <v>-5138325.663011687</v>
+        <v>-2528219.198999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="C51" t="n">
-        <v>6.12</v>
+        <v>6.15</v>
       </c>
       <c r="D51" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="E51" t="n">
-        <v>6.12</v>
+        <v>6.15</v>
       </c>
       <c r="F51" t="n">
-        <v>452.851</v>
+        <v>7983.0568</v>
       </c>
       <c r="G51" t="n">
-        <v>-5138325.663011687</v>
+        <v>-2536202.255799999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="C52" t="n">
-        <v>6.12</v>
+        <v>6.2</v>
       </c>
       <c r="D52" t="n">
-        <v>6.12</v>
+        <v>6.2</v>
       </c>
       <c r="E52" t="n">
-        <v>6.12</v>
+        <v>6.17</v>
       </c>
       <c r="F52" t="n">
-        <v>95.7516</v>
+        <v>26858.4385</v>
       </c>
       <c r="G52" t="n">
-        <v>-5138325.663011687</v>
+        <v>-2509343.817299999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="C53" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="D53" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="E53" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="F53" t="n">
-        <v>141043.4983</v>
+        <v>39456.4463</v>
       </c>
       <c r="G53" t="n">
-        <v>-5279369.161311687</v>
+        <v>-2548800.263599999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.09</v>
+        <v>6.2</v>
       </c>
       <c r="C54" t="n">
-        <v>6.09</v>
+        <v>6.2</v>
       </c>
       <c r="D54" t="n">
-        <v>6.09</v>
+        <v>6.2</v>
       </c>
       <c r="E54" t="n">
-        <v>6.09</v>
+        <v>6.2</v>
       </c>
       <c r="F54" t="n">
-        <v>4597.7011</v>
+        <v>503.6451</v>
       </c>
       <c r="G54" t="n">
-        <v>-5274771.460211687</v>
+        <v>-2548296.618499999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.04</v>
+        <v>6.2</v>
       </c>
       <c r="C55" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="D55" t="n">
-        <v>6.04</v>
+        <v>6.2</v>
       </c>
       <c r="E55" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="F55" t="n">
-        <v>63671.2294</v>
+        <v>4495.2258</v>
       </c>
       <c r="G55" t="n">
-        <v>-5338442.689611686</v>
+        <v>-2548296.618499999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="C56" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="D56" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="E56" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="F56" t="n">
-        <v>51727.9318</v>
+        <v>63830.8064</v>
       </c>
       <c r="G56" t="n">
-        <v>-5338442.689611686</v>
+        <v>-2548296.618499999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="C57" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="D57" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="E57" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="F57" t="n">
-        <v>74842.77220000001</v>
+        <v>1111</v>
       </c>
       <c r="G57" t="n">
-        <v>-5338442.689611686</v>
+        <v>-2548296.618499999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="C58" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="D58" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="E58" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="F58" t="n">
-        <v>10460.3648</v>
+        <v>1368</v>
       </c>
       <c r="G58" t="n">
-        <v>-5338442.689611686</v>
+        <v>-2548296.618499999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,28 +2490,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="C59" t="n">
-        <v>6.03</v>
+        <v>6.17</v>
       </c>
       <c r="D59" t="n">
-        <v>6.03</v>
+        <v>6.2</v>
       </c>
       <c r="E59" t="n">
-        <v>6.03</v>
+        <v>6.17</v>
       </c>
       <c r="F59" t="n">
-        <v>9441.301799999999</v>
+        <v>816568.2781</v>
       </c>
       <c r="G59" t="n">
-        <v>-5338442.689611686</v>
+        <v>-3364864.896599999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2526,28 +2526,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.02</v>
+        <v>6.18</v>
       </c>
       <c r="C60" t="n">
-        <v>6.02</v>
+        <v>6.2</v>
       </c>
       <c r="D60" t="n">
-        <v>6.02</v>
+        <v>6.2</v>
       </c>
       <c r="E60" t="n">
-        <v>6.02</v>
+        <v>6.18</v>
       </c>
       <c r="F60" t="n">
-        <v>81054.24129999999</v>
+        <v>7000</v>
       </c>
       <c r="G60" t="n">
-        <v>-5419496.930911686</v>
+        <v>-3357864.896599999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.02</v>
+        <v>6.16</v>
       </c>
       <c r="C61" t="n">
-        <v>6.02</v>
+        <v>6.16</v>
       </c>
       <c r="D61" t="n">
-        <v>6.02</v>
+        <v>6.16</v>
       </c>
       <c r="E61" t="n">
-        <v>6.02</v>
+        <v>6.16</v>
       </c>
       <c r="F61" t="n">
-        <v>261652.9557</v>
+        <v>8578.6566</v>
       </c>
       <c r="G61" t="n">
-        <v>-5419496.930911686</v>
+        <v>-3366443.553199999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,28 +2598,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.01</v>
+        <v>6.15</v>
       </c>
       <c r="C62" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="D62" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="E62" t="n">
-        <v>6.01</v>
+        <v>6.15</v>
       </c>
       <c r="F62" t="n">
-        <v>62770.1061</v>
+        <v>28228.8424</v>
       </c>
       <c r="G62" t="n">
-        <v>-5482267.037011687</v>
+        <v>-3338214.710799999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2634,35 +2634,31 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="C63" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="D63" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="E63" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="F63" t="n">
-        <v>2450.6414</v>
+        <v>6019.1671</v>
       </c>
       <c r="G63" t="n">
-        <v>-5479816.395611687</v>
+        <v>-3338214.710799999</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.01</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
@@ -2674,38 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.02</v>
+        <v>6.17</v>
       </c>
       <c r="C64" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="D64" t="n">
-        <v>6.02</v>
+        <v>6.17</v>
       </c>
       <c r="E64" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="F64" t="n">
-        <v>124050.5276</v>
+        <v>80000</v>
       </c>
       <c r="G64" t="n">
-        <v>-5603866.923211686</v>
+        <v>-3338214.710799999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2716,38 +2706,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.01</v>
+        <v>6.18</v>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>6.15</v>
       </c>
       <c r="D65" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="E65" t="n">
-        <v>6</v>
+        <v>6.15</v>
       </c>
       <c r="F65" t="n">
-        <v>64720.6398</v>
+        <v>135106.8955</v>
       </c>
       <c r="G65" t="n">
-        <v>-5668587.563011686</v>
+        <v>-3473321.606299999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2758,38 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="C66" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="D66" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="E66" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="F66" t="n">
-        <v>132.3544</v>
+        <v>1440200.2292</v>
       </c>
       <c r="G66" t="n">
-        <v>-5668455.208611687</v>
+        <v>-4913521.835499998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2800,40 +2778,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>6.06</v>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>6.06</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>6.02</v>
       </c>
       <c r="F67" t="n">
-        <v>72927.7004</v>
+        <v>414104.9092</v>
       </c>
       <c r="G67" t="n">
-        <v>-5741382.909011687</v>
+        <v>-5327626.744699998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2844,40 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.01</v>
+        <v>6.04</v>
       </c>
       <c r="C68" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="D68" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="E68" t="n">
         <v>6.01</v>
       </c>
       <c r="F68" t="n">
-        <v>41886.1896</v>
+        <v>1776233.3774</v>
       </c>
       <c r="G68" t="n">
-        <v>-5699496.719411687</v>
+        <v>-3551393.367299998</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>6</v>
-      </c>
-      <c r="K68" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2888,40 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.01</v>
+        <v>6.22</v>
       </c>
       <c r="C69" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="D69" t="n">
-        <v>6.01</v>
+        <v>6.23</v>
       </c>
       <c r="E69" t="n">
-        <v>6.01</v>
+        <v>6.17</v>
       </c>
       <c r="F69" t="n">
-        <v>192347.5873</v>
+        <v>255674.0971</v>
       </c>
       <c r="G69" t="n">
-        <v>-5699496.719411687</v>
+        <v>-3807067.464399998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K69" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2932,40 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.01</v>
+        <v>6.21</v>
       </c>
       <c r="C70" t="n">
-        <v>6.07</v>
+        <v>6.21</v>
       </c>
       <c r="D70" t="n">
-        <v>6.07</v>
+        <v>6.21</v>
       </c>
       <c r="E70" t="n">
-        <v>6.01</v>
+        <v>6.21</v>
       </c>
       <c r="F70" t="n">
-        <v>185393.1964</v>
+        <v>111</v>
       </c>
       <c r="G70" t="n">
-        <v>-5514103.523011687</v>
+        <v>-3806956.464399998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K70" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2976,40 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.01</v>
+        <v>6.21</v>
       </c>
       <c r="C71" t="n">
-        <v>5.98</v>
+        <v>6.21</v>
       </c>
       <c r="D71" t="n">
-        <v>6.01</v>
+        <v>6.21</v>
       </c>
       <c r="E71" t="n">
-        <v>5.98</v>
+        <v>6.21</v>
       </c>
       <c r="F71" t="n">
-        <v>1291900</v>
+        <v>200</v>
       </c>
       <c r="G71" t="n">
-        <v>-6806003.523011687</v>
+        <v>-3806956.464399998</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="K71" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3020,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.01</v>
+        <v>6.19</v>
       </c>
       <c r="C72" t="n">
-        <v>6.01</v>
+        <v>6.19</v>
       </c>
       <c r="D72" t="n">
-        <v>6.01</v>
+        <v>6.19</v>
       </c>
       <c r="E72" t="n">
-        <v>6.01</v>
+        <v>6.19</v>
       </c>
       <c r="F72" t="n">
-        <v>33600</v>
+        <v>7670</v>
       </c>
       <c r="G72" t="n">
-        <v>-6772403.523011687</v>
+        <v>-3814626.464399998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3044,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3062,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="C73" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="D73" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="E73" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="F73" t="n">
-        <v>16400</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
-        <v>-6772403.523011687</v>
+        <v>-3814493.464399998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3086,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3104,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.05</v>
+        <v>6.2</v>
       </c>
       <c r="C74" t="n">
-        <v>6.05</v>
+        <v>6.2</v>
       </c>
       <c r="D74" t="n">
-        <v>6.05</v>
+        <v>6.2</v>
       </c>
       <c r="E74" t="n">
-        <v>6.05</v>
+        <v>6.2</v>
       </c>
       <c r="F74" t="n">
-        <v>237.3223</v>
+        <v>456</v>
       </c>
       <c r="G74" t="n">
-        <v>-6772166.200711687</v>
+        <v>-3814493.464399998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3128,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3146,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.05</v>
+        <v>6.2</v>
       </c>
       <c r="C75" t="n">
-        <v>6.06</v>
+        <v>6.2</v>
       </c>
       <c r="D75" t="n">
-        <v>6.06</v>
+        <v>6.2</v>
       </c>
       <c r="E75" t="n">
-        <v>6.05</v>
+        <v>6.2</v>
       </c>
       <c r="F75" t="n">
-        <v>63490.099</v>
+        <v>508</v>
       </c>
       <c r="G75" t="n">
-        <v>-6708676.101711687</v>
+        <v>-3814493.464399998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3170,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3188,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.04</v>
+        <v>6.2</v>
       </c>
       <c r="C76" t="n">
-        <v>6.04</v>
+        <v>6.2</v>
       </c>
       <c r="D76" t="n">
-        <v>6.04</v>
+        <v>6.2</v>
       </c>
       <c r="E76" t="n">
-        <v>6.04</v>
+        <v>6.2</v>
       </c>
       <c r="F76" t="n">
-        <v>28389.9005</v>
+        <v>527</v>
       </c>
       <c r="G76" t="n">
-        <v>-6737066.002211687</v>
+        <v>-3814493.464399998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3212,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3230,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="C77" t="n">
-        <v>6.02</v>
+        <v>6.2</v>
       </c>
       <c r="D77" t="n">
-        <v>6.02</v>
+        <v>6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>6.01</v>
+        <v>6.2</v>
       </c>
       <c r="F77" t="n">
-        <v>213624.909</v>
+        <v>52310.1612</v>
       </c>
       <c r="G77" t="n">
-        <v>-6950690.911211687</v>
+        <v>-3814493.464399998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3254,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3272,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.01</v>
+        <v>6.19</v>
       </c>
       <c r="C78" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="D78" t="n">
-        <v>6.01</v>
+        <v>6.19</v>
       </c>
       <c r="E78" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="F78" t="n">
-        <v>38095.3246</v>
+        <v>14216.2597</v>
       </c>
       <c r="G78" t="n">
-        <v>-6988786.235811687</v>
+        <v>-3828709.724099997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3296,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3314,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="C79" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="D79" t="n">
-        <v>6.01</v>
+        <v>6.12</v>
       </c>
       <c r="E79" t="n">
-        <v>6.01</v>
+        <v>6.07</v>
       </c>
       <c r="F79" t="n">
-        <v>39782.8757</v>
+        <v>202182.4614</v>
       </c>
       <c r="G79" t="n">
-        <v>-6988786.235811687</v>
+        <v>-4030892.185499997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3338,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3356,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="C80" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="D80" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="E80" t="n">
-        <v>6.01</v>
+        <v>6.13</v>
       </c>
       <c r="F80" t="n">
-        <v>3521.6851</v>
+        <v>51800.6691</v>
       </c>
       <c r="G80" t="n">
-        <v>-6988786.235811687</v>
+        <v>-3979091.516399997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3380,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3398,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="C81" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="D81" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="E81" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="F81" t="n">
-        <v>106.7933</v>
+        <v>85616.69289999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-6988679.442511687</v>
+        <v>-3979091.516399997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3422,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3440,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="C82" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="D82" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="E82" t="n">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="F82" t="n">
-        <v>22762.3742</v>
+        <v>227.739</v>
       </c>
       <c r="G82" t="n">
-        <v>-6988679.442511687</v>
+        <v>-3978863.777399997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3464,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3482,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.06</v>
+        <v>6.17</v>
       </c>
       <c r="C83" t="n">
-        <v>6.06</v>
+        <v>6.17</v>
       </c>
       <c r="D83" t="n">
-        <v>6.06</v>
+        <v>6.17</v>
       </c>
       <c r="E83" t="n">
-        <v>6.06</v>
+        <v>6.17</v>
       </c>
       <c r="F83" t="n">
-        <v>202.5742</v>
+        <v>19191.5721</v>
       </c>
       <c r="G83" t="n">
-        <v>-6988476.868311687</v>
+        <v>-3978863.777399997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3506,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3524,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.06</v>
+        <v>6.17</v>
       </c>
       <c r="C84" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="D84" t="n">
-        <v>6.06</v>
+        <v>6.18</v>
       </c>
       <c r="E84" t="n">
-        <v>6.06</v>
+        <v>6.17</v>
       </c>
       <c r="F84" t="n">
-        <v>23870.2337</v>
+        <v>10607.0093</v>
       </c>
       <c r="G84" t="n">
-        <v>-6988476.868311687</v>
+        <v>-3968256.768099997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3548,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3566,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="C85" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="D85" t="n">
-        <v>6.07</v>
+        <v>6.17</v>
       </c>
       <c r="E85" t="n">
-        <v>6.07</v>
+        <v>6.06</v>
       </c>
       <c r="F85" t="n">
-        <v>28077.3383</v>
+        <v>585960.2071999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-6960399.530011687</v>
+        <v>-4554216.975299997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3590,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3608,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="C86" t="n">
-        <v>6.08</v>
+        <v>6.18</v>
       </c>
       <c r="D86" t="n">
-        <v>6.08</v>
+        <v>6.18</v>
       </c>
       <c r="E86" t="n">
-        <v>6.08</v>
+        <v>6.17</v>
       </c>
       <c r="F86" t="n">
-        <v>12060</v>
+        <v>29806.9925</v>
       </c>
       <c r="G86" t="n">
-        <v>-6948339.530011687</v>
+        <v>-4524409.982799998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3632,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3650,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="C87" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="D87" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="E87" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="F87" t="n">
-        <v>37900.2765</v>
+        <v>5916.0032</v>
       </c>
       <c r="G87" t="n">
-        <v>-6910439.253511688</v>
+        <v>-4524409.982799998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3674,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="C88" t="n">
-        <v>6.09</v>
+        <v>6.04</v>
       </c>
       <c r="D88" t="n">
-        <v>6.09</v>
+        <v>6.17</v>
       </c>
       <c r="E88" t="n">
-        <v>6.09</v>
+        <v>6.04</v>
       </c>
       <c r="F88" t="n">
-        <v>341102.4891</v>
+        <v>173381.599</v>
       </c>
       <c r="G88" t="n">
-        <v>-6910439.253511688</v>
+        <v>-4697791.581799998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3716,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3737,19 +3573,19 @@
         <v>6.09</v>
       </c>
       <c r="C89" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="D89" t="n">
-        <v>6.09</v>
+        <v>6.18</v>
       </c>
       <c r="E89" t="n">
-        <v>6.09</v>
+        <v>6.03</v>
       </c>
       <c r="F89" t="n">
-        <v>50035.8878</v>
+        <v>661909.8162999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-6910439.253511688</v>
+        <v>-4035881.765499998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3758,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3776,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.1</v>
+        <v>6.17</v>
       </c>
       <c r="C90" t="n">
-        <v>6.1</v>
+        <v>6.17</v>
       </c>
       <c r="D90" t="n">
-        <v>6.1</v>
+        <v>6.17</v>
       </c>
       <c r="E90" t="n">
-        <v>6.1</v>
+        <v>6.17</v>
       </c>
       <c r="F90" t="n">
-        <v>139.377</v>
+        <v>28940</v>
       </c>
       <c r="G90" t="n">
-        <v>-6910299.876511687</v>
+        <v>-4064821.765499998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3800,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3818,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="C91" t="n">
-        <v>5.99</v>
+        <v>6.16</v>
       </c>
       <c r="D91" t="n">
-        <v>6.09</v>
+        <v>6.16</v>
       </c>
       <c r="E91" t="n">
-        <v>5.99</v>
+        <v>6.16</v>
       </c>
       <c r="F91" t="n">
-        <v>760108.3975</v>
+        <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-7670408.274011687</v>
+        <v>-4064831.765499998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3842,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3860,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="D92" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="E92" t="n">
-        <v>6.05</v>
+        <v>6.16</v>
       </c>
       <c r="F92" t="n">
-        <v>166389.351</v>
+        <v>14460</v>
       </c>
       <c r="G92" t="n">
-        <v>-7504018.923011688</v>
+        <v>-4064831.765499998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3884,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3902,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
+        <v>6.16</v>
       </c>
       <c r="F93" t="n">
-        <v>8000</v>
+        <v>6560.0487</v>
       </c>
       <c r="G93" t="n">
-        <v>-7512018.923011688</v>
+        <v>-4064831.765499998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3926,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3944,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.07</v>
+        <v>6.1</v>
       </c>
       <c r="C94" t="n">
-        <v>6.07</v>
+        <v>6.1</v>
       </c>
       <c r="D94" t="n">
-        <v>6.07</v>
+        <v>6.1</v>
       </c>
       <c r="E94" t="n">
-        <v>6.07</v>
+        <v>6.1</v>
       </c>
       <c r="F94" t="n">
-        <v>113.4431</v>
+        <v>21226.8852</v>
       </c>
       <c r="G94" t="n">
-        <v>-7511905.479911688</v>
+        <v>-4086058.650699998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3968,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3986,40 +3786,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="C95" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="D95" t="n">
-        <v>5.99</v>
+        <v>6.08</v>
       </c>
       <c r="E95" t="n">
-        <v>5.99</v>
+        <v>6.01</v>
       </c>
       <c r="F95" t="n">
-        <v>11</v>
+        <v>463773.1148</v>
       </c>
       <c r="G95" t="n">
-        <v>-7511916.479911688</v>
+        <v>-4549831.765499998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="K95" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4030,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
       <c r="C96" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
       <c r="D96" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
       <c r="E96" t="n">
-        <v>6.08</v>
+        <v>6.15</v>
       </c>
       <c r="F96" t="n">
-        <v>101.9407</v>
+        <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>-7511814.539211688</v>
+        <v>-4549820.765499998</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4054,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.01</v>
+        <v>6.14</v>
       </c>
       <c r="C97" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="D97" t="n">
-        <v>6.01</v>
+        <v>6.16</v>
       </c>
       <c r="E97" t="n">
-        <v>6.01</v>
+        <v>6.14</v>
       </c>
       <c r="F97" t="n">
-        <v>89974.1234</v>
+        <v>81168.8311</v>
       </c>
       <c r="G97" t="n">
-        <v>-7601788.662611688</v>
+        <v>-4468651.934399998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4096,14 +3882,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4114,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="C98" t="n">
         <v>6.07</v>
       </c>
-      <c r="C98" t="n">
-        <v>6.11</v>
-      </c>
       <c r="D98" t="n">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="E98" t="n">
         <v>6.07</v>
       </c>
       <c r="F98" t="n">
-        <v>200896.3285</v>
+        <v>20</v>
       </c>
       <c r="G98" t="n">
-        <v>-7400892.334111688</v>
+        <v>-4468671.934399998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4138,14 +3918,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4156,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="C99" t="n">
-        <v>6.22</v>
+        <v>6.15</v>
       </c>
       <c r="D99" t="n">
-        <v>6.22</v>
+        <v>6.15</v>
       </c>
       <c r="E99" t="n">
-        <v>6.13</v>
+        <v>6.15</v>
       </c>
       <c r="F99" t="n">
-        <v>72170.0819</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>-7328722.252211688</v>
+        <v>-4468661.934399998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4180,14 +3954,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4198,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="C100" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="D100" t="n">
-        <v>6.28</v>
+        <v>6.16</v>
       </c>
       <c r="E100" t="n">
-        <v>6.2</v>
+        <v>6.15</v>
       </c>
       <c r="F100" t="n">
-        <v>733561.2747</v>
+        <v>81214.691558441</v>
       </c>
       <c r="G100" t="n">
-        <v>-6595160.977511688</v>
+        <v>-4468661.934399998</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4222,14 +3990,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4240,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="C101" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="D101" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="E101" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="F101" t="n">
-        <v>5000</v>
+        <v>252.6178</v>
       </c>
       <c r="G101" t="n">
-        <v>-6590160.977511688</v>
+        <v>-4468661.934399998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4264,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4282,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="C102" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="D102" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="E102" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="F102" t="n">
-        <v>171.0866</v>
+        <v>239.9837</v>
       </c>
       <c r="G102" t="n">
-        <v>-6590160.977511688</v>
+        <v>-4468661.934399998</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4306,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4324,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="C103" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="D103" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="E103" t="n">
-        <v>6.28</v>
+        <v>6.15</v>
       </c>
       <c r="F103" t="n">
-        <v>130580.1489</v>
+        <v>1494.8698</v>
       </c>
       <c r="G103" t="n">
-        <v>-6720741.126411689</v>
+        <v>-4468661.934399998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4348,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4366,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="C104" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="D104" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="E104" t="n">
-        <v>6.3</v>
+        <v>6.15</v>
       </c>
       <c r="F104" t="n">
-        <v>221.3492</v>
+        <v>3104.7152</v>
       </c>
       <c r="G104" t="n">
-        <v>-6720519.777211688</v>
+        <v>-4468661.934399998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4390,14 +4134,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4408,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.27</v>
+        <v>6.1</v>
       </c>
       <c r="C105" t="n">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="D105" t="n">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="E105" t="n">
-        <v>6.27</v>
+        <v>6.1</v>
       </c>
       <c r="F105" t="n">
-        <v>8615.558199999999</v>
+        <v>16759.5362</v>
       </c>
       <c r="G105" t="n">
-        <v>-6729135.335411688</v>
+        <v>-4485421.470599998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4432,14 +4170,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4450,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="C106" t="n">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="D106" t="n">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="E106" t="n">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="F106" t="n">
-        <v>11</v>
+        <v>42360</v>
       </c>
       <c r="G106" t="n">
-        <v>-6729135.335411688</v>
+        <v>-4485421.470599998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4474,14 +4206,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4492,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.29</v>
+        <v>6.12</v>
       </c>
       <c r="C107" t="n">
-        <v>6.29</v>
+        <v>6.12</v>
       </c>
       <c r="D107" t="n">
-        <v>6.29</v>
+        <v>6.12</v>
       </c>
       <c r="E107" t="n">
-        <v>6.29</v>
+        <v>6.12</v>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="G107" t="n">
-        <v>-6729135.335411688</v>
+        <v>-4485409.470599998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4516,14 +4242,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4534,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6.25</v>
+        <v>6.11</v>
       </c>
       <c r="C108" t="n">
-        <v>6.29</v>
+        <v>6.11</v>
       </c>
       <c r="D108" t="n">
-        <v>6.29</v>
+        <v>6.12</v>
       </c>
       <c r="E108" t="n">
-        <v>6.25</v>
+        <v>6.11</v>
       </c>
       <c r="F108" t="n">
-        <v>7493.48</v>
+        <v>60596.5522</v>
       </c>
       <c r="G108" t="n">
-        <v>-6729135.335411688</v>
+        <v>-4546006.022799998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4558,14 +4278,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4576,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.29</v>
+        <v>6.08</v>
       </c>
       <c r="C109" t="n">
-        <v>6.3</v>
+        <v>6.04</v>
       </c>
       <c r="D109" t="n">
-        <v>6.3</v>
+        <v>6.08</v>
       </c>
       <c r="E109" t="n">
-        <v>6.29</v>
+        <v>6.04</v>
       </c>
       <c r="F109" t="n">
-        <v>8291</v>
+        <v>80991.70480000001</v>
       </c>
       <c r="G109" t="n">
-        <v>-6720844.335411688</v>
+        <v>-4626997.727599998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4600,14 +4314,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4618,42 +4326,2700 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F110" t="n">
+        <v>26647.5339</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-4626997.727599998</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F111" t="n">
+        <v>10</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-4626987.727599998</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F112" t="n">
+        <v>68019.2556</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4558968.471999998</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F113" t="n">
+        <v>55943.4069</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-4614911.878899998</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F114" t="n">
+        <v>600105.0736</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-5215016.952499998</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F115" t="n">
+        <v>12</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-5215004.952499998</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F116" t="n">
+        <v>47890.595688311</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-5167114.356811686</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>23950</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-5191064.356811686</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F118" t="n">
+        <v>36933.4538</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-5227997.810611687</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F119" t="n">
+        <v>90170.5462</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-5137827.264411687</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="F120" t="n">
+        <v>147045.774877487</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-5137827.264411687</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F121" t="n">
+        <v>498.3986</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-5138325.663011687</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F122" t="n">
+        <v>452.851</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-5138325.663011687</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="F123" t="n">
+        <v>95.7516</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-5138325.663011687</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F124" t="n">
+        <v>141043.4983</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-5279369.161311687</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4597.7011</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-5274771.460211687</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F126" t="n">
+        <v>63671.2294</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-5338442.689611686</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F127" t="n">
+        <v>51727.9318</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-5338442.689611686</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F128" t="n">
+        <v>74842.77220000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-5338442.689611686</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10460.3648</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-5338442.689611686</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="F130" t="n">
+        <v>9441.301799999999</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-5338442.689611686</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F131" t="n">
+        <v>81054.24129999999</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-5419496.930911686</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="F132" t="n">
+        <v>261652.9557</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-5419496.930911686</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F133" t="n">
+        <v>62770.1061</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-5482267.037011687</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2450.6414</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-5479816.395611687</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F135" t="n">
+        <v>124050.5276</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-5603866.923211686</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6</v>
+      </c>
+      <c r="F136" t="n">
+        <v>64720.6398</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-5668587.563011686</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D137" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E137" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F137" t="n">
+        <v>132.3544</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-5668455.208611687</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>72927.7004</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-5741382.909011687</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F139" t="n">
+        <v>41886.1896</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-5699496.719411687</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C140" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F140" t="n">
+        <v>192347.5873</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-5699496.719411687</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C141" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F141" t="n">
+        <v>185393.1964</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-5514103.523011687</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1291900</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-6806003.523011687</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F143" t="n">
+        <v>33600</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-6772403.523011687</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-6772403.523011687</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>237.3223</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-6772166.200711687</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>63490.099</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-6708676.101711687</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F147" t="n">
+        <v>28389.9005</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-6737066.002211687</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F148" t="n">
+        <v>213624.909</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-6950690.911211687</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F149" t="n">
+        <v>38095.3246</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F150" t="n">
+        <v>39782.8757</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3521.6851</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>106.7933</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-6988679.442511687</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K152" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22762.3742</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-6988679.442511687</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>202.5742</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-6988476.868311687</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K154" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23870.2337</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-6988476.868311687</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K155" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28077.3383</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-6960399.530011687</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K156" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12060</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-6948339.530011687</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F158" t="n">
+        <v>37900.2765</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F159" t="n">
+        <v>341102.4891</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F160" t="n">
+        <v>50035.8878</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>139.377</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-6910299.876511687</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F162" t="n">
+        <v>760108.3975</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-7670408.274011687</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F163" t="n">
+        <v>166389.351</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-7504018.923011688</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-7512018.923011688</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="K164" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F165" t="n">
+        <v>113.4431</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-7511905.479911688</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-7511916.479911688</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F167" t="n">
+        <v>101.9407</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-7511814.539211688</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K167" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F168" t="n">
+        <v>89974.1234</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-7601788.662611688</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K168" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F169" t="n">
+        <v>200896.3285</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-7400892.334111688</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K169" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C170" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F170" t="n">
+        <v>72170.0819</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-7328722.252211688</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="K170" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C171" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D171" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F171" t="n">
+        <v>733561.2747</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-6595160.977511688</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C172" t="n">
         <v>6.3</v>
       </c>
-      <c r="C110" t="n">
+      <c r="D172" t="n">
         <v>6.3</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E172" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F172" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-6590160.977511688</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C173" t="n">
         <v>6.3</v>
       </c>
-      <c r="E110" t="n">
+      <c r="D173" t="n">
         <v>6.3</v>
       </c>
-      <c r="F110" t="n">
+      <c r="E173" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F173" t="n">
+        <v>171.0866</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-6590160.977511688</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="C174" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="F174" t="n">
+        <v>130580.1489</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-6720741.126411689</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D175" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F175" t="n">
+        <v>221.3492</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-6720519.777211688</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="C176" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D176" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E176" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8615.558199999999</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-6729135.335411688</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C177" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D177" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E177" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F177" t="n">
+        <v>11</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-6729135.335411688</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C178" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E178" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F178" t="n">
         <v>300</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G178" t="n">
+        <v>-6729135.335411688</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="D179" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="E179" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F179" t="n">
+        <v>7493.48</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-6729135.335411688</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8291</v>
+      </c>
+      <c r="G180" t="n">
         <v>-6720844.335411688</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D181" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E181" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>300</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-6720844.335411688</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-2566609.1053</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-2546521.433</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-2451582.8147</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-2473701.623</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-2482872.6808</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-2482925.3745</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-2090361.0726</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-2113260.7818</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-2058171.8276</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-2640319.7843</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2035,15 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>-2536202.255799999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>-2548800.263599999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-3364864.896599999</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-3357864.896599999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-3366443.553199999</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-3473321.606299999</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-5327626.744699998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-3807067.464399998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-3806956.464399998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4741,19 @@
         <v>-5419496.930911686</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>6.02</v>
+      </c>
+      <c r="J132" t="n">
+        <v>6.02</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4778,23 @@
         <v>-5482267.037011687</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>6.02</v>
+      </c>
+      <c r="J133" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4819,23 @@
         <v>-5479816.395611687</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>6.01</v>
+      </c>
+      <c r="J134" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4862,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4895,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4928,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4961,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4994,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5027,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5060,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5496,18 +5091,21 @@
         <v>-6806003.523011687</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>6.07</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5132,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5568,18 +5167,21 @@
         <v>-6772403.523011687</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,18 +5206,21 @@
         <v>-6772166.200711687</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>6.01</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5247,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5284,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5321,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5358,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5784,22 +5393,21 @@
         <v>-6988786.235811687</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
         <v>6.01</v>
       </c>
-      <c r="K150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5824,26 +5432,21 @@
         <v>-6988786.235811687</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
         <v>6.01</v>
       </c>
-      <c r="K151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5868,26 +5471,21 @@
         <v>-6988679.442511687</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
         <v>6.01</v>
       </c>
-      <c r="K152" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5912,22 +5510,21 @@
         <v>-6988679.442511687</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
         <v>6.05</v>
       </c>
-      <c r="K153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5952,26 +5549,21 @@
         <v>-6988476.868311687</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
         <v>6.05</v>
       </c>
-      <c r="K154" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5996,26 +5588,19 @@
         <v>-6988476.868311687</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K155" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6040,22 +5625,19 @@
         <v>-6960399.530011687</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K156" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6082,22 +5664,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="K157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6124,22 +5701,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="K158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6164,18 +5736,21 @@
         <v>-6910439.253511688</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6200,18 +5775,21 @@
         <v>-6910439.253511688</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6236,18 +5814,21 @@
         <v>-6910299.876511687</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>6.09</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6274,16 +5855,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6310,16 +5892,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6344,22 +5927,19 @@
         <v>-7512018.923011688</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K164" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6386,22 +5966,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6426,24 +6001,21 @@
         <v>-7511916.479911688</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>6.07</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="L166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6468,22 +6040,21 @@
         <v>-7511814.539211688</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
         <v>5.99</v>
       </c>
-      <c r="K167" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6508,26 +6079,21 @@
         <v>-7601788.662611688</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
         <v>6.08</v>
       </c>
-      <c r="K168" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6552,26 +6118,19 @@
         <v>-7400892.334111688</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K169" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6596,22 +6155,21 @@
         <v>-7328722.252211688</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
         <v>6.11</v>
       </c>
-      <c r="K170" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6638,22 +6196,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6680,22 +6233,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6722,16 +6270,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6758,16 +6307,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6794,16 +6344,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6830,16 +6381,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6866,16 +6418,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6902,16 +6455,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6938,16 +6492,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6974,16 +6529,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7010,18 +6566,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-961224.3529000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1441108.0871</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1256468.683</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2576609.1053</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2566609.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2566609.1053</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2546521.433</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2546521.433</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2546521.433</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2545736.433</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2553519.8944</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2553519.8944</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2451597.1142</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2451582.8147</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2473701.623</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2482872.6808</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2482925.3745</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2473627.3165</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2090361.0726</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2090361.0726</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2085806.0726</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2113260.7818</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2058171.8276</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2640319.7843</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2555908.3307</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2522350.4473</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2515637.684799999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2536202.255799999</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2548800.263599999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3364864.896599999</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3357864.896599999</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3366443.553199999</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3473321.606299999</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-4913521.835499998</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-5327626.744699998</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3551393.367299998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3807067.464399998</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3806956.464399998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3806956.464399998</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3814626.464399998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3828709.724099997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4030892.185499997</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3979091.516399997</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3979091.516399997</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3978863.777399997</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3978863.777399997</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4697791.581799998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -4741,14 +4741,10 @@
         <v>-5419496.930911686</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J132" t="n">
-        <v>6.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4778,19 +4774,11 @@
         <v>-5482267.037011687</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J133" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4819,19 +4807,11 @@
         <v>-5479816.395611687</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J134" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5091,777 +5071,761 @@
         <v>-6806003.523011687</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F143" t="n">
+        <v>33600</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-6772403.523011687</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-6772403.523011687</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>237.3223</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-6772166.200711687</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>63490.099</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-6708676.101711687</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F147" t="n">
+        <v>28389.9005</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-6737066.002211687</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F148" t="n">
+        <v>213624.909</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-6950690.911211687</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F149" t="n">
+        <v>38095.3246</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="J149" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F150" t="n">
+        <v>39782.8757</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3521.6851</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J151" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>106.7933</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-6988679.442511687</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22762.3742</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-6988679.442511687</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>202.5742</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-6988476.868311687</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23870.2337</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-6988476.868311687</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>6.07</v>
       </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
+      <c r="C156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28077.3383</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-6960399.530011687</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="J156" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12060</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-6948339.530011687</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="J157" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F158" t="n">
+        <v>37900.2765</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J158" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F159" t="n">
+        <v>341102.4891</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="J159" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F160" t="n">
+        <v>50035.8878</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="J160" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>139.377</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-6910299.876511687</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="J161" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F162" t="n">
+        <v>760108.3975</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-7670408.274011687</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F143" t="n">
-        <v>33600</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-6772403.523011687</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F144" t="n">
-        <v>16400</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-6772403.523011687</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F145" t="n">
-        <v>237.3223</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-6772166.200711687</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C146" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E146" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F146" t="n">
-        <v>63490.099</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-6708676.101711687</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F147" t="n">
-        <v>28389.9005</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-6737066.002211687</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C148" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E148" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F148" t="n">
-        <v>213624.909</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-6950690.911211687</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F149" t="n">
-        <v>38095.3246</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-6988786.235811687</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F150" t="n">
-        <v>39782.8757</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-6988786.235811687</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3521.6851</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-6988786.235811687</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F152" t="n">
-        <v>106.7933</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-6988679.442511687</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F153" t="n">
-        <v>22762.3742</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-6988679.442511687</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F154" t="n">
-        <v>202.5742</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-6988476.868311687</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F155" t="n">
-        <v>23870.2337</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-6988476.868311687</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F156" t="n">
-        <v>28077.3383</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-6960399.530011687</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F157" t="n">
-        <v>12060</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-6948339.530011687</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F158" t="n">
-        <v>37900.2765</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F159" t="n">
-        <v>341102.4891</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F160" t="n">
-        <v>50035.8878</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>139.377</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-6910299.876511687</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D162" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F162" t="n">
-        <v>760108.3975</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-7670408.274011687</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5893,7 +5857,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5930,7 +5896,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5967,7 +5935,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6001,12 +5971,12 @@
         <v>-7511916.479911688</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6040,12 +6010,14 @@
         <v>-7511814.539211688</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>5.99</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6079,12 +6051,14 @@
         <v>-7601788.662611688</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>6.08</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6118,10 +6092,14 @@
         <v>-7400892.334111688</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J169" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,12 +6133,14 @@
         <v>-7328722.252211688</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>6.11</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,10 +6174,14 @@
         <v>-6595160.977511688</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="J171" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,7 +6218,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6271,7 +6257,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6308,7 +6296,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6345,7 +6335,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6382,7 +6374,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6419,7 +6413,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6456,7 +6452,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6493,7 +6491,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,7 +6530,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6564,10 +6566,14 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>6.09</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6579,6 +6585,6 @@
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-961224.3529000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1441108.0871</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-1256468.683</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2576609.1053</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2566609.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2566609.1053</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2540934.8359</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2546521.433</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2546521.433</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2546521.433</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2545736.433</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2553519.8944</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2553519.8944</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2451597.1142</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2482872.6808</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2482925.3745</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2473627.3165</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-2090361.0726</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2090361.0726</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2085806.0726</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2113260.7818</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2231031.1549</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2555908.3307</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2522350.4473</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2515637.684799999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2519953.396799999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2536202.255799999</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2509343.817299999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3338214.710799999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3807067.464399998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3806956.464399998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3806956.464399998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3814626.464399998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3814493.464399998</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3828709.724099997</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-4030892.185499997</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3979091.516399997</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3979091.516399997</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3978863.777399997</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3978863.777399997</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4697791.581799998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -5038,11 +5038,17 @@
         <v>-5514103.523011687</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5081,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5108,7 +5118,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5155,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5192,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5229,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5266,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5303,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,15 +5336,15 @@
         <v>-6988786.235811687</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J149" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,17 +5373,13 @@
         <v>-6988786.235811687</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J150" t="n">
-        <v>6.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5385,12 +5415,10 @@
       <c r="I151" t="n">
         <v>6.01</v>
       </c>
-      <c r="J151" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -5426,10 +5454,12 @@
       <c r="I152" t="n">
         <v>6.01</v>
       </c>
-      <c r="J152" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5458,17 +5488,13 @@
         <v>-6988679.442511687</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J153" t="n">
-        <v>6.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5499,17 +5525,13 @@
         <v>-6988476.868311687</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="J154" t="n">
-        <v>6.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5540,15 +5562,15 @@
         <v>-6988476.868311687</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5577,17 +5599,13 @@
         <v>-6960399.530011687</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="J156" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5618,17 +5636,13 @@
         <v>-6948339.530011687</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5659,15 +5673,15 @@
         <v>-6910439.253511688</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J158" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5696,17 +5710,13 @@
         <v>-6910439.253511688</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J159" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L159" t="n">
@@ -5737,17 +5747,13 @@
         <v>-6910439.253511688</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J160" t="n">
-        <v>6.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5778,15 +5784,15 @@
         <v>-6910299.876511687</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J161" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5818,12 +5824,10 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
@@ -5857,9 +5861,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5896,9 +5898,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5932,12 +5932,12 @@
         <v>-7511905.479911688</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.09</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>6</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5971,12 +5971,12 @@
         <v>-7511916.479911688</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.09</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6015,9 +6015,7 @@
       <c r="I167" t="n">
         <v>5.99</v>
       </c>
-      <c r="J167" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6056,9 +6054,7 @@
       <c r="I168" t="n">
         <v>6.08</v>
       </c>
-      <c r="J168" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,9 +6093,7 @@
       <c r="I169" t="n">
         <v>6.01</v>
       </c>
-      <c r="J169" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6133,14 +6127,10 @@
         <v>-7328722.252211688</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J170" t="n">
-        <v>6.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6174,14 +6164,10 @@
         <v>-6595160.977511688</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="J171" t="n">
-        <v>6.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6215,20 +6201,16 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.09</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -6254,17 +6236,11 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6293,17 +6269,11 @@
         <v>-6720741.126411689</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6332,17 +6302,11 @@
         <v>-6720519.777211688</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6374,14 +6338,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6413,14 +6371,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6452,14 +6404,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6491,14 +6437,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6527,17 +6467,11 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6566,25 +6500,17 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="J181" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
       <c r="M181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -1441,7 +1441,7 @@
         <v>-2085816.0726</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2113260.7818</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2231622.1257</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2528219.198999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2509343.817299999</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2548296.618499999</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3473321.606299999</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-4913521.835499998</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-5327626.744699998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3551393.367299998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -5038,1067 +5038,981 @@
         <v>-5514103.523011687</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
         <v>6.01</v>
       </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
+      <c r="C142" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E142" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1291900</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-6806003.523011687</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E143" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F143" t="n">
+        <v>33600</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-6772403.523011687</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-6772403.523011687</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>237.3223</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-6772166.200711687</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>63490.099</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-6708676.101711687</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="C147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="F147" t="n">
+        <v>28389.9005</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-6737066.002211687</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C148" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F148" t="n">
+        <v>213624.909</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-6950690.911211687</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F149" t="n">
+        <v>38095.3246</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F150" t="n">
+        <v>39782.8757</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3521.6851</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-6988786.235811687</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E152" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>106.7933</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-6988679.442511687</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J152" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F153" t="n">
+        <v>22762.3742</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-6988679.442511687</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>202.5742</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-6988476.868311687</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23870.2337</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-6988476.868311687</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28077.3383</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-6960399.530011687</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E157" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12060</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-6948339.530011687</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F158" t="n">
+        <v>37900.2765</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E159" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F159" t="n">
+        <v>341102.4891</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="C160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E160" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F160" t="n">
+        <v>50035.8878</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-6910439.253511688</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E161" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>139.377</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-6910299.876511687</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D162" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F162" t="n">
+        <v>760108.3975</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-7670408.274011687</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="C163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="F163" t="n">
+        <v>166389.351</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-7504018.923011688</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="n">
+        <v>6</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-7512018.923011688</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F165" t="n">
+        <v>113.4431</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-7511905.479911688</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>6</v>
+      </c>
+      <c r="J165" t="n">
+        <v>6</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="E166" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="F166" t="n">
+        <v>11</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-7511916.479911688</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="C167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="F167" t="n">
+        <v>101.9407</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-7511814.539211688</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="J167" t="n">
+        <v>6</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="C168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="F168" t="n">
+        <v>89974.1234</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-7601788.662611688</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="J168" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C169" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="D169" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F169" t="n">
+        <v>200896.3285</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-7400892.334111688</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J169" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C142" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="D142" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E142" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1291900</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-6806003.523011687</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E143" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F143" t="n">
-        <v>33600</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-6772403.523011687</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E144" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F144" t="n">
-        <v>16400</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-6772403.523011687</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E145" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F145" t="n">
-        <v>237.3223</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-6772166.200711687</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C146" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E146" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F146" t="n">
-        <v>63490.099</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-6708676.101711687</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="C147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="D147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="E147" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="F147" t="n">
-        <v>28389.9005</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-6737066.002211687</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C148" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="E148" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F148" t="n">
-        <v>213624.909</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-6950690.911211687</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E149" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F149" t="n">
-        <v>38095.3246</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-6988786.235811687</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E150" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F150" t="n">
-        <v>39782.8757</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-6988786.235811687</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F151" t="n">
-        <v>3521.6851</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-6988786.235811687</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E152" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F152" t="n">
-        <v>106.7933</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-6988679.442511687</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E153" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F153" t="n">
-        <v>22762.3742</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-6988679.442511687</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F154" t="n">
-        <v>202.5742</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-6988476.868311687</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F155" t="n">
-        <v>23870.2337</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-6988476.868311687</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F156" t="n">
-        <v>28077.3383</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-6960399.530011687</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E157" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F157" t="n">
-        <v>12060</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-6948339.530011687</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E158" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F158" t="n">
-        <v>37900.2765</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E159" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F159" t="n">
-        <v>341102.4891</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="C160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E160" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F160" t="n">
-        <v>50035.8878</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>139.377</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-6910299.876511687</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C162" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D162" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="E162" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F162" t="n">
-        <v>760108.3975</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-7670408.274011687</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="C163" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="D163" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E163" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="F163" t="n">
-        <v>166389.351</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-7504018.923011688</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>6</v>
-      </c>
-      <c r="C164" t="n">
-        <v>6</v>
-      </c>
-      <c r="D164" t="n">
-        <v>6</v>
-      </c>
-      <c r="E164" t="n">
-        <v>6</v>
-      </c>
-      <c r="F164" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-7512018.923011688</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C165" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D165" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E165" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F165" t="n">
-        <v>113.4431</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-7511905.479911688</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="C166" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D166" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="E166" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="F166" t="n">
-        <v>11</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-7511916.479911688</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="C167" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="D167" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="E167" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="F167" t="n">
-        <v>101.9407</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-7511814.539211688</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="C168" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D168" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="E168" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F168" t="n">
-        <v>89974.1234</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-7601788.662611688</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C169" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="D169" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="E169" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F169" t="n">
-        <v>200896.3285</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-7400892.334111688</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6127,10 +6041,14 @@
         <v>-7328722.252211688</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J170" t="n">
+        <v>6.08</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,7 +6085,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.08</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6201,16 +6121,20 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.08</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
       <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
@@ -6236,11 +6160,17 @@
         <v>-6590160.977511688</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6269,11 +6199,17 @@
         <v>-6720741.126411689</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6302,11 +6238,17 @@
         <v>-6720519.777211688</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6338,8 +6280,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6371,8 +6319,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6404,8 +6358,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6437,8 +6397,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +6433,17 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +6472,17 @@
         <v>-6720844.335411688</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest HYC.xlsx
+++ b/BackTest/2019-10-18 BackTest HYC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M181"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>738454.4223</v>
       </c>
       <c r="G2" t="n">
-        <v>-961224.3529000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>479883.7342</v>
       </c>
       <c r="G3" t="n">
-        <v>-1441108.0871</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>184639.4041</v>
       </c>
       <c r="G4" t="n">
-        <v>-1256468.683</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1320140.4223</v>
       </c>
       <c r="G5" t="n">
-        <v>-2576609.1053</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10000</v>
       </c>
       <c r="G6" t="n">
-        <v>-2566609.1053</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>23702.9625</v>
       </c>
       <c r="G7" t="n">
-        <v>-2566609.1053</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>25674.2694</v>
       </c>
       <c r="G8" t="n">
-        <v>-2540934.8359</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>17266.1931</v>
       </c>
       <c r="G9" t="n">
-        <v>-2540934.8359</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>5179.8538</v>
       </c>
       <c r="G10" t="n">
-        <v>-2540934.8359</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>25640.2758</v>
       </c>
       <c r="G11" t="n">
-        <v>-2540934.8359</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10489.2045</v>
       </c>
       <c r="G12" t="n">
-        <v>-2540934.8359</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>5244.6428</v>
       </c>
       <c r="G13" t="n">
-        <v>-2540934.8359</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5586.5971</v>
       </c>
       <c r="G14" t="n">
-        <v>-2546521.433</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>9217.8853</v>
       </c>
       <c r="G15" t="n">
-        <v>-2546521.433</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>979.4287</v>
       </c>
       <c r="G16" t="n">
-        <v>-2546521.433</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>785</v>
       </c>
       <c r="G17" t="n">
-        <v>-2545736.433</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>7783.4614</v>
       </c>
       <c r="G18" t="n">
-        <v>-2553519.8944</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1575.7407</v>
       </c>
       <c r="G19" t="n">
-        <v>-2553519.8944</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>101922.7802</v>
       </c>
       <c r="G20" t="n">
-        <v>-2451597.1142</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>61541.6828</v>
       </c>
       <c r="G21" t="n">
-        <v>-2451597.1142</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>32856.2267</v>
       </c>
       <c r="G22" t="n">
-        <v>-2451597.1142</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>14.2995</v>
       </c>
       <c r="G23" t="n">
-        <v>-2451582.8147</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2000</v>
       </c>
       <c r="G24" t="n">
-        <v>-2451582.8147</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>22118.8083</v>
       </c>
       <c r="G25" t="n">
-        <v>-2473701.623</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>9171.0578</v>
       </c>
       <c r="G26" t="n">
-        <v>-2482872.6808</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>52.6937</v>
       </c>
       <c r="G27" t="n">
-        <v>-2482925.3745</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>9298.058000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-2473627.3165</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>383266.2439</v>
       </c>
       <c r="G29" t="n">
-        <v>-2090361.0726</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>63320.2797</v>
       </c>
       <c r="G30" t="n">
-        <v>-2090361.0726</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>4555</v>
       </c>
       <c r="G31" t="n">
-        <v>-2085806.0726</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-2085816.0726</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>27444.7092</v>
       </c>
       <c r="G33" t="n">
-        <v>-2113260.7818</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>118361.3439</v>
       </c>
       <c r="G34" t="n">
-        <v>-2231622.1257</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>40939.6842</v>
       </c>
       <c r="G35" t="n">
-        <v>-2231622.1257</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>590.9708000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>-2231031.1549</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>307.9288</v>
       </c>
       <c r="G37" t="n">
-        <v>-2231031.1549</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>5047.6699</v>
       </c>
       <c r="G38" t="n">
-        <v>-2231031.1549</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>172859.3273</v>
       </c>
       <c r="G39" t="n">
-        <v>-2058171.8276</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>582147.9567</v>
       </c>
       <c r="G40" t="n">
-        <v>-2640319.7843</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>84411.45359999999</v>
       </c>
       <c r="G41" t="n">
-        <v>-2555908.3307</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>33557.8834</v>
       </c>
       <c r="G42" t="n">
-        <v>-2522350.4473</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>6712.7625</v>
       </c>
       <c r="G43" t="n">
-        <v>-2515637.684799999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>4315.712</v>
       </c>
       <c r="G44" t="n">
-        <v>-2519953.396799999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>5303.3818</v>
       </c>
       <c r="G45" t="n">
-        <v>-2519953.396799999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>10085.5987</v>
       </c>
       <c r="G46" t="n">
-        <v>-2519953.396799999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>8265.8022</v>
       </c>
       <c r="G47" t="n">
-        <v>-2528219.198999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>477</v>
       </c>
       <c r="G48" t="n">
-        <v>-2528219.198999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>111</v>
       </c>
       <c r="G49" t="n">
-        <v>-2528219.198999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1146.1978</v>
       </c>
       <c r="G50" t="n">
-        <v>-2528219.198999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>7983.0568</v>
       </c>
       <c r="G51" t="n">
-        <v>-2536202.255799999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>26858.4385</v>
       </c>
       <c r="G52" t="n">
-        <v>-2509343.817299999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>39456.4463</v>
       </c>
       <c r="G53" t="n">
-        <v>-2548800.263599999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>503.6451</v>
       </c>
       <c r="G54" t="n">
-        <v>-2548296.618499999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>4495.2258</v>
       </c>
       <c r="G55" t="n">
-        <v>-2548296.618499999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>63830.8064</v>
       </c>
       <c r="G56" t="n">
-        <v>-2548296.618499999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>1111</v>
       </c>
       <c r="G57" t="n">
-        <v>-2548296.618499999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1368</v>
       </c>
       <c r="G58" t="n">
-        <v>-2548296.618499999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>816568.2781</v>
       </c>
       <c r="G59" t="n">
-        <v>-3364864.896599999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>7000</v>
       </c>
       <c r="G60" t="n">
-        <v>-3357864.896599999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>8578.6566</v>
       </c>
       <c r="G61" t="n">
-        <v>-3366443.553199999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>28228.8424</v>
       </c>
       <c r="G62" t="n">
-        <v>-3338214.710799999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>6019.1671</v>
       </c>
       <c r="G63" t="n">
-        <v>-3338214.710799999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>80000</v>
       </c>
       <c r="G64" t="n">
-        <v>-3338214.710799999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>135106.8955</v>
       </c>
       <c r="G65" t="n">
-        <v>-3473321.606299999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>1440200.2292</v>
       </c>
       <c r="G66" t="n">
-        <v>-4913521.835499998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>414104.9092</v>
       </c>
       <c r="G67" t="n">
-        <v>-5327626.744699998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>1776233.3774</v>
       </c>
       <c r="G68" t="n">
-        <v>-3551393.367299998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>255674.0971</v>
       </c>
       <c r="G69" t="n">
-        <v>-3807067.464399998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>111</v>
       </c>
       <c r="G70" t="n">
-        <v>-3806956.464399998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>200</v>
       </c>
       <c r="G71" t="n">
-        <v>-3806956.464399998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>7670</v>
       </c>
       <c r="G72" t="n">
-        <v>-3814626.464399998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>133</v>
       </c>
       <c r="G73" t="n">
-        <v>-3814493.464399998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>456</v>
       </c>
       <c r="G74" t="n">
-        <v>-3814493.464399998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>508</v>
       </c>
       <c r="G75" t="n">
-        <v>-3814493.464399998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>527</v>
       </c>
       <c r="G76" t="n">
-        <v>-3814493.464399998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>52310.1612</v>
       </c>
       <c r="G77" t="n">
-        <v>-3814493.464399998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>14216.2597</v>
       </c>
       <c r="G78" t="n">
-        <v>-3828709.724099997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>202182.4614</v>
       </c>
       <c r="G79" t="n">
-        <v>-4030892.185499997</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>51800.6691</v>
       </c>
       <c r="G80" t="n">
-        <v>-3979091.516399997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>85616.69289999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-3979091.516399997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>227.739</v>
       </c>
       <c r="G82" t="n">
-        <v>-3978863.777399997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>19191.5721</v>
       </c>
       <c r="G83" t="n">
-        <v>-3978863.777399997</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>10607.0093</v>
       </c>
       <c r="G84" t="n">
-        <v>-3968256.768099997</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>585960.2071999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-4554216.975299997</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>29806.9925</v>
       </c>
       <c r="G86" t="n">
-        <v>-4524409.982799998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>5916.0032</v>
       </c>
       <c r="G87" t="n">
-        <v>-4524409.982799998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>173381.599</v>
       </c>
       <c r="G88" t="n">
-        <v>-4697791.581799998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>661909.8162999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-4035881.765499998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>28940</v>
       </c>
       <c r="G90" t="n">
-        <v>-4064821.765499998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-4064831.765499998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>14460</v>
       </c>
       <c r="G92" t="n">
-        <v>-4064831.765499998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>6560.0487</v>
       </c>
       <c r="G93" t="n">
-        <v>-4064831.765499998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>21226.8852</v>
       </c>
       <c r="G94" t="n">
-        <v>-4086058.650699998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>463773.1148</v>
       </c>
       <c r="G95" t="n">
-        <v>-4549831.765499998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>11</v>
       </c>
       <c r="G96" t="n">
-        <v>-4549820.765499998</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>81168.8311</v>
       </c>
       <c r="G97" t="n">
-        <v>-4468651.934399998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>20</v>
       </c>
       <c r="G98" t="n">
-        <v>-4468671.934399998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>-4468661.934399998</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>81214.691558441</v>
       </c>
       <c r="G100" t="n">
-        <v>-4468661.934399998</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>252.6178</v>
       </c>
       <c r="G101" t="n">
-        <v>-4468661.934399998</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>239.9837</v>
       </c>
       <c r="G102" t="n">
-        <v>-4468661.934399998</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1494.8698</v>
       </c>
       <c r="G103" t="n">
-        <v>-4468661.934399998</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>3104.7152</v>
       </c>
       <c r="G104" t="n">
-        <v>-4468661.934399998</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>16759.5362</v>
       </c>
       <c r="G105" t="n">
-        <v>-4485421.470599998</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>42360</v>
       </c>
       <c r="G106" t="n">
-        <v>-4485421.470599998</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>12</v>
       </c>
       <c r="G107" t="n">
-        <v>-4485409.470599998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>60596.5522</v>
       </c>
       <c r="G108" t="n">
-        <v>-4546006.022799998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>80991.70480000001</v>
       </c>
       <c r="G109" t="n">
-        <v>-4626997.727599998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>26647.5339</v>
       </c>
       <c r="G110" t="n">
-        <v>-4626997.727599998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>10</v>
       </c>
       <c r="G111" t="n">
-        <v>-4626987.727599998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>68019.2556</v>
       </c>
       <c r="G112" t="n">
-        <v>-4558968.471999998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>55943.4069</v>
       </c>
       <c r="G113" t="n">
-        <v>-4614911.878899998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>600105.0736</v>
       </c>
       <c r="G114" t="n">
-        <v>-5215016.952499998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>12</v>
       </c>
       <c r="G115" t="n">
-        <v>-5215004.952499998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>47890.595688311</v>
       </c>
       <c r="G116" t="n">
-        <v>-5167114.356811686</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>23950</v>
       </c>
       <c r="G117" t="n">
-        <v>-5191064.356811686</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>36933.4538</v>
       </c>
       <c r="G118" t="n">
-        <v>-5227997.810611687</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>90170.5462</v>
       </c>
       <c r="G119" t="n">
-        <v>-5137827.264411687</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>147045.774877487</v>
       </c>
       <c r="G120" t="n">
-        <v>-5137827.264411687</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>498.3986</v>
       </c>
       <c r="G121" t="n">
-        <v>-5138325.663011687</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>452.851</v>
       </c>
       <c r="G122" t="n">
-        <v>-5138325.663011687</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>95.7516</v>
       </c>
       <c r="G123" t="n">
-        <v>-5138325.663011687</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>141043.4983</v>
       </c>
       <c r="G124" t="n">
-        <v>-5279369.161311687</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>4597.7011</v>
       </c>
       <c r="G125" t="n">
-        <v>-5274771.460211687</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>63671.2294</v>
       </c>
       <c r="G126" t="n">
-        <v>-5338442.689611686</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>51727.9318</v>
       </c>
       <c r="G127" t="n">
-        <v>-5338442.689611686</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>74842.77220000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-5338442.689611686</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>10460.3648</v>
       </c>
       <c r="G129" t="n">
-        <v>-5338442.689611686</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>9441.301799999999</v>
       </c>
       <c r="G130" t="n">
-        <v>-5338442.689611686</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>81054.24129999999</v>
       </c>
       <c r="G131" t="n">
-        <v>-5419496.930911686</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>261652.9557</v>
       </c>
       <c r="G132" t="n">
-        <v>-5419496.930911686</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>62770.1061</v>
       </c>
       <c r="G133" t="n">
-        <v>-5482267.037011687</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>2450.6414</v>
       </c>
       <c r="G134" t="n">
-        <v>-5479816.395611687</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>124050.5276</v>
       </c>
       <c r="G135" t="n">
-        <v>-5603866.923211686</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>64720.6398</v>
       </c>
       <c r="G136" t="n">
-        <v>-5668587.563011686</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>132.3544</v>
       </c>
       <c r="G137" t="n">
-        <v>-5668455.208611687</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>72927.7004</v>
       </c>
       <c r="G138" t="n">
-        <v>-5741382.909011687</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>41886.1896</v>
       </c>
       <c r="G139" t="n">
-        <v>-5699496.719411687</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>192347.5873</v>
       </c>
       <c r="G140" t="n">
-        <v>-5699496.719411687</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>185393.1964</v>
       </c>
       <c r="G141" t="n">
-        <v>-5514103.523011687</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>1291900</v>
       </c>
       <c r="G142" t="n">
-        <v>-6806003.523011687</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>33600</v>
       </c>
       <c r="G143" t="n">
-        <v>-6772403.523011687</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>16400</v>
       </c>
       <c r="G144" t="n">
-        <v>-6772403.523011687</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>237.3223</v>
       </c>
       <c r="G145" t="n">
-        <v>-6772166.200711687</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>63490.099</v>
       </c>
       <c r="G146" t="n">
-        <v>-6708676.101711687</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>28389.9005</v>
       </c>
       <c r="G147" t="n">
-        <v>-6737066.002211687</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>213624.909</v>
       </c>
       <c r="G148" t="n">
-        <v>-6950690.911211687</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>38095.3246</v>
       </c>
       <c r="G149" t="n">
-        <v>-6988786.235811687</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,19 @@
         <v>39782.8757</v>
       </c>
       <c r="G150" t="n">
-        <v>-6988786.235811687</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>6.01</v>
+      </c>
+      <c r="I150" t="n">
+        <v>6.01</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4917,23 @@
         <v>3521.6851</v>
       </c>
       <c r="G151" t="n">
-        <v>-6988786.235811687</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>6.01</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,22 +4955,23 @@
         <v>106.7933</v>
       </c>
       <c r="G152" t="n">
-        <v>-6988679.442511687</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>6.01</v>
       </c>
       <c r="I152" t="n">
         <v>6.01</v>
       </c>
-      <c r="J152" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5435,129 +4993,121 @@
         <v>22762.3742</v>
       </c>
       <c r="G153" t="n">
-        <v>-6988679.442511687</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K153" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F154" t="n">
+        <v>202.5742</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="I154" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="C155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E155" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F155" t="n">
+        <v>23870.2337</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J155" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E154" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F154" t="n">
-        <v>202.5742</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-6988476.868311687</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="E156" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F156" t="n">
+        <v>28077.3383</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="J156" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="C155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="D155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="E155" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="F155" t="n">
-        <v>23870.2337</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-6988476.868311687</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="C156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="D156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="E156" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="F156" t="n">
-        <v>28077.3383</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-6960399.530011687</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5579,18 +5129,15 @@
         <v>12060</v>
       </c>
       <c r="G157" t="n">
-        <v>-6948339.530011687</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5612,18 +5159,15 @@
         <v>37900.2765</v>
       </c>
       <c r="G158" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5645,18 +5189,15 @@
         <v>341102.4891</v>
       </c>
       <c r="G159" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5678,18 +5219,15 @@
         <v>50035.8878</v>
       </c>
       <c r="G160" t="n">
-        <v>-6910439.253511688</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5711,18 +5249,15 @@
         <v>139.377</v>
       </c>
       <c r="G161" t="n">
-        <v>-6910299.876511687</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5744,18 +5279,15 @@
         <v>760108.3975</v>
       </c>
       <c r="G162" t="n">
-        <v>-7670408.274011687</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5777,18 +5309,15 @@
         <v>166389.351</v>
       </c>
       <c r="G163" t="n">
-        <v>-7504018.923011688</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5810,18 +5339,15 @@
         <v>8000</v>
       </c>
       <c r="G164" t="n">
-        <v>-7512018.923011688</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5843,22 +5369,15 @@
         <v>113.4431</v>
       </c>
       <c r="G165" t="n">
-        <v>-7511905.479911688</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>6</v>
-      </c>
-      <c r="J165" t="n">
-        <v>6</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5880,24 +5399,15 @@
         <v>11</v>
       </c>
       <c r="G166" t="n">
-        <v>-7511916.479911688</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5919,26 +5429,15 @@
         <v>101.9407</v>
       </c>
       <c r="G167" t="n">
-        <v>-7511814.539211688</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="J167" t="n">
-        <v>6</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5960,22 +5459,15 @@
         <v>89974.1234</v>
       </c>
       <c r="G168" t="n">
-        <v>-7601788.662611688</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J168" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5997,26 +5489,15 @@
         <v>200896.3285</v>
       </c>
       <c r="G169" t="n">
-        <v>-7400892.334111688</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J169" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6038,26 +5519,15 @@
         <v>72170.0819</v>
       </c>
       <c r="G170" t="n">
-        <v>-7328722.252211688</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J170" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6079,24 +5549,15 @@
         <v>733561.2747</v>
       </c>
       <c r="G171" t="n">
-        <v>-6595160.977511688</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6118,24 +5579,15 @@
         <v>5000</v>
       </c>
       <c r="G172" t="n">
-        <v>-6590160.977511688</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6157,24 +5609,15 @@
         <v>171.0866</v>
       </c>
       <c r="G173" t="n">
-        <v>-6590160.977511688</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6196,24 +5639,15 @@
         <v>130580.1489</v>
       </c>
       <c r="G174" t="n">
-        <v>-6720741.126411689</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6235,24 +5669,15 @@
         <v>221.3492</v>
       </c>
       <c r="G175" t="n">
-        <v>-6720519.777211688</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6274,24 +5699,15 @@
         <v>8615.558199999999</v>
       </c>
       <c r="G176" t="n">
-        <v>-6729135.335411688</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6313,24 +5729,15 @@
         <v>11</v>
       </c>
       <c r="G177" t="n">
-        <v>-6729135.335411688</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6352,24 +5759,15 @@
         <v>300</v>
       </c>
       <c r="G178" t="n">
-        <v>-6729135.335411688</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6391,24 +5789,15 @@
         <v>7493.48</v>
       </c>
       <c r="G179" t="n">
-        <v>-6729135.335411688</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6430,24 +5819,15 @@
         <v>8291</v>
       </c>
       <c r="G180" t="n">
-        <v>-6720844.335411688</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6469,24 +5849,15 @@
         <v>300</v>
       </c>
       <c r="G181" t="n">
-        <v>-6720844.335411688</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
